--- a/database/industries/palayesh/shavan/product/monthly.xlsx
+++ b/database/industries/palayesh/shavan/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\palayesh\shavan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D91F71-CE74-4381-BEFB-1FD091E04DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2634" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2637" uniqueCount="94">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -186,6 +184,9 @@
     <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
+    <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>سایر</t>
   </si>
   <si>
@@ -306,7 +307,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -499,7 +500,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -511,7 +512,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -558,6 +559,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -593,6 +611,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -744,17 +779,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -809,7 +844,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -866,7 +901,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -923,7 +958,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -978,7 +1013,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1035,7 +1070,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1092,7 +1127,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1147,7 +1182,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1304,7 +1339,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1359,7 +1394,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1416,7 +1451,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1541,14 +1576,14 @@
       <c r="AQ11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR11" s="11" t="s">
-        <v>57</v>
+      <c r="AR11" s="11">
+        <v>0</v>
       </c>
       <c r="AS11" s="11">
         <v>0</v>
       </c>
-      <c r="AT11" s="11">
-        <v>0</v>
+      <c r="AT11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU11" s="11" t="s">
         <v>57</v>
@@ -1575,7 +1610,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1584,157 +1619,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>46864</v>
+        <v>54504</v>
       </c>
       <c r="F12" s="13">
-        <v>54504</v>
+        <v>53820</v>
       </c>
       <c r="G12" s="13">
-        <v>53820</v>
+        <v>38034</v>
       </c>
       <c r="H12" s="13">
-        <v>38034</v>
+        <v>51867</v>
       </c>
       <c r="I12" s="13">
-        <v>51867</v>
+        <v>59619</v>
       </c>
       <c r="J12" s="13">
-        <v>59619</v>
+        <v>44904</v>
       </c>
       <c r="K12" s="13">
-        <v>44904</v>
+        <v>48020</v>
       </c>
       <c r="L12" s="13">
-        <v>48020</v>
+        <v>45077</v>
       </c>
       <c r="M12" s="13">
-        <v>45077</v>
+        <v>55597</v>
       </c>
       <c r="N12" s="13">
-        <v>55597</v>
+        <v>58625</v>
       </c>
       <c r="O12" s="13">
-        <v>58625</v>
+        <v>58842</v>
       </c>
       <c r="P12" s="13">
-        <v>58842</v>
+        <v>55889</v>
       </c>
       <c r="Q12" s="13">
-        <v>55889</v>
+        <v>44560</v>
       </c>
       <c r="R12" s="13">
-        <v>44560</v>
+        <v>50236</v>
       </c>
       <c r="S12" s="13">
-        <v>50236</v>
+        <v>46103</v>
       </c>
       <c r="T12" s="13">
-        <v>46103</v>
+        <v>45869</v>
       </c>
       <c r="U12" s="13">
-        <v>45869</v>
+        <v>34892</v>
       </c>
       <c r="V12" s="13">
-        <v>34892</v>
+        <v>41221</v>
       </c>
       <c r="W12" s="13">
-        <v>41221</v>
+        <v>42257</v>
       </c>
       <c r="X12" s="13">
-        <v>42257</v>
+        <v>31854</v>
       </c>
       <c r="Y12" s="13">
-        <v>31854</v>
+        <v>32752</v>
       </c>
       <c r="Z12" s="13">
-        <v>32752</v>
+        <v>52296</v>
       </c>
       <c r="AA12" s="13">
-        <v>52296</v>
+        <v>48601</v>
       </c>
       <c r="AB12" s="13">
-        <v>48601</v>
+        <v>59027</v>
       </c>
       <c r="AC12" s="13">
-        <v>59027</v>
+        <v>50567</v>
       </c>
       <c r="AD12" s="13">
-        <v>50567</v>
+        <v>49806</v>
       </c>
       <c r="AE12" s="13">
-        <v>49806</v>
+        <v>57476</v>
       </c>
       <c r="AF12" s="13">
-        <v>57476</v>
+        <v>49006</v>
       </c>
       <c r="AG12" s="13">
-        <v>49006</v>
+        <v>43675</v>
       </c>
       <c r="AH12" s="13">
-        <v>43675</v>
+        <v>53485</v>
       </c>
       <c r="AI12" s="13">
-        <v>53485</v>
+        <v>53969</v>
       </c>
       <c r="AJ12" s="13">
-        <v>53969</v>
+        <v>54781</v>
       </c>
       <c r="AK12" s="13">
-        <v>54781</v>
+        <v>53778</v>
       </c>
       <c r="AL12" s="13">
-        <v>53778</v>
+        <v>55363</v>
       </c>
       <c r="AM12" s="13">
-        <v>55363</v>
+        <v>55308</v>
       </c>
       <c r="AN12" s="13">
-        <v>55308</v>
-      </c>
-      <c r="AO12" s="13">
         <v>53104</v>
       </c>
-      <c r="AP12" s="13" t="s">
-        <v>57</v>
+      <c r="AO12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP12" s="13">
+        <v>55978</v>
       </c>
       <c r="AQ12" s="13">
-        <v>55978</v>
+        <v>53607</v>
       </c>
       <c r="AR12" s="13">
-        <v>53607</v>
+        <v>89225</v>
       </c>
       <c r="AS12" s="13">
-        <v>89225</v>
+        <v>635036</v>
       </c>
       <c r="AT12" s="13">
-        <v>635036</v>
+        <v>54994</v>
       </c>
       <c r="AU12" s="13">
-        <v>54994</v>
+        <v>54853</v>
       </c>
       <c r="AV12" s="13">
-        <v>54853</v>
+        <v>52604</v>
       </c>
       <c r="AW12" s="13">
-        <v>52604</v>
+        <v>54998</v>
       </c>
       <c r="AX12" s="13">
-        <v>54998</v>
+        <v>49663</v>
       </c>
       <c r="AY12" s="13">
-        <v>49663</v>
+        <v>50198</v>
       </c>
       <c r="AZ12" s="13">
-        <v>50198</v>
+        <v>45580</v>
       </c>
       <c r="BA12" s="13">
-        <v>45580</v>
+        <v>46369</v>
       </c>
       <c r="BB12" s="13">
-        <v>46369</v>
+        <v>47642</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1743,59 +1778,59 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>306</v>
+        <v>555</v>
       </c>
       <c r="F13" s="11">
-        <v>555</v>
+        <v>286</v>
       </c>
       <c r="G13" s="11">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="H13" s="11">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="I13" s="11">
-        <v>298</v>
+        <v>176</v>
       </c>
       <c r="J13" s="11">
+        <v>241</v>
+      </c>
+      <c r="K13" s="11">
+        <v>398</v>
+      </c>
+      <c r="L13" s="11">
+        <v>291</v>
+      </c>
+      <c r="M13" s="11">
+        <v>337</v>
+      </c>
+      <c r="N13" s="11">
         <v>176</v>
       </c>
-      <c r="K13" s="11">
-        <v>241</v>
-      </c>
-      <c r="L13" s="11">
-        <v>398</v>
-      </c>
-      <c r="M13" s="11">
-        <v>291</v>
-      </c>
-      <c r="N13" s="11">
-        <v>337</v>
-      </c>
       <c r="O13" s="11">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="P13" s="11">
-        <v>155</v>
+        <v>480</v>
       </c>
       <c r="Q13" s="11">
-        <v>480</v>
+        <v>266</v>
       </c>
       <c r="R13" s="11">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="S13" s="11">
-        <v>256</v>
+        <v>160</v>
       </c>
       <c r="T13" s="11">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="U13" s="11">
-        <v>192</v>
-      </c>
-      <c r="V13" s="11">
         <v>310</v>
       </c>
+      <c r="V13" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="W13" s="11" t="s">
         <v>57</v>
       </c>
@@ -1893,7 +1928,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -2018,41 +2053,41 @@
       <c r="AQ14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR14" s="13" t="s">
-        <v>57</v>
+      <c r="AR14" s="13">
+        <v>0</v>
       </c>
       <c r="AS14" s="13">
         <v>0</v>
       </c>
-      <c r="AT14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU14" s="13" t="s">
-        <v>57</v>
+      <c r="AT14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU14" s="13">
+        <v>74010</v>
       </c>
       <c r="AV14" s="13">
-        <v>74010</v>
+        <v>71095</v>
       </c>
       <c r="AW14" s="13">
-        <v>71095</v>
+        <v>74376</v>
       </c>
       <c r="AX14" s="13">
-        <v>74376</v>
+        <v>72082</v>
       </c>
       <c r="AY14" s="13">
-        <v>72082</v>
+        <v>74047</v>
       </c>
       <c r="AZ14" s="13">
-        <v>74047</v>
+        <v>68761</v>
       </c>
       <c r="BA14" s="13">
-        <v>68761</v>
+        <v>68716</v>
       </c>
       <c r="BB14" s="13">
-        <v>68716</v>
+        <v>72341</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2061,157 +2096,157 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>6240</v>
+        <v>8682</v>
       </c>
       <c r="F15" s="11">
-        <v>8682</v>
+        <v>5453</v>
       </c>
       <c r="G15" s="11">
-        <v>5453</v>
+        <v>5952</v>
       </c>
       <c r="H15" s="11">
-        <v>5952</v>
+        <v>5274</v>
       </c>
       <c r="I15" s="11">
-        <v>5274</v>
+        <v>4828</v>
       </c>
       <c r="J15" s="11">
-        <v>4828</v>
+        <v>10820</v>
       </c>
       <c r="K15" s="11">
-        <v>10820</v>
+        <v>7509</v>
       </c>
       <c r="L15" s="11">
-        <v>7509</v>
+        <v>8907</v>
       </c>
       <c r="M15" s="11">
-        <v>8907</v>
+        <v>5557</v>
       </c>
       <c r="N15" s="11">
-        <v>5557</v>
+        <v>8083</v>
       </c>
       <c r="O15" s="11">
-        <v>8083</v>
+        <v>6468</v>
       </c>
       <c r="P15" s="11">
-        <v>6468</v>
+        <v>7376</v>
       </c>
       <c r="Q15" s="11">
-        <v>7376</v>
+        <v>6733</v>
       </c>
       <c r="R15" s="11">
-        <v>6733</v>
+        <v>5433</v>
       </c>
       <c r="S15" s="11">
-        <v>5433</v>
+        <v>7149</v>
       </c>
       <c r="T15" s="11">
-        <v>7149</v>
+        <v>6579</v>
       </c>
       <c r="U15" s="11">
-        <v>6579</v>
+        <v>6146</v>
       </c>
       <c r="V15" s="11">
-        <v>6146</v>
+        <v>4080</v>
       </c>
       <c r="W15" s="11">
-        <v>4080</v>
+        <v>2096</v>
       </c>
       <c r="X15" s="11">
-        <v>2096</v>
+        <v>5713</v>
       </c>
       <c r="Y15" s="11">
-        <v>5713</v>
+        <v>6066</v>
       </c>
       <c r="Z15" s="11">
-        <v>6066</v>
+        <v>4089</v>
       </c>
       <c r="AA15" s="11">
-        <v>4089</v>
+        <v>5220</v>
       </c>
       <c r="AB15" s="11">
-        <v>5220</v>
+        <v>3392</v>
       </c>
       <c r="AC15" s="11">
-        <v>3392</v>
+        <v>8438</v>
       </c>
       <c r="AD15" s="11">
-        <v>8438</v>
+        <v>9147</v>
       </c>
       <c r="AE15" s="11">
-        <v>9147</v>
+        <v>9973</v>
       </c>
       <c r="AF15" s="11">
-        <v>9973</v>
+        <v>12516</v>
       </c>
       <c r="AG15" s="11">
-        <v>12516</v>
+        <v>11209</v>
       </c>
       <c r="AH15" s="11">
-        <v>11209</v>
+        <v>6802</v>
       </c>
       <c r="AI15" s="11">
-        <v>6802</v>
+        <v>8608</v>
       </c>
       <c r="AJ15" s="11">
-        <v>8608</v>
+        <v>4495</v>
       </c>
       <c r="AK15" s="11">
-        <v>4495</v>
+        <v>8078</v>
       </c>
       <c r="AL15" s="11">
-        <v>8078</v>
+        <v>3843</v>
       </c>
       <c r="AM15" s="11">
-        <v>3843</v>
+        <v>5232</v>
       </c>
       <c r="AN15" s="11">
-        <v>5232</v>
-      </c>
-      <c r="AO15" s="11">
         <v>5593</v>
       </c>
-      <c r="AP15" s="11" t="s">
-        <v>57</v>
+      <c r="AO15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>3906</v>
       </c>
       <c r="AQ15" s="11">
-        <v>3906</v>
+        <v>5717</v>
       </c>
       <c r="AR15" s="11">
-        <v>5717</v>
+        <v>4706</v>
       </c>
       <c r="AS15" s="11">
-        <v>4706</v>
+        <v>49261</v>
       </c>
       <c r="AT15" s="11">
-        <v>49261</v>
+        <v>4610</v>
       </c>
       <c r="AU15" s="11">
-        <v>4610</v>
+        <v>4468</v>
       </c>
       <c r="AV15" s="11">
-        <v>4468</v>
+        <v>3130</v>
       </c>
       <c r="AW15" s="11">
-        <v>3130</v>
+        <v>4260</v>
       </c>
       <c r="AX15" s="11">
-        <v>4260</v>
+        <v>3356</v>
       </c>
       <c r="AY15" s="11">
-        <v>3356</v>
+        <v>4391</v>
       </c>
       <c r="AZ15" s="11">
-        <v>4391</v>
+        <v>2544</v>
       </c>
       <c r="BA15" s="11">
-        <v>2544</v>
+        <v>3728</v>
       </c>
       <c r="BB15" s="11">
-        <v>3728</v>
+        <v>3028</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2220,157 +2255,157 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>64673</v>
+        <v>63957</v>
       </c>
       <c r="F16" s="13">
-        <v>63957</v>
+        <v>65380</v>
       </c>
       <c r="G16" s="13">
-        <v>65380</v>
+        <v>66815</v>
       </c>
       <c r="H16" s="13">
-        <v>66815</v>
+        <v>62992</v>
       </c>
       <c r="I16" s="13">
-        <v>62992</v>
+        <v>66127</v>
       </c>
       <c r="J16" s="13">
-        <v>66127</v>
+        <v>67124</v>
       </c>
       <c r="K16" s="13">
-        <v>67124</v>
+        <v>62934</v>
       </c>
       <c r="L16" s="13">
-        <v>62934</v>
+        <v>64998</v>
       </c>
       <c r="M16" s="13">
-        <v>64998</v>
+        <v>63293</v>
       </c>
       <c r="N16" s="13">
-        <v>63293</v>
+        <v>60680</v>
       </c>
       <c r="O16" s="13">
-        <v>60680</v>
+        <v>66743</v>
       </c>
       <c r="P16" s="13">
-        <v>66743</v>
+        <v>63491</v>
       </c>
       <c r="Q16" s="13">
-        <v>63491</v>
+        <v>49851</v>
       </c>
       <c r="R16" s="13">
-        <v>49851</v>
+        <v>57133</v>
       </c>
       <c r="S16" s="13">
-        <v>57133</v>
+        <v>19547</v>
       </c>
       <c r="T16" s="13">
-        <v>19547</v>
+        <v>20321</v>
       </c>
       <c r="U16" s="13">
-        <v>20321</v>
+        <v>56764</v>
       </c>
       <c r="V16" s="13">
-        <v>56764</v>
+        <v>37470</v>
       </c>
       <c r="W16" s="13">
-        <v>37470</v>
+        <v>33354</v>
       </c>
       <c r="X16" s="13">
-        <v>33354</v>
+        <v>34670</v>
       </c>
       <c r="Y16" s="13">
-        <v>34670</v>
+        <v>57361</v>
       </c>
       <c r="Z16" s="13">
-        <v>57361</v>
+        <v>57655</v>
       </c>
       <c r="AA16" s="13">
-        <v>57655</v>
+        <v>59775</v>
       </c>
       <c r="AB16" s="13">
-        <v>59775</v>
+        <v>53548</v>
       </c>
       <c r="AC16" s="13">
-        <v>53548</v>
+        <v>58688</v>
       </c>
       <c r="AD16" s="13">
-        <v>58688</v>
+        <v>66342</v>
       </c>
       <c r="AE16" s="13">
-        <v>66342</v>
+        <v>62120</v>
       </c>
       <c r="AF16" s="13">
-        <v>62120</v>
+        <v>62873</v>
       </c>
       <c r="AG16" s="13">
-        <v>62873</v>
+        <v>61529</v>
       </c>
       <c r="AH16" s="13">
-        <v>61529</v>
+        <v>62915</v>
       </c>
       <c r="AI16" s="13">
-        <v>62915</v>
+        <v>61972</v>
       </c>
       <c r="AJ16" s="13">
-        <v>61972</v>
+        <v>62703</v>
       </c>
       <c r="AK16" s="13">
-        <v>62703</v>
+        <v>61304</v>
       </c>
       <c r="AL16" s="13">
-        <v>61304</v>
+        <v>60440</v>
       </c>
       <c r="AM16" s="13">
-        <v>60440</v>
+        <v>56685</v>
       </c>
       <c r="AN16" s="13">
-        <v>56685</v>
-      </c>
-      <c r="AO16" s="13">
         <v>60025</v>
       </c>
-      <c r="AP16" s="13" t="s">
-        <v>57</v>
+      <c r="AO16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP16" s="13">
+        <v>34418</v>
       </c>
       <c r="AQ16" s="13">
-        <v>34418</v>
+        <v>72209</v>
       </c>
       <c r="AR16" s="13">
-        <v>72209</v>
+        <v>-582718</v>
       </c>
       <c r="AS16" s="13">
-        <v>-582718</v>
+        <v>450</v>
       </c>
       <c r="AT16" s="13">
-        <v>450</v>
+        <v>92698</v>
       </c>
       <c r="AU16" s="13">
-        <v>92698</v>
+        <v>89038</v>
       </c>
       <c r="AV16" s="13">
-        <v>89038</v>
+        <v>88540</v>
       </c>
       <c r="AW16" s="13">
-        <v>88540</v>
+        <v>88050</v>
       </c>
       <c r="AX16" s="13">
-        <v>88050</v>
+        <v>86901</v>
       </c>
       <c r="AY16" s="13">
-        <v>86901</v>
+        <v>90766</v>
       </c>
       <c r="AZ16" s="13">
-        <v>90766</v>
+        <v>86891</v>
       </c>
       <c r="BA16" s="13">
-        <v>86891</v>
+        <v>86446</v>
       </c>
       <c r="BB16" s="13">
-        <v>86446</v>
+        <v>86912</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2429,12 +2464,12 @@
       <c r="U17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W17" s="11">
+      <c r="V17" s="11">
         <v>108</v>
       </c>
+      <c r="W17" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X17" s="11" t="s">
         <v>57</v>
       </c>
@@ -2529,7 +2564,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
@@ -2591,8 +2626,8 @@
       <c r="V18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W18" s="13" t="s">
-        <v>57</v>
+      <c r="W18" s="13">
+        <v>0</v>
       </c>
       <c r="X18" s="13">
         <v>0</v>
@@ -2613,20 +2648,20 @@
         <v>0</v>
       </c>
       <c r="AD18" s="13">
-        <v>0</v>
+        <v>94517</v>
       </c>
       <c r="AE18" s="13">
-        <v>94517</v>
+        <v>47465</v>
       </c>
       <c r="AF18" s="13">
-        <v>47465</v>
+        <v>32547</v>
       </c>
       <c r="AG18" s="13">
-        <v>32547</v>
-      </c>
-      <c r="AH18" s="13">
         <v>56829</v>
       </c>
+      <c r="AH18" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AI18" s="13" t="s">
         <v>57</v>
       </c>
@@ -2654,41 +2689,41 @@
       <c r="AQ18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR18" s="13" t="s">
-        <v>57</v>
+      <c r="AR18" s="13">
+        <v>0</v>
       </c>
       <c r="AS18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="13">
         <v>557134</v>
       </c>
-      <c r="AU18" s="13" t="s">
-        <v>57</v>
+      <c r="AT18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU18" s="13">
+        <v>27285</v>
       </c>
       <c r="AV18" s="13">
-        <v>27285</v>
+        <v>34654</v>
       </c>
       <c r="AW18" s="13">
-        <v>34654</v>
+        <v>25308</v>
       </c>
       <c r="AX18" s="13">
-        <v>25308</v>
+        <v>33351</v>
       </c>
       <c r="AY18" s="13">
-        <v>33351</v>
+        <v>25614</v>
       </c>
       <c r="AZ18" s="13">
-        <v>25614</v>
+        <v>28527</v>
       </c>
       <c r="BA18" s="13">
-        <v>28527</v>
+        <v>31323</v>
       </c>
       <c r="BB18" s="13">
-        <v>31323</v>
+        <v>34254</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>66</v>
       </c>
@@ -2697,134 +2732,134 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>53807</v>
+        <v>47814</v>
       </c>
       <c r="F19" s="11">
-        <v>47814</v>
+        <v>53251</v>
       </c>
       <c r="G19" s="11">
-        <v>53251</v>
+        <v>48872</v>
       </c>
       <c r="H19" s="11">
-        <v>48872</v>
+        <v>57760</v>
       </c>
       <c r="I19" s="11">
-        <v>57760</v>
+        <v>45747</v>
       </c>
       <c r="J19" s="11">
-        <v>45747</v>
+        <v>55887</v>
       </c>
       <c r="K19" s="11">
-        <v>55887</v>
+        <v>61899</v>
       </c>
       <c r="L19" s="11">
-        <v>61899</v>
+        <v>62627</v>
       </c>
       <c r="M19" s="11">
-        <v>62627</v>
+        <v>64377</v>
       </c>
       <c r="N19" s="11">
-        <v>64377</v>
+        <v>68687</v>
       </c>
       <c r="O19" s="11">
-        <v>68687</v>
+        <v>69912</v>
       </c>
       <c r="P19" s="11">
-        <v>69912</v>
+        <v>66757</v>
       </c>
       <c r="Q19" s="11">
-        <v>66757</v>
+        <v>62176</v>
       </c>
       <c r="R19" s="11">
-        <v>62176</v>
+        <v>63482</v>
       </c>
       <c r="S19" s="11">
-        <v>63482</v>
+        <v>66234</v>
       </c>
       <c r="T19" s="11">
-        <v>66234</v>
+        <v>54934</v>
       </c>
       <c r="U19" s="11">
-        <v>54934</v>
+        <v>61317</v>
       </c>
       <c r="V19" s="11">
-        <v>61317</v>
+        <v>63498</v>
       </c>
       <c r="W19" s="11">
-        <v>63498</v>
+        <v>44747</v>
       </c>
       <c r="X19" s="11">
-        <v>44747</v>
+        <v>33217</v>
       </c>
       <c r="Y19" s="11">
-        <v>33217</v>
+        <v>63367</v>
       </c>
       <c r="Z19" s="11">
-        <v>63367</v>
+        <v>67636</v>
       </c>
       <c r="AA19" s="11">
-        <v>67636</v>
+        <v>68801</v>
       </c>
       <c r="AB19" s="11">
-        <v>68801</v>
+        <v>53834</v>
       </c>
       <c r="AC19" s="11">
-        <v>53834</v>
+        <v>40763</v>
       </c>
       <c r="AD19" s="11">
-        <v>40763</v>
+        <v>59385</v>
       </c>
       <c r="AE19" s="11">
-        <v>59385</v>
+        <v>69266</v>
       </c>
       <c r="AF19" s="11">
-        <v>69266</v>
+        <v>73005</v>
       </c>
       <c r="AG19" s="11">
-        <v>73005</v>
+        <v>51387</v>
       </c>
       <c r="AH19" s="11">
-        <v>51387</v>
+        <v>75625</v>
       </c>
       <c r="AI19" s="11">
-        <v>75625</v>
+        <v>70638</v>
       </c>
       <c r="AJ19" s="11">
-        <v>70638</v>
+        <v>75592</v>
       </c>
       <c r="AK19" s="11">
-        <v>75592</v>
+        <v>76086</v>
       </c>
       <c r="AL19" s="11">
-        <v>76086</v>
+        <v>73331</v>
       </c>
       <c r="AM19" s="11">
-        <v>73331</v>
+        <v>58637</v>
       </c>
       <c r="AN19" s="11">
-        <v>58637</v>
-      </c>
-      <c r="AO19" s="11">
         <v>65382</v>
       </c>
-      <c r="AP19" s="11" t="s">
-        <v>57</v>
+      <c r="AO19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP19" s="11">
+        <v>7355</v>
       </c>
       <c r="AQ19" s="11">
-        <v>7355</v>
-      </c>
-      <c r="AR19" s="11">
         <v>39834</v>
       </c>
+      <c r="AR19" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AS19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU19" s="11">
+      <c r="AT19" s="11">
         <v>72719</v>
       </c>
+      <c r="AU19" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AV19" s="11" t="s">
         <v>57</v>
       </c>
@@ -2847,7 +2882,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>67</v>
       </c>
@@ -2856,134 +2891,134 @@
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>25710</v>
+        <v>33164</v>
       </c>
       <c r="F20" s="13">
-        <v>33164</v>
+        <v>16123</v>
       </c>
       <c r="G20" s="13">
-        <v>16123</v>
+        <v>14100</v>
       </c>
       <c r="H20" s="13">
-        <v>14100</v>
+        <v>19688</v>
       </c>
       <c r="I20" s="13">
-        <v>19688</v>
+        <v>29059</v>
       </c>
       <c r="J20" s="13">
-        <v>29059</v>
+        <v>15327</v>
       </c>
       <c r="K20" s="13">
-        <v>15327</v>
+        <v>12209</v>
       </c>
       <c r="L20" s="13">
-        <v>12209</v>
+        <v>9133</v>
       </c>
       <c r="M20" s="13">
-        <v>9133</v>
+        <v>6178</v>
       </c>
       <c r="N20" s="13">
-        <v>6178</v>
+        <v>7271</v>
       </c>
       <c r="O20" s="13">
-        <v>7271</v>
+        <v>9361</v>
       </c>
       <c r="P20" s="13">
-        <v>9361</v>
+        <v>15877</v>
       </c>
       <c r="Q20" s="13">
-        <v>15877</v>
+        <v>10612</v>
       </c>
       <c r="R20" s="13">
-        <v>10612</v>
+        <v>9461</v>
       </c>
       <c r="S20" s="13">
-        <v>9461</v>
+        <v>5483</v>
       </c>
       <c r="T20" s="13">
-        <v>5483</v>
+        <v>20242</v>
       </c>
       <c r="U20" s="13">
-        <v>20242</v>
+        <v>852</v>
       </c>
       <c r="V20" s="13">
-        <v>852</v>
+        <v>0</v>
       </c>
       <c r="W20" s="13">
-        <v>0</v>
+        <v>2495</v>
       </c>
       <c r="X20" s="13">
-        <v>2495</v>
+        <v>8438</v>
       </c>
       <c r="Y20" s="13">
-        <v>8438</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="13">
-        <v>0</v>
+        <v>3025</v>
       </c>
       <c r="AA20" s="13">
-        <v>3025</v>
+        <v>1001</v>
       </c>
       <c r="AB20" s="13">
-        <v>1001</v>
+        <v>25827</v>
       </c>
       <c r="AC20" s="13">
-        <v>25827</v>
+        <v>26640</v>
       </c>
       <c r="AD20" s="13">
-        <v>26640</v>
+        <v>19078</v>
       </c>
       <c r="AE20" s="13">
-        <v>19078</v>
+        <v>8428</v>
       </c>
       <c r="AF20" s="13">
-        <v>8428</v>
+        <v>3989</v>
       </c>
       <c r="AG20" s="13">
-        <v>3989</v>
+        <v>22308</v>
       </c>
       <c r="AH20" s="13">
-        <v>22308</v>
+        <v>1410</v>
       </c>
       <c r="AI20" s="13">
-        <v>1410</v>
+        <v>5049</v>
       </c>
       <c r="AJ20" s="13">
-        <v>5049</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="13">
-        <v>0</v>
+        <v>913</v>
       </c>
       <c r="AL20" s="13">
-        <v>913</v>
+        <v>438</v>
       </c>
       <c r="AM20" s="13">
-        <v>438</v>
+        <v>16719</v>
       </c>
       <c r="AN20" s="13">
-        <v>16719</v>
-      </c>
-      <c r="AO20" s="13">
         <v>8581</v>
       </c>
-      <c r="AP20" s="13" t="s">
-        <v>57</v>
+      <c r="AO20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP20" s="13">
+        <v>72231</v>
       </c>
       <c r="AQ20" s="13">
-        <v>72231</v>
+        <v>34279</v>
       </c>
       <c r="AR20" s="13">
-        <v>34279</v>
+        <v>514970</v>
       </c>
       <c r="AS20" s="13">
-        <v>514970</v>
+        <v>887769</v>
       </c>
       <c r="AT20" s="13">
-        <v>887769</v>
-      </c>
-      <c r="AU20" s="13">
         <v>3118</v>
       </c>
+      <c r="AU20" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AV20" s="13" t="s">
         <v>57</v>
       </c>
@@ -3006,7 +3041,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>68</v>
       </c>
@@ -3015,62 +3050,62 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
-        <v>45538</v>
+        <v>34380</v>
       </c>
       <c r="F21" s="11">
-        <v>34380</v>
+        <v>36817</v>
       </c>
       <c r="G21" s="11">
-        <v>36817</v>
+        <v>40891</v>
       </c>
       <c r="H21" s="11">
-        <v>40891</v>
+        <v>38622</v>
       </c>
       <c r="I21" s="11">
-        <v>38622</v>
+        <v>29620</v>
       </c>
       <c r="J21" s="11">
-        <v>29620</v>
+        <v>42593</v>
       </c>
       <c r="K21" s="11">
-        <v>42593</v>
+        <v>48956</v>
       </c>
       <c r="L21" s="11">
-        <v>48956</v>
+        <v>22114</v>
       </c>
       <c r="M21" s="11">
-        <v>22114</v>
+        <v>20557</v>
       </c>
       <c r="N21" s="11">
-        <v>20557</v>
+        <v>35079</v>
       </c>
       <c r="O21" s="11">
-        <v>35079</v>
+        <v>36390</v>
       </c>
       <c r="P21" s="11">
-        <v>36390</v>
+        <v>28173</v>
       </c>
       <c r="Q21" s="11">
-        <v>28173</v>
+        <v>56608</v>
       </c>
       <c r="R21" s="11">
-        <v>56608</v>
+        <v>19397</v>
       </c>
       <c r="S21" s="11">
-        <v>19397</v>
+        <v>51838</v>
       </c>
       <c r="T21" s="11">
-        <v>51838</v>
+        <v>58048</v>
       </c>
       <c r="U21" s="11">
-        <v>58048</v>
+        <v>28429</v>
       </c>
       <c r="V21" s="11">
-        <v>28429</v>
-      </c>
-      <c r="W21" s="11">
         <v>8985</v>
       </c>
+      <c r="W21" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X21" s="11" t="s">
         <v>57</v>
       </c>
@@ -3165,7 +3200,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>69</v>
       </c>
@@ -3177,22 +3212,22 @@
         <v>0</v>
       </c>
       <c r="F22" s="13">
-        <v>0</v>
+        <v>3011</v>
       </c>
       <c r="G22" s="13">
-        <v>3011</v>
+        <v>12058</v>
       </c>
       <c r="H22" s="13">
-        <v>12058</v>
+        <v>2822</v>
       </c>
       <c r="I22" s="13">
-        <v>2822</v>
+        <v>1612</v>
       </c>
       <c r="J22" s="13">
-        <v>1612</v>
+        <v>6008</v>
       </c>
       <c r="K22" s="13">
-        <v>6008</v>
+        <v>0</v>
       </c>
       <c r="L22" s="13">
         <v>0</v>
@@ -3260,8 +3295,8 @@
       <c r="AG22" s="13">
         <v>0</v>
       </c>
-      <c r="AH22" s="13">
-        <v>0</v>
+      <c r="AH22" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI22" s="13" t="s">
         <v>57</v>
@@ -3324,7 +3359,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>70</v>
       </c>
@@ -3338,17 +3373,17 @@
       <c r="F23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>57</v>
+      <c r="G23" s="11">
+        <v>7717</v>
       </c>
       <c r="H23" s="11">
-        <v>7717</v>
+        <v>143</v>
       </c>
       <c r="I23" s="11">
-        <v>143</v>
-      </c>
-      <c r="J23" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="K23" s="11" t="s">
         <v>57</v>
@@ -3483,7 +3518,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>71</v>
       </c>
@@ -3524,29 +3559,29 @@
       <c r="O24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P24" s="13" t="s">
-        <v>57</v>
+      <c r="P24" s="13">
+        <v>9589</v>
       </c>
       <c r="Q24" s="13">
-        <v>9589</v>
+        <v>0</v>
       </c>
       <c r="R24" s="13">
         <v>0</v>
       </c>
       <c r="S24" s="13">
-        <v>0</v>
+        <v>36755</v>
       </c>
       <c r="T24" s="13">
-        <v>36755</v>
+        <v>28361</v>
       </c>
       <c r="U24" s="13">
-        <v>28361</v>
+        <v>14302</v>
       </c>
       <c r="V24" s="13">
-        <v>14302</v>
+        <v>16828</v>
       </c>
       <c r="W24" s="13">
-        <v>16828</v>
+        <v>0</v>
       </c>
       <c r="X24" s="13">
         <v>0</v>
@@ -3599,11 +3634,11 @@
       <c r="AN24" s="13">
         <v>0</v>
       </c>
-      <c r="AO24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP24" s="13" t="s">
-        <v>57</v>
+      <c r="AO24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP24" s="13">
+        <v>0</v>
       </c>
       <c r="AQ24" s="13">
         <v>0</v>
@@ -3614,8 +3649,8 @@
       <c r="AS24" s="13">
         <v>0</v>
       </c>
-      <c r="AT24" s="13">
-        <v>0</v>
+      <c r="AT24" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU24" s="13" t="s">
         <v>57</v>
@@ -3642,7 +3677,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>72</v>
       </c>
@@ -3701,107 +3736,107 @@
       <c r="U25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V25" s="11" t="s">
-        <v>57</v>
+      <c r="V25" s="11">
+        <v>290</v>
       </c>
       <c r="W25" s="11">
-        <v>290</v>
+        <v>199</v>
       </c>
       <c r="X25" s="11">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Y25" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Z25" s="11">
-        <v>204</v>
+        <v>285</v>
       </c>
       <c r="AA25" s="11">
+        <v>260</v>
+      </c>
+      <c r="AB25" s="11">
+        <v>228</v>
+      </c>
+      <c r="AC25" s="11">
+        <v>5</v>
+      </c>
+      <c r="AD25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="11">
+        <v>107</v>
+      </c>
+      <c r="AH25" s="11">
+        <v>313</v>
+      </c>
+      <c r="AI25" s="11">
+        <v>299</v>
+      </c>
+      <c r="AJ25" s="11">
+        <v>392</v>
+      </c>
+      <c r="AK25" s="11">
+        <v>317</v>
+      </c>
+      <c r="AL25" s="11">
+        <v>301</v>
+      </c>
+      <c r="AM25" s="11">
+        <v>302</v>
+      </c>
+      <c r="AN25" s="11">
+        <v>278</v>
+      </c>
+      <c r="AO25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP25" s="11">
+        <v>71</v>
+      </c>
+      <c r="AQ25" s="11">
+        <v>127</v>
+      </c>
+      <c r="AR25" s="11">
+        <v>-2672</v>
+      </c>
+      <c r="AS25" s="11">
+        <v>3216</v>
+      </c>
+      <c r="AT25" s="11">
+        <v>355</v>
+      </c>
+      <c r="AU25" s="11">
+        <v>337</v>
+      </c>
+      <c r="AV25" s="11">
+        <v>282</v>
+      </c>
+      <c r="AW25" s="11">
+        <v>311</v>
+      </c>
+      <c r="AX25" s="11">
+        <v>305</v>
+      </c>
+      <c r="AY25" s="11">
+        <v>298</v>
+      </c>
+      <c r="AZ25" s="11">
         <v>285</v>
       </c>
-      <c r="AB25" s="11">
-        <v>260</v>
-      </c>
-      <c r="AC25" s="11">
-        <v>228</v>
-      </c>
-      <c r="AD25" s="11">
-        <v>5</v>
-      </c>
-      <c r="AE25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="11">
-        <v>107</v>
-      </c>
-      <c r="AI25" s="11">
-        <v>313</v>
-      </c>
-      <c r="AJ25" s="11">
-        <v>299</v>
-      </c>
-      <c r="AK25" s="11">
-        <v>392</v>
-      </c>
-      <c r="AL25" s="11">
-        <v>317</v>
-      </c>
-      <c r="AM25" s="11">
-        <v>301</v>
-      </c>
-      <c r="AN25" s="11">
-        <v>302</v>
-      </c>
-      <c r="AO25" s="11">
-        <v>278</v>
-      </c>
-      <c r="AP25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ25" s="11">
-        <v>71</v>
-      </c>
-      <c r="AR25" s="11">
-        <v>127</v>
-      </c>
-      <c r="AS25" s="11">
-        <v>-2672</v>
-      </c>
-      <c r="AT25" s="11">
-        <v>3216</v>
-      </c>
-      <c r="AU25" s="11">
-        <v>355</v>
-      </c>
-      <c r="AV25" s="11">
-        <v>337</v>
-      </c>
-      <c r="AW25" s="11">
-        <v>282</v>
-      </c>
-      <c r="AX25" s="11">
-        <v>311</v>
-      </c>
-      <c r="AY25" s="11">
-        <v>305</v>
-      </c>
-      <c r="AZ25" s="11">
-        <v>298</v>
-      </c>
       <c r="BA25" s="11">
-        <v>285</v>
+        <v>222</v>
       </c>
       <c r="BB25" s="11">
-        <v>222</v>
+        <v>293</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>73</v>
       </c>
@@ -3863,44 +3898,44 @@
       <c r="V26" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W26" s="13" t="s">
-        <v>57</v>
+      <c r="W26" s="13">
+        <v>3987</v>
       </c>
       <c r="X26" s="13">
-        <v>3987</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="13">
-        <v>0</v>
+        <v>12383</v>
       </c>
       <c r="Z26" s="13">
-        <v>12383</v>
+        <v>3430</v>
       </c>
       <c r="AA26" s="13">
-        <v>3430</v>
+        <v>155</v>
       </c>
       <c r="AB26" s="13">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="13">
         <v>0</v>
       </c>
       <c r="AD26" s="13">
-        <v>0</v>
+        <v>1828</v>
       </c>
       <c r="AE26" s="13">
-        <v>1828</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="13">
-        <v>0</v>
+        <v>9199</v>
       </c>
       <c r="AG26" s="13">
-        <v>9199</v>
+        <v>0</v>
       </c>
       <c r="AH26" s="13">
-        <v>0</v>
+        <v>6597</v>
       </c>
       <c r="AI26" s="13">
-        <v>6597</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="13">
         <v>0</v>
@@ -3917,26 +3952,26 @@
       <c r="AN26" s="13">
         <v>0</v>
       </c>
-      <c r="AO26" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP26" s="13" t="s">
-        <v>57</v>
+      <c r="AO26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP26" s="13">
+        <v>0</v>
       </c>
       <c r="AQ26" s="13">
         <v>0</v>
       </c>
       <c r="AR26" s="13">
-        <v>0</v>
+        <v>-6597</v>
       </c>
       <c r="AS26" s="13">
-        <v>-6597</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="13">
         <v>0</v>
       </c>
-      <c r="AU26" s="13">
-        <v>0</v>
+      <c r="AU26" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV26" s="13" t="s">
         <v>57</v>
@@ -3960,7 +3995,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>74</v>
       </c>
@@ -4022,29 +4057,29 @@
       <c r="V27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W27" s="11" t="s">
-        <v>57</v>
+      <c r="W27" s="11">
+        <v>0</v>
       </c>
       <c r="X27" s="11">
-        <v>0</v>
+        <v>24680</v>
       </c>
       <c r="Y27" s="11">
-        <v>24680</v>
+        <v>16631</v>
       </c>
       <c r="Z27" s="11">
-        <v>16631</v>
+        <v>4316</v>
       </c>
       <c r="AA27" s="11">
-        <v>4316</v>
+        <v>31489</v>
       </c>
       <c r="AB27" s="11">
-        <v>31489</v>
+        <v>31015</v>
       </c>
       <c r="AC27" s="11">
-        <v>31015</v>
+        <v>24883</v>
       </c>
       <c r="AD27" s="11">
-        <v>24883</v>
+        <v>0</v>
       </c>
       <c r="AE27" s="11">
         <v>0</v>
@@ -4053,46 +4088,46 @@
         <v>0</v>
       </c>
       <c r="AG27" s="11">
-        <v>0</v>
+        <v>3770</v>
       </c>
       <c r="AH27" s="11">
-        <v>3770</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="11">
         <v>0</v>
       </c>
       <c r="AJ27" s="11">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="AK27" s="11">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="11">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="AM27" s="11">
-        <v>144</v>
+        <v>5758</v>
       </c>
       <c r="AN27" s="11">
-        <v>5758</v>
-      </c>
-      <c r="AO27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP27" s="11" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="AO27" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP27" s="11">
+        <v>15800</v>
       </c>
       <c r="AQ27" s="11">
-        <v>15800</v>
+        <v>1209</v>
       </c>
       <c r="AR27" s="11">
-        <v>1209</v>
+        <v>-28845</v>
       </c>
       <c r="AS27" s="11">
-        <v>-28845</v>
-      </c>
-      <c r="AT27" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AT27" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU27" s="11" t="s">
         <v>57</v>
@@ -4119,7 +4154,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>75</v>
       </c>
@@ -4244,15 +4279,15 @@
       <c r="AQ28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR28" s="13" t="s">
-        <v>57</v>
+      <c r="AR28" s="13">
+        <v>0</v>
       </c>
       <c r="AS28" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="13">
         <v>738961</v>
       </c>
+      <c r="AT28" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AU28" s="13" t="s">
         <v>57</v>
       </c>
@@ -4278,7 +4313,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>76</v>
       </c>
@@ -4373,48 +4408,48 @@
       <c r="AG29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH29" s="11" t="s">
-        <v>57</v>
+      <c r="AH29" s="11">
+        <v>36874</v>
       </c>
       <c r="AI29" s="11">
-        <v>36874</v>
+        <v>47398</v>
       </c>
       <c r="AJ29" s="11">
-        <v>47398</v>
+        <v>76509</v>
       </c>
       <c r="AK29" s="11">
-        <v>76509</v>
+        <v>49588</v>
       </c>
       <c r="AL29" s="11">
-        <v>49588</v>
+        <v>50789</v>
       </c>
       <c r="AM29" s="11">
-        <v>50789</v>
+        <v>45972</v>
       </c>
       <c r="AN29" s="11">
-        <v>45972</v>
-      </c>
-      <c r="AO29" s="11">
         <v>49300</v>
       </c>
-      <c r="AP29" s="11" t="s">
-        <v>57</v>
+      <c r="AO29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP29" s="11">
+        <v>54501</v>
       </c>
       <c r="AQ29" s="11">
-        <v>54501</v>
+        <v>38757</v>
       </c>
       <c r="AR29" s="11">
-        <v>38757</v>
+        <v>-489887</v>
       </c>
       <c r="AS29" s="11">
-        <v>-489887</v>
+        <v>0</v>
       </c>
       <c r="AT29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU29" s="11">
         <v>25175</v>
       </c>
+      <c r="AU29" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AV29" s="11" t="s">
         <v>57</v>
       </c>
@@ -4437,7 +4472,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>77</v>
       </c>
@@ -4532,8 +4567,8 @@
       <c r="AG30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH30" s="13" t="s">
-        <v>57</v>
+      <c r="AH30" s="13">
+        <v>0</v>
       </c>
       <c r="AI30" s="13">
         <v>0</v>
@@ -4541,8 +4576,8 @@
       <c r="AJ30" s="13">
         <v>0</v>
       </c>
-      <c r="AK30" s="13">
-        <v>0</v>
+      <c r="AK30" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AL30" s="13" t="s">
         <v>57</v>
@@ -4596,7 +4631,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>78</v>
       </c>
@@ -4653,7 +4688,7 @@
       <c r="BA31" s="15"/>
       <c r="BB31" s="15"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>79</v>
       </c>
@@ -4719,8 +4754,8 @@
       <c r="X32" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y32" s="17" t="s">
-        <v>57</v>
+      <c r="Y32" s="17">
+        <v>0</v>
       </c>
       <c r="Z32" s="17">
         <v>0</v>
@@ -4767,11 +4802,11 @@
       <c r="AN32" s="17">
         <v>0</v>
       </c>
-      <c r="AO32" s="17">
-        <v>0</v>
-      </c>
-      <c r="AP32" s="17" t="s">
-        <v>57</v>
+      <c r="AO32" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP32" s="17">
+        <v>0</v>
       </c>
       <c r="AQ32" s="17">
         <v>0</v>
@@ -4810,164 +4845,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
         <v>80</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19">
-        <v>243138</v>
+        <v>243056</v>
       </c>
       <c r="F33" s="19">
-        <v>243056</v>
+        <v>234141</v>
       </c>
       <c r="G33" s="19">
-        <v>234141</v>
+        <v>234708</v>
       </c>
       <c r="H33" s="19">
-        <v>234708</v>
+        <v>239466</v>
       </c>
       <c r="I33" s="19">
-        <v>239466</v>
+        <v>236788</v>
       </c>
       <c r="J33" s="19">
-        <v>236788</v>
+        <v>242904</v>
       </c>
       <c r="K33" s="19">
-        <v>242904</v>
+        <v>241925</v>
       </c>
       <c r="L33" s="19">
-        <v>241925</v>
+        <v>213147</v>
       </c>
       <c r="M33" s="19">
-        <v>213147</v>
+        <v>215896</v>
       </c>
       <c r="N33" s="19">
-        <v>215896</v>
+        <v>238601</v>
       </c>
       <c r="O33" s="19">
-        <v>238601</v>
+        <v>247871</v>
       </c>
       <c r="P33" s="19">
-        <v>247871</v>
+        <v>247632</v>
       </c>
       <c r="Q33" s="19">
-        <v>247632</v>
+        <v>230806</v>
       </c>
       <c r="R33" s="19">
-        <v>230806</v>
+        <v>205398</v>
       </c>
       <c r="S33" s="19">
-        <v>205398</v>
+        <v>233269</v>
       </c>
       <c r="T33" s="19">
-        <v>233269</v>
+        <v>234546</v>
       </c>
       <c r="U33" s="19">
-        <v>234546</v>
+        <v>203012</v>
       </c>
       <c r="V33" s="19">
-        <v>203012</v>
+        <v>172480</v>
       </c>
       <c r="W33" s="19">
-        <v>172480</v>
+        <v>129135</v>
       </c>
       <c r="X33" s="19">
-        <v>129135</v>
+        <v>138777</v>
       </c>
       <c r="Y33" s="19">
-        <v>138777</v>
+        <v>188764</v>
       </c>
       <c r="Z33" s="19">
-        <v>188764</v>
+        <v>192732</v>
       </c>
       <c r="AA33" s="19">
-        <v>192732</v>
+        <v>215302</v>
       </c>
       <c r="AB33" s="19">
-        <v>215302</v>
+        <v>226871</v>
       </c>
       <c r="AC33" s="19">
-        <v>226871</v>
+        <v>209984</v>
       </c>
       <c r="AD33" s="19">
-        <v>209984</v>
+        <v>300103</v>
       </c>
       <c r="AE33" s="19">
-        <v>300103</v>
+        <v>254728</v>
       </c>
       <c r="AF33" s="19">
-        <v>254728</v>
+        <v>243135</v>
       </c>
       <c r="AG33" s="19">
-        <v>243135</v>
+        <v>250814</v>
       </c>
       <c r="AH33" s="19">
-        <v>250814</v>
+        <v>244021</v>
       </c>
       <c r="AI33" s="19">
-        <v>244021</v>
+        <v>247933</v>
       </c>
       <c r="AJ33" s="19">
-        <v>247933</v>
+        <v>274881</v>
       </c>
       <c r="AK33" s="19">
-        <v>274881</v>
+        <v>250064</v>
       </c>
       <c r="AL33" s="19">
-        <v>250064</v>
+        <v>244649</v>
       </c>
       <c r="AM33" s="19">
-        <v>244649</v>
+        <v>244613</v>
       </c>
       <c r="AN33" s="19">
-        <v>244613</v>
+        <v>242263</v>
       </c>
       <c r="AO33" s="19">
-        <v>242263</v>
+        <v>0</v>
       </c>
       <c r="AP33" s="19">
-        <v>0</v>
+        <v>244260</v>
       </c>
       <c r="AQ33" s="19">
-        <v>244260</v>
+        <v>245739</v>
       </c>
       <c r="AR33" s="19">
-        <v>245739</v>
+        <v>-501818</v>
       </c>
       <c r="AS33" s="19">
-        <v>-501818</v>
+        <v>2871827</v>
       </c>
       <c r="AT33" s="19">
-        <v>2871827</v>
+        <v>253669</v>
       </c>
       <c r="AU33" s="19">
-        <v>253669</v>
+        <v>249991</v>
       </c>
       <c r="AV33" s="19">
-        <v>249991</v>
+        <v>250305</v>
       </c>
       <c r="AW33" s="19">
-        <v>250305</v>
+        <v>247303</v>
       </c>
       <c r="AX33" s="19">
-        <v>247303</v>
+        <v>245658</v>
       </c>
       <c r="AY33" s="19">
-        <v>245658</v>
+        <v>245314</v>
       </c>
       <c r="AZ33" s="19">
-        <v>245314</v>
+        <v>232588</v>
       </c>
       <c r="BA33" s="19">
-        <v>232588</v>
+        <v>236804</v>
       </c>
       <c r="BB33" s="19">
-        <v>236804</v>
+        <v>244470</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -5022,7 +5057,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -5077,7 +5112,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -5132,7 +5167,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>81</v>
       </c>
@@ -5289,7 +5324,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -5344,7 +5379,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>81</v>
       </c>
@@ -5401,7 +5436,7 @@
       <c r="BA39" s="9"/>
       <c r="BB39" s="9"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>55</v>
       </c>
@@ -5526,14 +5561,14 @@
       <c r="AQ40" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR40" s="11" t="s">
-        <v>57</v>
+      <c r="AR40" s="11">
+        <v>0</v>
       </c>
       <c r="AS40" s="11">
         <v>0</v>
       </c>
-      <c r="AT40" s="11">
-        <v>0</v>
+      <c r="AT40" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU40" s="11" t="s">
         <v>57</v>
@@ -5560,7 +5595,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>58</v>
       </c>
@@ -5569,157 +5604,157 @@
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>46616</v>
+        <v>46127</v>
       </c>
       <c r="F41" s="13">
-        <v>46127</v>
+        <v>42076</v>
       </c>
       <c r="G41" s="13">
-        <v>42076</v>
+        <v>42436</v>
       </c>
       <c r="H41" s="13">
-        <v>42436</v>
+        <v>41656</v>
       </c>
       <c r="I41" s="13">
-        <v>41656</v>
+        <v>68964</v>
       </c>
       <c r="J41" s="13">
-        <v>68964</v>
+        <v>68394</v>
       </c>
       <c r="K41" s="13">
-        <v>68394</v>
+        <v>196</v>
       </c>
       <c r="L41" s="13">
-        <v>196</v>
+        <v>66018</v>
       </c>
       <c r="M41" s="13">
-        <v>66018</v>
+        <v>77830</v>
       </c>
       <c r="N41" s="13">
-        <v>77830</v>
+        <v>44001</v>
       </c>
       <c r="O41" s="13">
-        <v>44001</v>
+        <v>52816</v>
       </c>
       <c r="P41" s="13">
-        <v>52816</v>
+        <v>46644</v>
       </c>
       <c r="Q41" s="13">
-        <v>46644</v>
+        <v>59220</v>
       </c>
       <c r="R41" s="13">
-        <v>59220</v>
+        <v>41930</v>
       </c>
       <c r="S41" s="13">
-        <v>41930</v>
+        <v>42364</v>
       </c>
       <c r="T41" s="13">
-        <v>42364</v>
+        <v>41006</v>
       </c>
       <c r="U41" s="13">
-        <v>41006</v>
+        <v>397</v>
       </c>
       <c r="V41" s="13">
-        <v>397</v>
+        <v>82497</v>
       </c>
       <c r="W41" s="13">
-        <v>82497</v>
+        <v>57484</v>
       </c>
       <c r="X41" s="13">
-        <v>57484</v>
+        <v>139672</v>
       </c>
       <c r="Y41" s="13">
-        <v>139672</v>
+        <v>64615</v>
       </c>
       <c r="Z41" s="13">
-        <v>64615</v>
+        <v>40119</v>
       </c>
       <c r="AA41" s="13">
-        <v>40119</v>
+        <v>52927</v>
       </c>
       <c r="AB41" s="13">
-        <v>52927</v>
+        <v>46005</v>
       </c>
       <c r="AC41" s="13">
-        <v>46005</v>
+        <v>45630</v>
       </c>
       <c r="AD41" s="13">
-        <v>45630</v>
+        <v>46808</v>
       </c>
       <c r="AE41" s="13">
-        <v>46808</v>
+        <v>44600</v>
       </c>
       <c r="AF41" s="13">
-        <v>44600</v>
+        <v>71695</v>
       </c>
       <c r="AG41" s="13">
-        <v>71695</v>
+        <v>6400</v>
       </c>
       <c r="AH41" s="13">
-        <v>6400</v>
+        <v>94416</v>
       </c>
       <c r="AI41" s="13">
-        <v>94416</v>
+        <v>47144</v>
       </c>
       <c r="AJ41" s="13">
-        <v>47144</v>
+        <v>47204</v>
       </c>
       <c r="AK41" s="13">
-        <v>47204</v>
+        <v>39848</v>
       </c>
       <c r="AL41" s="13">
-        <v>39848</v>
+        <v>45695</v>
       </c>
       <c r="AM41" s="13">
-        <v>45695</v>
+        <v>87252</v>
       </c>
       <c r="AN41" s="13">
-        <v>87252</v>
-      </c>
-      <c r="AO41" s="13">
         <v>36409</v>
       </c>
-      <c r="AP41" s="13" t="s">
-        <v>57</v>
+      <c r="AO41" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP41" s="13">
+        <v>36789</v>
       </c>
       <c r="AQ41" s="13">
-        <v>36789</v>
+        <v>73040</v>
       </c>
       <c r="AR41" s="13">
-        <v>73040</v>
+        <v>688810</v>
       </c>
       <c r="AS41" s="13">
-        <v>688810</v>
+        <v>36126</v>
       </c>
       <c r="AT41" s="13">
-        <v>36126</v>
+        <v>74364</v>
       </c>
       <c r="AU41" s="13">
-        <v>74364</v>
+        <v>40190</v>
       </c>
       <c r="AV41" s="13">
-        <v>40190</v>
+        <v>72363</v>
       </c>
       <c r="AW41" s="13">
-        <v>72363</v>
+        <v>38863</v>
       </c>
       <c r="AX41" s="13">
-        <v>38863</v>
+        <v>64700</v>
       </c>
       <c r="AY41" s="13">
-        <v>64700</v>
+        <v>53155</v>
       </c>
       <c r="AZ41" s="13">
-        <v>53155</v>
+        <v>40773</v>
       </c>
       <c r="BA41" s="13">
-        <v>40773</v>
+        <v>37819</v>
       </c>
       <c r="BB41" s="13">
-        <v>37819</v>
+        <v>40040</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>59</v>
       </c>
@@ -5728,31 +5763,31 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
+        <v>758</v>
+      </c>
+      <c r="F42" s="11">
+        <v>0</v>
+      </c>
+      <c r="G42" s="11">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11">
         <v>875</v>
       </c>
-      <c r="F42" s="11">
-        <v>758</v>
-      </c>
-      <c r="G42" s="11">
-        <v>0</v>
-      </c>
-      <c r="H42" s="11">
-        <v>0</v>
-      </c>
-      <c r="I42" s="11">
-        <v>0</v>
-      </c>
-      <c r="J42" s="11">
-        <v>0</v>
-      </c>
       <c r="K42" s="11">
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="L42" s="11">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="M42" s="11">
-        <v>993</v>
+        <v>0</v>
       </c>
       <c r="N42" s="11">
         <v>0</v>
@@ -5767,19 +5802,19 @@
         <v>0</v>
       </c>
       <c r="R42" s="11">
-        <v>0</v>
+        <v>962</v>
       </c>
       <c r="S42" s="11">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="T42" s="11">
-        <v>961</v>
+        <v>0</v>
       </c>
       <c r="U42" s="11">
         <v>0</v>
       </c>
-      <c r="V42" s="11">
-        <v>0</v>
+      <c r="V42" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W42" s="11" t="s">
         <v>57</v>
@@ -5878,7 +5913,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>61</v>
       </c>
@@ -6003,41 +6038,41 @@
       <c r="AQ43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR43" s="13" t="s">
-        <v>57</v>
+      <c r="AR43" s="13">
+        <v>0</v>
       </c>
       <c r="AS43" s="13">
         <v>0</v>
       </c>
-      <c r="AT43" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU43" s="13" t="s">
-        <v>57</v>
+      <c r="AT43" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU43" s="13">
+        <v>103259</v>
       </c>
       <c r="AV43" s="13">
-        <v>103259</v>
+        <v>49117</v>
       </c>
       <c r="AW43" s="13">
-        <v>49117</v>
+        <v>82911</v>
       </c>
       <c r="AX43" s="13">
-        <v>82911</v>
+        <v>48573</v>
       </c>
       <c r="AY43" s="13">
-        <v>48573</v>
+        <v>87916</v>
       </c>
       <c r="AZ43" s="13">
-        <v>87916</v>
+        <v>71681</v>
       </c>
       <c r="BA43" s="13">
-        <v>71681</v>
+        <v>61603</v>
       </c>
       <c r="BB43" s="13">
-        <v>61603</v>
+        <v>60567</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>62</v>
       </c>
@@ -6046,22 +6081,22 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
-        <v>8950</v>
+        <v>0</v>
       </c>
       <c r="F44" s="11">
-        <v>0</v>
+        <v>12145</v>
       </c>
       <c r="G44" s="11">
-        <v>12145</v>
+        <v>6013</v>
       </c>
       <c r="H44" s="11">
-        <v>6013</v>
+        <v>0</v>
       </c>
       <c r="I44" s="11">
-        <v>0</v>
+        <v>2971</v>
       </c>
       <c r="J44" s="11">
-        <v>2971</v>
+        <v>0</v>
       </c>
       <c r="K44" s="11">
         <v>0</v>
@@ -6073,100 +6108,100 @@
         <v>0</v>
       </c>
       <c r="N44" s="11">
-        <v>0</v>
+        <v>11752</v>
       </c>
       <c r="O44" s="11">
-        <v>11752</v>
+        <v>13070</v>
       </c>
       <c r="P44" s="11">
-        <v>13070</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="11">
-        <v>0</v>
+        <v>5666</v>
       </c>
       <c r="R44" s="11">
-        <v>5666</v>
+        <v>0</v>
       </c>
       <c r="S44" s="11">
         <v>0</v>
       </c>
       <c r="T44" s="11">
-        <v>0</v>
+        <v>6063</v>
       </c>
       <c r="U44" s="11">
-        <v>6063</v>
+        <v>6472</v>
       </c>
       <c r="V44" s="11">
-        <v>6472</v>
+        <v>0</v>
       </c>
       <c r="W44" s="11">
-        <v>0</v>
+        <v>4536</v>
       </c>
       <c r="X44" s="11">
-        <v>4536</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="11">
         <v>0</v>
       </c>
       <c r="Z44" s="11">
-        <v>0</v>
+        <v>6420</v>
       </c>
       <c r="AA44" s="11">
-        <v>6420</v>
+        <v>6450</v>
       </c>
       <c r="AB44" s="11">
-        <v>6450</v>
+        <v>0</v>
       </c>
       <c r="AC44" s="11">
-        <v>0</v>
+        <v>5385</v>
       </c>
       <c r="AD44" s="11">
-        <v>5385</v>
+        <v>0</v>
       </c>
       <c r="AE44" s="11">
-        <v>0</v>
+        <v>5942</v>
       </c>
       <c r="AF44" s="11">
-        <v>5942</v>
+        <v>3604</v>
       </c>
       <c r="AG44" s="11">
-        <v>3604</v>
+        <v>0</v>
       </c>
       <c r="AH44" s="11">
         <v>0</v>
       </c>
       <c r="AI44" s="11">
-        <v>0</v>
+        <v>10157</v>
       </c>
       <c r="AJ44" s="11">
-        <v>10157</v>
+        <v>0</v>
       </c>
       <c r="AK44" s="11">
-        <v>0</v>
+        <v>6469</v>
       </c>
       <c r="AL44" s="11">
-        <v>6469</v>
+        <v>5345</v>
       </c>
       <c r="AM44" s="11">
-        <v>5345</v>
+        <v>11828</v>
       </c>
       <c r="AN44" s="11">
-        <v>11828</v>
-      </c>
-      <c r="AO44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP44" s="11" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="AO44" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP44" s="11">
+        <v>0</v>
       </c>
       <c r="AQ44" s="11">
         <v>0</v>
       </c>
       <c r="AR44" s="11">
-        <v>0</v>
+        <v>3625</v>
       </c>
       <c r="AS44" s="11">
-        <v>3625</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="11">
         <v>0</v>
@@ -6175,28 +6210,28 @@
         <v>0</v>
       </c>
       <c r="AV44" s="11">
-        <v>0</v>
+        <v>6399</v>
       </c>
       <c r="AW44" s="11">
-        <v>6399</v>
+        <v>6490</v>
       </c>
       <c r="AX44" s="11">
-        <v>6490</v>
+        <v>0</v>
       </c>
       <c r="AY44" s="11">
         <v>0</v>
       </c>
       <c r="AZ44" s="11">
-        <v>0</v>
+        <v>6449</v>
       </c>
       <c r="BA44" s="11">
-        <v>6449</v>
+        <v>3544</v>
       </c>
       <c r="BB44" s="11">
-        <v>3544</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>63</v>
       </c>
@@ -6205,157 +6240,157 @@
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
-        <v>75644</v>
+        <v>50732</v>
       </c>
       <c r="F45" s="13">
-        <v>50732</v>
+        <v>64436</v>
       </c>
       <c r="G45" s="13">
-        <v>64436</v>
+        <v>65763</v>
       </c>
       <c r="H45" s="13">
-        <v>65763</v>
+        <v>86560</v>
       </c>
       <c r="I45" s="13">
-        <v>86560</v>
+        <v>71164</v>
       </c>
       <c r="J45" s="13">
-        <v>71164</v>
+        <v>42169</v>
       </c>
       <c r="K45" s="13">
-        <v>42169</v>
+        <v>63965</v>
       </c>
       <c r="L45" s="13">
-        <v>63965</v>
+        <v>51445</v>
       </c>
       <c r="M45" s="13">
-        <v>51445</v>
+        <v>92222</v>
       </c>
       <c r="N45" s="13">
-        <v>92222</v>
+        <v>53434</v>
       </c>
       <c r="O45" s="13">
-        <v>53434</v>
+        <v>79811</v>
       </c>
       <c r="P45" s="13">
-        <v>79811</v>
+        <v>65625</v>
       </c>
       <c r="Q45" s="13">
-        <v>65625</v>
+        <v>42855</v>
       </c>
       <c r="R45" s="13">
-        <v>42855</v>
+        <v>44851</v>
       </c>
       <c r="S45" s="13">
-        <v>44851</v>
+        <v>26334</v>
       </c>
       <c r="T45" s="13">
-        <v>26334</v>
+        <v>31741</v>
       </c>
       <c r="U45" s="13">
-        <v>31741</v>
+        <v>38399</v>
       </c>
       <c r="V45" s="13">
-        <v>38399</v>
+        <v>46064</v>
       </c>
       <c r="W45" s="13">
-        <v>46064</v>
+        <v>22253</v>
       </c>
       <c r="X45" s="13">
-        <v>22253</v>
+        <v>26166</v>
       </c>
       <c r="Y45" s="13">
-        <v>26166</v>
+        <v>35137</v>
       </c>
       <c r="Z45" s="13">
-        <v>35137</v>
+        <v>72851</v>
       </c>
       <c r="AA45" s="13">
-        <v>72851</v>
+        <v>62737</v>
       </c>
       <c r="AB45" s="13">
-        <v>62737</v>
+        <v>37226</v>
       </c>
       <c r="AC45" s="13">
-        <v>37226</v>
+        <v>72323</v>
       </c>
       <c r="AD45" s="13">
-        <v>72323</v>
+        <v>75983</v>
       </c>
       <c r="AE45" s="13">
-        <v>75983</v>
+        <v>92568</v>
       </c>
       <c r="AF45" s="13">
-        <v>92568</v>
+        <v>51452</v>
       </c>
       <c r="AG45" s="13">
-        <v>51452</v>
+        <v>41342</v>
       </c>
       <c r="AH45" s="13">
-        <v>41342</v>
+        <v>84391</v>
       </c>
       <c r="AI45" s="13">
-        <v>84391</v>
+        <v>80022</v>
       </c>
       <c r="AJ45" s="13">
-        <v>80022</v>
+        <v>42283</v>
       </c>
       <c r="AK45" s="13">
-        <v>42283</v>
+        <v>58186</v>
       </c>
       <c r="AL45" s="13">
-        <v>58186</v>
+        <v>67883</v>
       </c>
       <c r="AM45" s="13">
-        <v>67883</v>
+        <v>60449</v>
       </c>
       <c r="AN45" s="13">
-        <v>60449</v>
-      </c>
-      <c r="AO45" s="13">
         <v>55654</v>
       </c>
-      <c r="AP45" s="13" t="s">
-        <v>57</v>
+      <c r="AO45" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP45" s="13">
+        <v>15993</v>
       </c>
       <c r="AQ45" s="13">
-        <v>15993</v>
+        <v>49395</v>
       </c>
       <c r="AR45" s="13">
-        <v>49395</v>
+        <v>-570870</v>
       </c>
       <c r="AS45" s="13">
-        <v>-570870</v>
+        <v>433</v>
       </c>
       <c r="AT45" s="13">
-        <v>433</v>
+        <v>81820</v>
       </c>
       <c r="AU45" s="13">
-        <v>81820</v>
+        <v>79070</v>
       </c>
       <c r="AV45" s="13">
-        <v>79070</v>
+        <v>102269</v>
       </c>
       <c r="AW45" s="13">
-        <v>102269</v>
+        <v>105227</v>
       </c>
       <c r="AX45" s="13">
-        <v>105227</v>
+        <v>104110</v>
       </c>
       <c r="AY45" s="13">
-        <v>104110</v>
+        <v>72721</v>
       </c>
       <c r="AZ45" s="13">
-        <v>72721</v>
+        <v>93352</v>
       </c>
       <c r="BA45" s="13">
-        <v>93352</v>
+        <v>78501</v>
       </c>
       <c r="BB45" s="13">
-        <v>78501</v>
+        <v>74013</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>64</v>
       </c>
@@ -6414,11 +6449,11 @@
       <c r="U46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V46" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W46" s="11">
-        <v>0</v>
+      <c r="V46" s="11">
+        <v>0</v>
+      </c>
+      <c r="W46" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="X46" s="11" t="s">
         <v>57</v>
@@ -6514,7 +6549,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="12" t="s">
         <v>65</v>
       </c>
@@ -6576,8 +6611,8 @@
       <c r="V47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W47" s="13" t="s">
-        <v>57</v>
+      <c r="W47" s="13">
+        <v>0</v>
       </c>
       <c r="X47" s="13">
         <v>0</v>
@@ -6601,17 +6636,17 @@
         <v>0</v>
       </c>
       <c r="AE47" s="13">
-        <v>0</v>
+        <v>88144</v>
       </c>
       <c r="AF47" s="13">
-        <v>88144</v>
+        <v>0</v>
       </c>
       <c r="AG47" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="13">
         <v>45023</v>
       </c>
+      <c r="AH47" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AI47" s="13" t="s">
         <v>57</v>
       </c>
@@ -6639,41 +6674,41 @@
       <c r="AQ47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR47" s="13" t="s">
-        <v>57</v>
+      <c r="AR47" s="13">
+        <v>0</v>
       </c>
       <c r="AS47" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT47" s="13">
         <v>607115</v>
       </c>
-      <c r="AU47" s="13" t="s">
-        <v>57</v>
+      <c r="AT47" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU47" s="13">
+        <v>44399</v>
       </c>
       <c r="AV47" s="13">
-        <v>44399</v>
+        <v>0</v>
       </c>
       <c r="AW47" s="13">
-        <v>0</v>
+        <v>86891</v>
       </c>
       <c r="AX47" s="13">
-        <v>86891</v>
+        <v>1</v>
       </c>
       <c r="AY47" s="13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AZ47" s="13">
-        <v>-1</v>
+        <v>46773</v>
       </c>
       <c r="BA47" s="13">
-        <v>46773</v>
+        <v>46262</v>
       </c>
       <c r="BB47" s="13">
-        <v>46262</v>
+        <v>45194</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>66</v>
       </c>
@@ -6682,134 +6717,134 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>19647</v>
+        <v>48879</v>
       </c>
       <c r="F48" s="11">
-        <v>48879</v>
+        <v>68104</v>
       </c>
       <c r="G48" s="11">
-        <v>68104</v>
+        <v>33987</v>
       </c>
       <c r="H48" s="11">
-        <v>33987</v>
+        <v>82249</v>
       </c>
       <c r="I48" s="11">
-        <v>82249</v>
+        <v>34417</v>
       </c>
       <c r="J48" s="11">
-        <v>34417</v>
+        <v>53449</v>
       </c>
       <c r="K48" s="11">
-        <v>53449</v>
+        <v>57505</v>
       </c>
       <c r="L48" s="11">
-        <v>57505</v>
+        <v>54364</v>
       </c>
       <c r="M48" s="11">
-        <v>54364</v>
+        <v>69885</v>
       </c>
       <c r="N48" s="11">
-        <v>69885</v>
+        <v>63142</v>
       </c>
       <c r="O48" s="11">
-        <v>63142</v>
+        <v>80564</v>
       </c>
       <c r="P48" s="11">
-        <v>80564</v>
+        <v>77604</v>
       </c>
       <c r="Q48" s="11">
-        <v>77604</v>
+        <v>41681</v>
       </c>
       <c r="R48" s="11">
-        <v>41681</v>
+        <v>85624</v>
       </c>
       <c r="S48" s="11">
-        <v>85624</v>
+        <v>72234</v>
       </c>
       <c r="T48" s="11">
-        <v>72234</v>
+        <v>61623</v>
       </c>
       <c r="U48" s="11">
-        <v>61623</v>
+        <v>67090</v>
       </c>
       <c r="V48" s="11">
-        <v>67090</v>
+        <v>48750</v>
       </c>
       <c r="W48" s="11">
-        <v>48750</v>
+        <v>33271</v>
       </c>
       <c r="X48" s="11">
-        <v>33271</v>
+        <v>16450</v>
       </c>
       <c r="Y48" s="11">
-        <v>16450</v>
+        <v>86484</v>
       </c>
       <c r="Z48" s="11">
-        <v>86484</v>
+        <v>68741</v>
       </c>
       <c r="AA48" s="11">
-        <v>68741</v>
+        <v>65497</v>
       </c>
       <c r="AB48" s="11">
-        <v>65497</v>
+        <v>40549</v>
       </c>
       <c r="AC48" s="11">
-        <v>40549</v>
+        <v>68812</v>
       </c>
       <c r="AD48" s="11">
-        <v>68812</v>
+        <v>47858</v>
       </c>
       <c r="AE48" s="11">
-        <v>47858</v>
+        <v>83550</v>
       </c>
       <c r="AF48" s="11">
-        <v>83550</v>
+        <v>65973</v>
       </c>
       <c r="AG48" s="11">
-        <v>65973</v>
+        <v>31062</v>
       </c>
       <c r="AH48" s="11">
-        <v>31062</v>
+        <v>70644</v>
       </c>
       <c r="AI48" s="11">
-        <v>70644</v>
+        <v>88995</v>
       </c>
       <c r="AJ48" s="11">
-        <v>88995</v>
+        <v>60777</v>
       </c>
       <c r="AK48" s="11">
-        <v>60777</v>
+        <v>73138</v>
       </c>
       <c r="AL48" s="11">
-        <v>73138</v>
+        <v>84167</v>
       </c>
       <c r="AM48" s="11">
-        <v>84167</v>
+        <v>80850</v>
       </c>
       <c r="AN48" s="11">
-        <v>80850</v>
-      </c>
-      <c r="AO48" s="11">
         <v>53259</v>
       </c>
-      <c r="AP48" s="11" t="s">
-        <v>57</v>
+      <c r="AO48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP48" s="11">
+        <v>16533</v>
       </c>
       <c r="AQ48" s="11">
-        <v>16533</v>
-      </c>
-      <c r="AR48" s="11">
         <v>19201</v>
       </c>
+      <c r="AR48" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AS48" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT48" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU48" s="11">
+      <c r="AT48" s="11">
         <v>55611</v>
       </c>
+      <c r="AU48" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AV48" s="11" t="s">
         <v>57</v>
       </c>
@@ -6832,7 +6867,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>67</v>
       </c>
@@ -6841,134 +6876,134 @@
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
-        <v>24758</v>
+        <v>41744</v>
       </c>
       <c r="F49" s="13">
-        <v>41744</v>
+        <v>6906</v>
       </c>
       <c r="G49" s="13">
-        <v>6906</v>
+        <v>39039</v>
       </c>
       <c r="H49" s="13">
-        <v>39039</v>
+        <v>9126</v>
       </c>
       <c r="I49" s="13">
-        <v>9126</v>
+        <v>14784</v>
       </c>
       <c r="J49" s="13">
-        <v>14784</v>
+        <v>23226</v>
       </c>
       <c r="K49" s="13">
-        <v>23226</v>
+        <v>7581</v>
       </c>
       <c r="L49" s="13">
-        <v>7581</v>
+        <v>7208</v>
       </c>
       <c r="M49" s="13">
-        <v>7208</v>
+        <v>28020</v>
       </c>
       <c r="N49" s="13">
-        <v>28020</v>
+        <v>23</v>
       </c>
       <c r="O49" s="13">
         <v>23</v>
       </c>
       <c r="P49" s="13">
-        <v>23</v>
+        <v>19556</v>
       </c>
       <c r="Q49" s="13">
-        <v>19556</v>
+        <v>9481</v>
       </c>
       <c r="R49" s="13">
-        <v>9481</v>
+        <v>30103</v>
       </c>
       <c r="S49" s="13">
-        <v>30103</v>
+        <v>1386</v>
       </c>
       <c r="T49" s="13">
-        <v>1386</v>
+        <v>19725</v>
       </c>
       <c r="U49" s="13">
-        <v>19725</v>
+        <v>3185</v>
       </c>
       <c r="V49" s="13">
-        <v>3185</v>
+        <v>370</v>
       </c>
       <c r="W49" s="13">
-        <v>370</v>
+        <v>35</v>
       </c>
       <c r="X49" s="13">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="Y49" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="13">
+        <v>53</v>
+      </c>
+      <c r="AA49" s="13">
         <v>6</v>
       </c>
-      <c r="Z49" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="13">
+      <c r="AB49" s="13">
+        <v>9673</v>
+      </c>
+      <c r="AC49" s="13">
+        <v>34911</v>
+      </c>
+      <c r="AD49" s="13">
+        <v>34062</v>
+      </c>
+      <c r="AE49" s="13">
+        <v>238</v>
+      </c>
+      <c r="AF49" s="13">
+        <v>11690</v>
+      </c>
+      <c r="AG49" s="13">
+        <v>16315</v>
+      </c>
+      <c r="AH49" s="13">
+        <v>5811</v>
+      </c>
+      <c r="AI49" s="13">
         <v>53</v>
       </c>
-      <c r="AB49" s="13">
-        <v>6</v>
-      </c>
-      <c r="AC49" s="13">
-        <v>9673</v>
-      </c>
-      <c r="AD49" s="13">
-        <v>34911</v>
-      </c>
-      <c r="AE49" s="13">
-        <v>34062</v>
-      </c>
-      <c r="AF49" s="13">
-        <v>238</v>
-      </c>
-      <c r="AG49" s="13">
-        <v>11690</v>
-      </c>
-      <c r="AH49" s="13">
-        <v>16315</v>
-      </c>
-      <c r="AI49" s="13">
-        <v>5811</v>
-      </c>
       <c r="AJ49" s="13">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AK49" s="13">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="AL49" s="13">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="AM49" s="13">
-        <v>70</v>
+        <v>3941</v>
       </c>
       <c r="AN49" s="13">
-        <v>3941</v>
-      </c>
-      <c r="AO49" s="13">
         <v>23852</v>
       </c>
-      <c r="AP49" s="13" t="s">
-        <v>57</v>
+      <c r="AO49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP49" s="13">
+        <v>52282</v>
       </c>
       <c r="AQ49" s="13">
-        <v>52282</v>
+        <v>18238</v>
       </c>
       <c r="AR49" s="13">
-        <v>18238</v>
+        <v>536046</v>
       </c>
       <c r="AS49" s="13">
-        <v>536046</v>
+        <v>870648</v>
       </c>
       <c r="AT49" s="13">
-        <v>870648</v>
-      </c>
-      <c r="AU49" s="13">
         <v>10550</v>
       </c>
+      <c r="AU49" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AV49" s="13" t="s">
         <v>57</v>
       </c>
@@ -6991,7 +7026,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>68</v>
       </c>
@@ -7000,61 +7035,61 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
-        <v>30473</v>
+        <v>54923</v>
       </c>
       <c r="F50" s="11">
-        <v>54923</v>
+        <v>69398</v>
       </c>
       <c r="G50" s="11">
-        <v>69398</v>
+        <v>39650</v>
       </c>
       <c r="H50" s="11">
-        <v>39650</v>
+        <v>40201</v>
       </c>
       <c r="I50" s="11">
-        <v>40201</v>
+        <v>46331</v>
       </c>
       <c r="J50" s="11">
-        <v>46331</v>
+        <v>41366</v>
       </c>
       <c r="K50" s="11">
-        <v>41366</v>
+        <v>39632</v>
       </c>
       <c r="L50" s="11">
-        <v>39632</v>
+        <v>8311</v>
       </c>
       <c r="M50" s="11">
-        <v>8311</v>
+        <v>16385</v>
       </c>
       <c r="N50" s="11">
-        <v>16385</v>
+        <v>101179</v>
       </c>
       <c r="O50" s="11">
-        <v>101179</v>
+        <v>0</v>
       </c>
       <c r="P50" s="11">
-        <v>0</v>
+        <v>45147</v>
       </c>
       <c r="Q50" s="11">
-        <v>45147</v>
+        <v>0</v>
       </c>
       <c r="R50" s="11">
-        <v>0</v>
+        <v>45335</v>
       </c>
       <c r="S50" s="11">
-        <v>45335</v>
+        <v>94833</v>
       </c>
       <c r="T50" s="11">
-        <v>94833</v>
+        <v>0</v>
       </c>
       <c r="U50" s="11">
-        <v>0</v>
+        <v>44895</v>
       </c>
       <c r="V50" s="11">
-        <v>44895</v>
-      </c>
-      <c r="W50" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="W50" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="X50" s="11" t="s">
         <v>57</v>
@@ -7150,7 +7185,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>69</v>
       </c>
@@ -7165,25 +7200,25 @@
         <v>0</v>
       </c>
       <c r="G51" s="13">
-        <v>0</v>
+        <v>8040</v>
       </c>
       <c r="H51" s="13">
-        <v>8040</v>
+        <v>0</v>
       </c>
       <c r="I51" s="13">
-        <v>0</v>
+        <v>7401</v>
       </c>
       <c r="J51" s="13">
-        <v>7401</v>
+        <v>0</v>
       </c>
       <c r="K51" s="13">
         <v>0</v>
       </c>
       <c r="L51" s="13">
-        <v>0</v>
+        <v>7387</v>
       </c>
       <c r="M51" s="13">
-        <v>7387</v>
+        <v>0</v>
       </c>
       <c r="N51" s="13">
         <v>0</v>
@@ -7245,8 +7280,8 @@
       <c r="AG51" s="13">
         <v>0</v>
       </c>
-      <c r="AH51" s="13">
-        <v>0</v>
+      <c r="AH51" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI51" s="13" t="s">
         <v>57</v>
@@ -7309,7 +7344,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>70</v>
       </c>
@@ -7323,8 +7358,8 @@
       <c r="F52" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G52" s="11" t="s">
-        <v>57</v>
+      <c r="G52" s="11">
+        <v>0</v>
       </c>
       <c r="H52" s="11">
         <v>0</v>
@@ -7332,8 +7367,8 @@
       <c r="I52" s="11">
         <v>0</v>
       </c>
-      <c r="J52" s="11">
-        <v>0</v>
+      <c r="J52" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="K52" s="11" t="s">
         <v>57</v>
@@ -7468,7 +7503,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>71</v>
       </c>
@@ -7509,35 +7544,35 @@
       <c r="O53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P53" s="13" t="s">
-        <v>57</v>
+      <c r="P53" s="13">
+        <v>8039</v>
       </c>
       <c r="Q53" s="13">
-        <v>8039</v>
+        <v>0</v>
       </c>
       <c r="R53" s="13">
         <v>0</v>
       </c>
       <c r="S53" s="13">
-        <v>0</v>
+        <v>36755</v>
       </c>
       <c r="T53" s="13">
-        <v>36755</v>
+        <v>13613</v>
       </c>
       <c r="U53" s="13">
-        <v>13613</v>
+        <v>29050</v>
       </c>
       <c r="V53" s="13">
-        <v>29050</v>
+        <v>10266</v>
       </c>
       <c r="W53" s="13">
-        <v>10266</v>
+        <v>0</v>
       </c>
       <c r="X53" s="13">
-        <v>0</v>
+        <v>4674</v>
       </c>
       <c r="Y53" s="13">
-        <v>4674</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="13">
         <v>0</v>
@@ -7584,11 +7619,11 @@
       <c r="AN53" s="13">
         <v>0</v>
       </c>
-      <c r="AO53" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP53" s="13" t="s">
-        <v>57</v>
+      <c r="AO53" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP53" s="13">
+        <v>0</v>
       </c>
       <c r="AQ53" s="13">
         <v>0</v>
@@ -7599,8 +7634,8 @@
       <c r="AS53" s="13">
         <v>0</v>
       </c>
-      <c r="AT53" s="13">
-        <v>0</v>
+      <c r="AT53" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU53" s="13" t="s">
         <v>57</v>
@@ -7627,7 +7662,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>72</v>
       </c>
@@ -7686,8 +7721,8 @@
       <c r="U54" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V54" s="11" t="s">
-        <v>57</v>
+      <c r="V54" s="11">
+        <v>0</v>
       </c>
       <c r="W54" s="11">
         <v>0</v>
@@ -7696,10 +7731,10 @@
         <v>0</v>
       </c>
       <c r="Y54" s="11">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="Z54" s="11">
-        <v>994</v>
+        <v>0</v>
       </c>
       <c r="AA54" s="11">
         <v>0</v>
@@ -7711,10 +7746,10 @@
         <v>0</v>
       </c>
       <c r="AD54" s="11">
-        <v>0</v>
+        <v>929</v>
       </c>
       <c r="AE54" s="11">
-        <v>929</v>
+        <v>0</v>
       </c>
       <c r="AF54" s="11">
         <v>0</v>
@@ -7741,34 +7776,34 @@
         <v>0</v>
       </c>
       <c r="AN54" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO54" s="11">
         <v>949</v>
       </c>
-      <c r="AP54" s="11" t="s">
-        <v>57</v>
+      <c r="AO54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP54" s="11">
+        <v>865</v>
       </c>
       <c r="AQ54" s="11">
-        <v>865</v>
+        <v>0</v>
       </c>
       <c r="AR54" s="11">
         <v>0</v>
       </c>
       <c r="AS54" s="11">
-        <v>0</v>
+        <v>1814</v>
       </c>
       <c r="AT54" s="11">
-        <v>1814</v>
+        <v>1899</v>
       </c>
       <c r="AU54" s="11">
-        <v>1899</v>
+        <v>0</v>
       </c>
       <c r="AV54" s="11">
-        <v>0</v>
+        <v>557</v>
       </c>
       <c r="AW54" s="11">
-        <v>557</v>
+        <v>0</v>
       </c>
       <c r="AX54" s="11">
         <v>0</v>
@@ -7783,10 +7818,10 @@
         <v>0</v>
       </c>
       <c r="BB54" s="11">
-        <v>0</v>
+        <v>951</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>73</v>
       </c>
@@ -7848,8 +7883,8 @@
       <c r="V55" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W55" s="13" t="s">
-        <v>57</v>
+      <c r="W55" s="13">
+        <v>0</v>
       </c>
       <c r="X55" s="13">
         <v>0</v>
@@ -7902,11 +7937,11 @@
       <c r="AN55" s="13">
         <v>0</v>
       </c>
-      <c r="AO55" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP55" s="13" t="s">
-        <v>57</v>
+      <c r="AO55" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP55" s="13">
+        <v>0</v>
       </c>
       <c r="AQ55" s="13">
         <v>0</v>
@@ -7920,8 +7955,8 @@
       <c r="AT55" s="13">
         <v>0</v>
       </c>
-      <c r="AU55" s="13">
-        <v>0</v>
+      <c r="AU55" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV55" s="13" t="s">
         <v>57</v>
@@ -7945,7 +7980,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>74</v>
       </c>
@@ -8007,29 +8042,29 @@
       <c r="V56" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W56" s="11" t="s">
-        <v>57</v>
+      <c r="W56" s="11">
+        <v>0</v>
       </c>
       <c r="X56" s="11">
-        <v>0</v>
+        <v>42116</v>
       </c>
       <c r="Y56" s="11">
-        <v>42116</v>
+        <v>0</v>
       </c>
       <c r="Z56" s="11">
-        <v>0</v>
+        <v>40213</v>
       </c>
       <c r="AA56" s="11">
-        <v>40213</v>
+        <v>82379</v>
       </c>
       <c r="AB56" s="11">
-        <v>82379</v>
+        <v>46008</v>
       </c>
       <c r="AC56" s="11">
-        <v>46008</v>
+        <v>46001</v>
       </c>
       <c r="AD56" s="11">
-        <v>46001</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="11">
         <v>0</v>
@@ -8061,11 +8096,11 @@
       <c r="AN56" s="11">
         <v>0</v>
       </c>
-      <c r="AO56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP56" s="11" t="s">
-        <v>57</v>
+      <c r="AO56" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP56" s="11">
+        <v>0</v>
       </c>
       <c r="AQ56" s="11">
         <v>0</v>
@@ -8076,8 +8111,8 @@
       <c r="AS56" s="11">
         <v>0</v>
       </c>
-      <c r="AT56" s="11">
-        <v>0</v>
+      <c r="AT56" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU56" s="11" t="s">
         <v>57</v>
@@ -8104,7 +8139,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
         <v>75</v>
       </c>
@@ -8229,15 +8264,15 @@
       <c r="AQ57" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR57" s="13" t="s">
-        <v>57</v>
+      <c r="AR57" s="13">
+        <v>0</v>
       </c>
       <c r="AS57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT57" s="13">
         <v>710735</v>
       </c>
+      <c r="AT57" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AU57" s="13" t="s">
         <v>57</v>
       </c>
@@ -8263,7 +8298,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>76</v>
       </c>
@@ -8358,47 +8393,47 @@
       <c r="AG58" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH58" s="11" t="s">
-        <v>57</v>
+      <c r="AH58" s="11">
+        <v>45617</v>
       </c>
       <c r="AI58" s="11">
-        <v>45617</v>
+        <v>21164</v>
       </c>
       <c r="AJ58" s="11">
-        <v>21164</v>
+        <v>123607</v>
       </c>
       <c r="AK58" s="11">
-        <v>123607</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="11">
-        <v>0</v>
+        <v>92092</v>
       </c>
       <c r="AM58" s="11">
-        <v>92092</v>
+        <v>45385</v>
       </c>
       <c r="AN58" s="11">
-        <v>45385</v>
-      </c>
-      <c r="AO58" s="11">
         <v>45296</v>
       </c>
-      <c r="AP58" s="11" t="s">
-        <v>57</v>
+      <c r="AO58" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP58" s="11">
+        <v>93056</v>
       </c>
       <c r="AQ58" s="11">
-        <v>93056</v>
+        <v>47431</v>
       </c>
       <c r="AR58" s="11">
-        <v>47431</v>
+        <v>-560674</v>
       </c>
       <c r="AS58" s="11">
-        <v>-560674</v>
+        <v>0</v>
       </c>
       <c r="AT58" s="11">
         <v>0</v>
       </c>
-      <c r="AU58" s="11">
-        <v>0</v>
+      <c r="AU58" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV58" s="11" t="s">
         <v>57</v>
@@ -8422,7 +8457,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
         <v>77</v>
       </c>
@@ -8517,8 +8552,8 @@
       <c r="AG59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH59" s="13" t="s">
-        <v>57</v>
+      <c r="AH59" s="13">
+        <v>0</v>
       </c>
       <c r="AI59" s="13">
         <v>0</v>
@@ -8526,8 +8561,8 @@
       <c r="AJ59" s="13">
         <v>0</v>
       </c>
-      <c r="AK59" s="13">
-        <v>0</v>
+      <c r="AK59" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AL59" s="13" t="s">
         <v>57</v>
@@ -8581,7 +8616,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="14" t="s">
         <v>78</v>
       </c>
@@ -8638,7 +8673,7 @@
       <c r="BA60" s="15"/>
       <c r="BB60" s="15"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="16" t="s">
         <v>79</v>
       </c>
@@ -8704,8 +8739,8 @@
       <c r="X61" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y61" s="17" t="s">
-        <v>57</v>
+      <c r="Y61" s="17">
+        <v>0</v>
       </c>
       <c r="Z61" s="17">
         <v>0</v>
@@ -8752,11 +8787,11 @@
       <c r="AN61" s="17">
         <v>0</v>
       </c>
-      <c r="AO61" s="17">
-        <v>0</v>
-      </c>
-      <c r="AP61" s="17" t="s">
-        <v>57</v>
+      <c r="AO61" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP61" s="17">
+        <v>0</v>
       </c>
       <c r="AQ61" s="17">
         <v>0</v>
@@ -8795,7 +8830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="14" t="s">
         <v>82</v>
       </c>
@@ -8852,7 +8887,7 @@
       <c r="BA62" s="15"/>
       <c r="BB62" s="15"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="16" t="s">
         <v>83</v>
       </c>
@@ -8918,8 +8953,8 @@
       <c r="X63" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y63" s="17" t="s">
-        <v>57</v>
+      <c r="Y63" s="17">
+        <v>0</v>
       </c>
       <c r="Z63" s="17">
         <v>0</v>
@@ -8966,11 +9001,11 @@
       <c r="AN63" s="17">
         <v>0</v>
       </c>
-      <c r="AO63" s="17">
-        <v>0</v>
-      </c>
-      <c r="AP63" s="17" t="s">
-        <v>57</v>
+      <c r="AO63" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP63" s="17">
+        <v>0</v>
       </c>
       <c r="AQ63" s="17">
         <v>0</v>
@@ -9009,164 +9044,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="18" t="s">
         <v>80</v>
       </c>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19">
-        <v>206963</v>
+        <v>243163</v>
       </c>
       <c r="F64" s="19">
-        <v>243163</v>
+        <v>263065</v>
       </c>
       <c r="G64" s="19">
-        <v>263065</v>
+        <v>234928</v>
       </c>
       <c r="H64" s="19">
-        <v>234928</v>
+        <v>259792</v>
       </c>
       <c r="I64" s="19">
-        <v>259792</v>
+        <v>246032</v>
       </c>
       <c r="J64" s="19">
-        <v>246032</v>
+        <v>229479</v>
       </c>
       <c r="K64" s="19">
-        <v>229479</v>
+        <v>168879</v>
       </c>
       <c r="L64" s="19">
-        <v>168879</v>
+        <v>195726</v>
       </c>
       <c r="M64" s="19">
-        <v>195726</v>
+        <v>284342</v>
       </c>
       <c r="N64" s="19">
-        <v>284342</v>
+        <v>273531</v>
       </c>
       <c r="O64" s="19">
-        <v>273531</v>
+        <v>226284</v>
       </c>
       <c r="P64" s="19">
-        <v>226284</v>
+        <v>262615</v>
       </c>
       <c r="Q64" s="19">
-        <v>262615</v>
+        <v>158903</v>
       </c>
       <c r="R64" s="19">
-        <v>158903</v>
+        <v>248805</v>
       </c>
       <c r="S64" s="19">
-        <v>248805</v>
+        <v>274867</v>
       </c>
       <c r="T64" s="19">
-        <v>274867</v>
+        <v>173771</v>
       </c>
       <c r="U64" s="19">
-        <v>173771</v>
+        <v>189488</v>
       </c>
       <c r="V64" s="19">
-        <v>189488</v>
+        <v>187947</v>
       </c>
       <c r="W64" s="19">
-        <v>187947</v>
+        <v>117579</v>
       </c>
       <c r="X64" s="19">
-        <v>117579</v>
+        <v>229084</v>
       </c>
       <c r="Y64" s="19">
-        <v>229084</v>
+        <v>187230</v>
       </c>
       <c r="Z64" s="19">
-        <v>187230</v>
+        <v>228397</v>
       </c>
       <c r="AA64" s="19">
-        <v>228397</v>
+        <v>269996</v>
       </c>
       <c r="AB64" s="19">
-        <v>269996</v>
+        <v>179461</v>
       </c>
       <c r="AC64" s="19">
-        <v>179461</v>
+        <v>273062</v>
       </c>
       <c r="AD64" s="19">
-        <v>273062</v>
+        <v>205640</v>
       </c>
       <c r="AE64" s="19">
-        <v>205640</v>
+        <v>315042</v>
       </c>
       <c r="AF64" s="19">
-        <v>315042</v>
+        <v>204414</v>
       </c>
       <c r="AG64" s="19">
-        <v>204414</v>
+        <v>140142</v>
       </c>
       <c r="AH64" s="19">
-        <v>140142</v>
+        <v>300879</v>
       </c>
       <c r="AI64" s="19">
-        <v>300879</v>
+        <v>247535</v>
       </c>
       <c r="AJ64" s="19">
-        <v>247535</v>
+        <v>273918</v>
       </c>
       <c r="AK64" s="19">
-        <v>273918</v>
+        <v>177753</v>
       </c>
       <c r="AL64" s="19">
-        <v>177753</v>
+        <v>295252</v>
       </c>
       <c r="AM64" s="19">
-        <v>295252</v>
+        <v>289705</v>
       </c>
       <c r="AN64" s="19">
-        <v>289705</v>
+        <v>215419</v>
       </c>
       <c r="AO64" s="19">
-        <v>215419</v>
+        <v>0</v>
       </c>
       <c r="AP64" s="19">
-        <v>0</v>
+        <v>215518</v>
       </c>
       <c r="AQ64" s="19">
-        <v>215518</v>
+        <v>207305</v>
       </c>
       <c r="AR64" s="19">
-        <v>207305</v>
+        <v>96937</v>
       </c>
       <c r="AS64" s="19">
-        <v>96937</v>
+        <v>2226871</v>
       </c>
       <c r="AT64" s="19">
-        <v>2226871</v>
+        <v>224244</v>
       </c>
       <c r="AU64" s="19">
-        <v>224244</v>
+        <v>266918</v>
       </c>
       <c r="AV64" s="19">
-        <v>266918</v>
+        <v>230705</v>
       </c>
       <c r="AW64" s="19">
-        <v>230705</v>
+        <v>320382</v>
       </c>
       <c r="AX64" s="19">
-        <v>320382</v>
+        <v>217384</v>
       </c>
       <c r="AY64" s="19">
-        <v>217384</v>
+        <v>213791</v>
       </c>
       <c r="AZ64" s="19">
-        <v>213791</v>
+        <v>259028</v>
       </c>
       <c r="BA64" s="19">
-        <v>259028</v>
+        <v>227729</v>
       </c>
       <c r="BB64" s="19">
-        <v>227729</v>
+        <v>220765</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -9221,7 +9256,7 @@
       <c r="BA65" s="1"/>
       <c r="BB65" s="1"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -9276,7 +9311,7 @@
       <c r="BA66" s="1"/>
       <c r="BB66" s="1"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -9331,7 +9366,7 @@
       <c r="BA67" s="1"/>
       <c r="BB67" s="1"/>
     </row>
-    <row r="68" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>84</v>
       </c>
@@ -9488,7 +9523,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -9543,7 +9578,7 @@
       <c r="BA69" s="1"/>
       <c r="BB69" s="1"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>84</v>
       </c>
@@ -9600,7 +9635,7 @@
       <c r="BA70" s="9"/>
       <c r="BB70" s="9"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>55</v>
       </c>
@@ -9725,14 +9760,14 @@
       <c r="AQ71" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR71" s="11" t="s">
-        <v>57</v>
+      <c r="AR71" s="11">
+        <v>0</v>
       </c>
       <c r="AS71" s="11">
         <v>0</v>
       </c>
-      <c r="AT71" s="11">
-        <v>0</v>
+      <c r="AT71" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU71" s="11" t="s">
         <v>57</v>
@@ -9759,7 +9794,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>58</v>
       </c>
@@ -9875,11 +9910,11 @@
       <c r="AN72" s="13">
         <v>0</v>
       </c>
-      <c r="AO72" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP72" s="13" t="s">
-        <v>57</v>
+      <c r="AO72" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP72" s="13">
+        <v>0</v>
       </c>
       <c r="AQ72" s="13">
         <v>0</v>
@@ -9888,28 +9923,28 @@
         <v>0</v>
       </c>
       <c r="AS72" s="13">
-        <v>0</v>
+        <v>66381707</v>
       </c>
       <c r="AT72" s="13">
-        <v>66381707</v>
+        <v>0</v>
       </c>
       <c r="AU72" s="13">
         <v>0</v>
       </c>
       <c r="AV72" s="13">
-        <v>0</v>
+        <v>26157894</v>
       </c>
       <c r="AW72" s="13">
-        <v>26157894</v>
+        <v>0</v>
       </c>
       <c r="AX72" s="13">
-        <v>0</v>
+        <v>12044143</v>
       </c>
       <c r="AY72" s="13">
-        <v>12044143</v>
+        <v>6920238</v>
       </c>
       <c r="AZ72" s="13">
-        <v>6920238</v>
+        <v>0</v>
       </c>
       <c r="BA72" s="13">
         <v>0</v>
@@ -9918,7 +9953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>59</v>
       </c>
@@ -9977,8 +10012,8 @@
       <c r="U73" s="11">
         <v>0</v>
       </c>
-      <c r="V73" s="11">
-        <v>0</v>
+      <c r="V73" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W73" s="11" t="s">
         <v>57</v>
@@ -10077,7 +10112,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>61</v>
       </c>
@@ -10202,32 +10237,32 @@
       <c r="AQ74" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR74" s="13" t="s">
-        <v>57</v>
+      <c r="AR74" s="13">
+        <v>0</v>
       </c>
       <c r="AS74" s="13">
         <v>0</v>
       </c>
-      <c r="AT74" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU74" s="13" t="s">
-        <v>57</v>
+      <c r="AT74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU74" s="13">
+        <v>0</v>
       </c>
       <c r="AV74" s="13">
-        <v>0</v>
+        <v>47100437</v>
       </c>
       <c r="AW74" s="13">
-        <v>47100437</v>
+        <v>0</v>
       </c>
       <c r="AX74" s="13">
-        <v>0</v>
+        <v>33354332</v>
       </c>
       <c r="AY74" s="13">
-        <v>33354332</v>
+        <v>20132378</v>
       </c>
       <c r="AZ74" s="13">
-        <v>20132378</v>
+        <v>0</v>
       </c>
       <c r="BA74" s="13">
         <v>0</v>
@@ -10236,7 +10271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>62</v>
       </c>
@@ -10352,11 +10387,11 @@
       <c r="AN75" s="11">
         <v>0</v>
       </c>
-      <c r="AO75" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP75" s="11" t="s">
-        <v>57</v>
+      <c r="AO75" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP75" s="11">
+        <v>0</v>
       </c>
       <c r="AQ75" s="11">
         <v>0</v>
@@ -10365,28 +10400,28 @@
         <v>0</v>
       </c>
       <c r="AS75" s="11">
-        <v>0</v>
+        <v>2453395</v>
       </c>
       <c r="AT75" s="11">
-        <v>2453395</v>
+        <v>0</v>
       </c>
       <c r="AU75" s="11">
         <v>0</v>
       </c>
       <c r="AV75" s="11">
-        <v>0</v>
+        <v>633303</v>
       </c>
       <c r="AW75" s="11">
-        <v>633303</v>
+        <v>0</v>
       </c>
       <c r="AX75" s="11">
-        <v>0</v>
+        <v>432217</v>
       </c>
       <c r="AY75" s="11">
-        <v>432217</v>
+        <v>134486</v>
       </c>
       <c r="AZ75" s="11">
-        <v>134486</v>
+        <v>0</v>
       </c>
       <c r="BA75" s="11">
         <v>0</v>
@@ -10395,7 +10430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>63</v>
       </c>
@@ -10452,10 +10487,10 @@
         <v>0</v>
       </c>
       <c r="U76" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V76" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W76" s="13">
         <v>0</v>
@@ -10511,11 +10546,11 @@
       <c r="AN76" s="13">
         <v>0</v>
       </c>
-      <c r="AO76" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP76" s="13" t="s">
-        <v>57</v>
+      <c r="AO76" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP76" s="13">
+        <v>0</v>
       </c>
       <c r="AQ76" s="13">
         <v>0</v>
@@ -10524,28 +10559,28 @@
         <v>0</v>
       </c>
       <c r="AS76" s="13">
-        <v>0</v>
+        <v>17911</v>
       </c>
       <c r="AT76" s="13">
-        <v>17911</v>
+        <v>0</v>
       </c>
       <c r="AU76" s="13">
         <v>0</v>
       </c>
       <c r="AV76" s="13">
-        <v>0</v>
+        <v>52655559</v>
       </c>
       <c r="AW76" s="13">
-        <v>52655559</v>
+        <v>0</v>
       </c>
       <c r="AX76" s="13">
-        <v>0</v>
+        <v>38975301</v>
       </c>
       <c r="AY76" s="13">
-        <v>38975301</v>
+        <v>13733688</v>
       </c>
       <c r="AZ76" s="13">
-        <v>13733688</v>
+        <v>0</v>
       </c>
       <c r="BA76" s="13">
         <v>0</v>
@@ -10554,7 +10589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>64</v>
       </c>
@@ -10613,11 +10648,11 @@
       <c r="U77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V77" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W77" s="11">
-        <v>0</v>
+      <c r="V77" s="11">
+        <v>0</v>
+      </c>
+      <c r="W77" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="X77" s="11" t="s">
         <v>57</v>
@@ -10713,7 +10748,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>65</v>
       </c>
@@ -10775,8 +10810,8 @@
       <c r="V78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W78" s="13" t="s">
-        <v>57</v>
+      <c r="W78" s="13">
+        <v>0</v>
       </c>
       <c r="X78" s="13">
         <v>0</v>
@@ -10808,8 +10843,8 @@
       <c r="AG78" s="13">
         <v>0</v>
       </c>
-      <c r="AH78" s="13">
-        <v>0</v>
+      <c r="AH78" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI78" s="13" t="s">
         <v>57</v>
@@ -10838,32 +10873,32 @@
       <c r="AQ78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR78" s="13" t="s">
-        <v>57</v>
+      <c r="AR78" s="13">
+        <v>0</v>
       </c>
       <c r="AS78" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT78" s="13">
         <v>61397813</v>
       </c>
-      <c r="AU78" s="13" t="s">
-        <v>57</v>
+      <c r="AT78" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU78" s="13">
+        <v>0</v>
       </c>
       <c r="AV78" s="13">
-        <v>0</v>
+        <v>5433585</v>
       </c>
       <c r="AW78" s="13">
-        <v>5433585</v>
+        <v>0</v>
       </c>
       <c r="AX78" s="13">
-        <v>0</v>
+        <v>9554211</v>
       </c>
       <c r="AY78" s="13">
-        <v>9554211</v>
+        <v>-379863</v>
       </c>
       <c r="AZ78" s="13">
-        <v>-379863</v>
+        <v>0</v>
       </c>
       <c r="BA78" s="13">
         <v>0</v>
@@ -10872,7 +10907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>66</v>
       </c>
@@ -10988,26 +11023,26 @@
       <c r="AN79" s="11">
         <v>0</v>
       </c>
-      <c r="AO79" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP79" s="11" t="s">
-        <v>57</v>
+      <c r="AO79" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP79" s="11">
+        <v>0</v>
       </c>
       <c r="AQ79" s="11">
         <v>0</v>
       </c>
-      <c r="AR79" s="11">
-        <v>0</v>
+      <c r="AR79" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS79" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT79" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU79" s="11">
-        <v>0</v>
+      <c r="AT79" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU79" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV79" s="11" t="s">
         <v>57</v>
@@ -11031,7 +11066,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>67</v>
       </c>
@@ -11147,11 +11182,11 @@
       <c r="AN80" s="13">
         <v>0</v>
       </c>
-      <c r="AO80" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP80" s="13" t="s">
-        <v>57</v>
+      <c r="AO80" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP80" s="13">
+        <v>0</v>
       </c>
       <c r="AQ80" s="13">
         <v>0</v>
@@ -11160,13 +11195,13 @@
         <v>0</v>
       </c>
       <c r="AS80" s="13">
-        <v>0</v>
+        <v>107865059</v>
       </c>
       <c r="AT80" s="13">
-        <v>107865059</v>
-      </c>
-      <c r="AU80" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AU80" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV80" s="13" t="s">
         <v>57</v>
@@ -11190,7 +11225,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>68</v>
       </c>
@@ -11252,8 +11287,8 @@
       <c r="V81" s="11">
         <v>0</v>
       </c>
-      <c r="W81" s="11">
-        <v>0</v>
+      <c r="W81" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="X81" s="11" t="s">
         <v>57</v>
@@ -11349,7 +11384,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B82" s="12" t="s">
         <v>69</v>
       </c>
@@ -11444,8 +11479,8 @@
       <c r="AG82" s="13">
         <v>0</v>
       </c>
-      <c r="AH82" s="13">
-        <v>0</v>
+      <c r="AH82" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI82" s="13" t="s">
         <v>57</v>
@@ -11508,7 +11543,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>70</v>
       </c>
@@ -11522,8 +11557,8 @@
       <c r="F83" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G83" s="11" t="s">
-        <v>57</v>
+      <c r="G83" s="11">
+        <v>0</v>
       </c>
       <c r="H83" s="11">
         <v>0</v>
@@ -11531,8 +11566,8 @@
       <c r="I83" s="11">
         <v>0</v>
       </c>
-      <c r="J83" s="11">
-        <v>0</v>
+      <c r="J83" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="K83" s="11" t="s">
         <v>57</v>
@@ -11667,7 +11702,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B84" s="12" t="s">
         <v>71</v>
       </c>
@@ -11708,8 +11743,8 @@
       <c r="O84" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P84" s="13" t="s">
-        <v>57</v>
+      <c r="P84" s="13">
+        <v>0</v>
       </c>
       <c r="Q84" s="13">
         <v>0</v>
@@ -11783,11 +11818,11 @@
       <c r="AN84" s="13">
         <v>0</v>
       </c>
-      <c r="AO84" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP84" s="13" t="s">
-        <v>57</v>
+      <c r="AO84" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP84" s="13">
+        <v>0</v>
       </c>
       <c r="AQ84" s="13">
         <v>0</v>
@@ -11798,8 +11833,8 @@
       <c r="AS84" s="13">
         <v>0</v>
       </c>
-      <c r="AT84" s="13">
-        <v>0</v>
+      <c r="AT84" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU84" s="13" t="s">
         <v>57</v>
@@ -11826,7 +11861,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>72</v>
       </c>
@@ -11885,8 +11920,8 @@
       <c r="U85" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V85" s="11" t="s">
-        <v>57</v>
+      <c r="V85" s="11">
+        <v>0</v>
       </c>
       <c r="W85" s="11">
         <v>0</v>
@@ -11942,11 +11977,11 @@
       <c r="AN85" s="11">
         <v>0</v>
       </c>
-      <c r="AO85" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP85" s="11" t="s">
-        <v>57</v>
+      <c r="AO85" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP85" s="11">
+        <v>0</v>
       </c>
       <c r="AQ85" s="11">
         <v>0</v>
@@ -11955,28 +11990,28 @@
         <v>0</v>
       </c>
       <c r="AS85" s="11">
-        <v>0</v>
+        <v>120332</v>
       </c>
       <c r="AT85" s="11">
-        <v>120332</v>
+        <v>0</v>
       </c>
       <c r="AU85" s="11">
         <v>0</v>
       </c>
       <c r="AV85" s="11">
-        <v>0</v>
+        <v>249493</v>
       </c>
       <c r="AW85" s="11">
-        <v>249493</v>
+        <v>0</v>
       </c>
       <c r="AX85" s="11">
-        <v>0</v>
+        <v>-26733</v>
       </c>
       <c r="AY85" s="11">
-        <v>-26733</v>
+        <v>5758</v>
       </c>
       <c r="AZ85" s="11">
-        <v>5758</v>
+        <v>0</v>
       </c>
       <c r="BA85" s="11">
         <v>0</v>
@@ -11985,7 +12020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>73</v>
       </c>
@@ -12047,8 +12082,8 @@
       <c r="V86" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W86" s="13" t="s">
-        <v>57</v>
+      <c r="W86" s="13">
+        <v>0</v>
       </c>
       <c r="X86" s="13">
         <v>0</v>
@@ -12101,11 +12136,11 @@
       <c r="AN86" s="13">
         <v>0</v>
       </c>
-      <c r="AO86" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP86" s="13" t="s">
-        <v>57</v>
+      <c r="AO86" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP86" s="13">
+        <v>0</v>
       </c>
       <c r="AQ86" s="13">
         <v>0</v>
@@ -12119,8 +12154,8 @@
       <c r="AT86" s="13">
         <v>0</v>
       </c>
-      <c r="AU86" s="13">
-        <v>0</v>
+      <c r="AU86" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV86" s="13" t="s">
         <v>57</v>
@@ -12144,7 +12179,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>74</v>
       </c>
@@ -12206,8 +12241,8 @@
       <c r="V87" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W87" s="11" t="s">
-        <v>57</v>
+      <c r="W87" s="11">
+        <v>0</v>
       </c>
       <c r="X87" s="11">
         <v>0</v>
@@ -12260,11 +12295,11 @@
       <c r="AN87" s="11">
         <v>0</v>
       </c>
-      <c r="AO87" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP87" s="11" t="s">
-        <v>57</v>
+      <c r="AO87" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP87" s="11">
+        <v>0</v>
       </c>
       <c r="AQ87" s="11">
         <v>0</v>
@@ -12275,8 +12310,8 @@
       <c r="AS87" s="11">
         <v>0</v>
       </c>
-      <c r="AT87" s="11">
-        <v>0</v>
+      <c r="AT87" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU87" s="11" t="s">
         <v>57</v>
@@ -12303,7 +12338,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>75</v>
       </c>
@@ -12428,15 +12463,15 @@
       <c r="AQ88" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR88" s="13" t="s">
-        <v>57</v>
+      <c r="AR88" s="13">
+        <v>0</v>
       </c>
       <c r="AS88" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT88" s="13">
         <v>88481097</v>
       </c>
+      <c r="AT88" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AU88" s="13" t="s">
         <v>57</v>
       </c>
@@ -12462,7 +12497,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>76</v>
       </c>
@@ -12557,8 +12592,8 @@
       <c r="AG89" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH89" s="11" t="s">
-        <v>57</v>
+      <c r="AH89" s="11">
+        <v>0</v>
       </c>
       <c r="AI89" s="11">
         <v>0</v>
@@ -12578,11 +12613,11 @@
       <c r="AN89" s="11">
         <v>0</v>
       </c>
-      <c r="AO89" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP89" s="11" t="s">
-        <v>57</v>
+      <c r="AO89" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP89" s="11">
+        <v>0</v>
       </c>
       <c r="AQ89" s="11">
         <v>0</v>
@@ -12596,8 +12631,8 @@
       <c r="AT89" s="11">
         <v>0</v>
       </c>
-      <c r="AU89" s="11">
-        <v>0</v>
+      <c r="AU89" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV89" s="11" t="s">
         <v>57</v>
@@ -12621,7 +12656,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>77</v>
       </c>
@@ -12716,8 +12751,8 @@
       <c r="AG90" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH90" s="13" t="s">
-        <v>57</v>
+      <c r="AH90" s="13">
+        <v>0</v>
       </c>
       <c r="AI90" s="13">
         <v>0</v>
@@ -12725,8 +12760,8 @@
       <c r="AJ90" s="13">
         <v>0</v>
       </c>
-      <c r="AK90" s="13">
-        <v>0</v>
+      <c r="AK90" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AL90" s="13" t="s">
         <v>57</v>
@@ -12780,7 +12815,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B91" s="14" t="s">
         <v>86</v>
       </c>
@@ -12837,7 +12872,7 @@
       <c r="BA91" s="15"/>
       <c r="BB91" s="15"/>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B92" s="16" t="s">
         <v>79</v>
       </c>
@@ -12905,8 +12940,8 @@
       <c r="X92" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y92" s="17" t="s">
-        <v>57</v>
+      <c r="Y92" s="17">
+        <v>0</v>
       </c>
       <c r="Z92" s="17">
         <v>0</v>
@@ -12953,11 +12988,11 @@
       <c r="AN92" s="17">
         <v>0</v>
       </c>
-      <c r="AO92" s="17">
-        <v>0</v>
-      </c>
-      <c r="AP92" s="17" t="s">
-        <v>57</v>
+      <c r="AO92" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP92" s="17">
+        <v>0</v>
       </c>
       <c r="AQ92" s="17">
         <v>0</v>
@@ -12996,7 +13031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>87</v>
       </c>
@@ -13053,7 +13088,7 @@
       <c r="BA93" s="15"/>
       <c r="BB93" s="15"/>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B94" s="16" t="s">
         <v>83</v>
       </c>
@@ -13121,8 +13156,8 @@
       <c r="X94" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y94" s="17" t="s">
-        <v>57</v>
+      <c r="Y94" s="17">
+        <v>0</v>
       </c>
       <c r="Z94" s="17">
         <v>0</v>
@@ -13169,11 +13204,11 @@
       <c r="AN94" s="17">
         <v>0</v>
       </c>
-      <c r="AO94" s="17">
-        <v>0</v>
-      </c>
-      <c r="AP94" s="17" t="s">
-        <v>57</v>
+      <c r="AO94" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP94" s="17">
+        <v>0</v>
       </c>
       <c r="AQ94" s="17">
         <v>0</v>
@@ -13212,7 +13247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>88</v>
       </c>
@@ -13269,7 +13304,7 @@
       <c r="BA95" s="9"/>
       <c r="BB95" s="9"/>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>89</v>
       </c>
@@ -13337,8 +13372,8 @@
       <c r="X96" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y96" s="11" t="s">
-        <v>57</v>
+      <c r="Y96" s="11">
+        <v>0</v>
       </c>
       <c r="Z96" s="11">
         <v>0</v>
@@ -13385,11 +13420,11 @@
       <c r="AN96" s="11">
         <v>0</v>
       </c>
-      <c r="AO96" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP96" s="11" t="s">
-        <v>57</v>
+      <c r="AO96" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP96" s="11">
+        <v>0</v>
       </c>
       <c r="AQ96" s="11">
         <v>0</v>
@@ -13428,7 +13463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B97" s="18" t="s">
         <v>80</v>
       </c>
@@ -13483,10 +13518,10 @@
         <v>0</v>
       </c>
       <c r="U97" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V97" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W97" s="19">
         <v>0</v>
@@ -13555,28 +13590,28 @@
         <v>0</v>
       </c>
       <c r="AS97" s="19">
-        <v>0</v>
+        <v>326717314</v>
       </c>
       <c r="AT97" s="19">
-        <v>326717314</v>
+        <v>0</v>
       </c>
       <c r="AU97" s="19">
         <v>0</v>
       </c>
       <c r="AV97" s="19">
-        <v>0</v>
+        <v>132230271</v>
       </c>
       <c r="AW97" s="19">
-        <v>132230271</v>
+        <v>0</v>
       </c>
       <c r="AX97" s="19">
-        <v>0</v>
+        <v>94333471</v>
       </c>
       <c r="AY97" s="19">
-        <v>94333471</v>
+        <v>40546685</v>
       </c>
       <c r="AZ97" s="19">
-        <v>40546685</v>
+        <v>0</v>
       </c>
       <c r="BA97" s="19">
         <v>0</v>
@@ -13585,7 +13620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -13640,7 +13675,7 @@
       <c r="BA98" s="1"/>
       <c r="BB98" s="1"/>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -13695,7 +13730,7 @@
       <c r="BA99" s="1"/>
       <c r="BB99" s="1"/>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -13750,7 +13785,7 @@
       <c r="BA100" s="1"/>
       <c r="BB100" s="1"/>
     </row>
-    <row r="101" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
         <v>90</v>
       </c>
@@ -13907,7 +13942,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -13962,7 +13997,7 @@
       <c r="BA102" s="1"/>
       <c r="BB102" s="1"/>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>91</v>
       </c>
@@ -14019,7 +14054,7 @@
       <c r="BA103" s="9"/>
       <c r="BB103" s="9"/>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>58</v>
       </c>
@@ -14135,11 +14170,11 @@
       <c r="AN104" s="11">
         <v>0</v>
       </c>
-      <c r="AO104" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP104" s="11" t="s">
-        <v>57</v>
+      <c r="AO104" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP104" s="11">
+        <v>0</v>
       </c>
       <c r="AQ104" s="11">
         <v>0</v>
@@ -14148,28 +14183,28 @@
         <v>0</v>
       </c>
       <c r="AS104" s="11">
-        <v>0</v>
+        <v>1837505038</v>
       </c>
       <c r="AT104" s="11">
-        <v>1837505038</v>
+        <v>0</v>
       </c>
       <c r="AU104" s="11">
         <v>0</v>
       </c>
       <c r="AV104" s="11">
-        <v>0</v>
+        <v>361481614</v>
       </c>
       <c r="AW104" s="11">
-        <v>361481614</v>
+        <v>0</v>
       </c>
       <c r="AX104" s="11">
-        <v>0</v>
+        <v>41462589</v>
       </c>
       <c r="AY104" s="11">
-        <v>41462589</v>
+        <v>131115374</v>
       </c>
       <c r="AZ104" s="11">
-        <v>131115374</v>
+        <v>0</v>
       </c>
       <c r="BA104" s="11">
         <v>0</v>
@@ -14178,7 +14213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B105" s="12" t="s">
         <v>59</v>
       </c>
@@ -14237,8 +14272,8 @@
       <c r="U105" s="13">
         <v>0</v>
       </c>
-      <c r="V105" s="13">
-        <v>0</v>
+      <c r="V105" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="W105" s="13" t="s">
         <v>57</v>
@@ -14337,7 +14372,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>61</v>
       </c>
@@ -14471,23 +14506,23 @@
       <c r="AT106" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU106" s="11" t="s">
-        <v>57</v>
+      <c r="AU106" s="11">
+        <v>0</v>
       </c>
       <c r="AV106" s="11">
-        <v>0</v>
+        <v>958943685</v>
       </c>
       <c r="AW106" s="11">
-        <v>958943685</v>
+        <v>0</v>
       </c>
       <c r="AX106" s="11">
-        <v>0</v>
+        <v>95292374</v>
       </c>
       <c r="AY106" s="11">
-        <v>95292374</v>
+        <v>229684052</v>
       </c>
       <c r="AZ106" s="11">
-        <v>229684052</v>
+        <v>0</v>
       </c>
       <c r="BA106" s="11">
         <v>0</v>
@@ -14496,7 +14531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B107" s="12" t="s">
         <v>62</v>
       </c>
@@ -14555,53 +14590,53 @@
       <c r="U107" s="13">
         <v>0</v>
       </c>
-      <c r="V107" s="13">
-        <v>0</v>
-      </c>
-      <c r="W107" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X107" s="13">
-        <v>0</v>
+      <c r="V107" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W107" s="13">
+        <v>0</v>
+      </c>
+      <c r="X107" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Y107" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z107" s="13" t="s">
-        <v>57</v>
+      <c r="Z107" s="13">
+        <v>0</v>
       </c>
       <c r="AA107" s="13">
         <v>0</v>
       </c>
-      <c r="AB107" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC107" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD107" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE107" s="13" t="s">
-        <v>57</v>
+      <c r="AB107" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC107" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD107" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE107" s="13">
+        <v>0</v>
       </c>
       <c r="AF107" s="13">
         <v>0</v>
       </c>
-      <c r="AG107" s="13">
-        <v>0</v>
+      <c r="AG107" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH107" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI107" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ107" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK107" s="13" t="s">
-        <v>57</v>
+      <c r="AI107" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ107" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK107" s="13">
+        <v>0</v>
       </c>
       <c r="AL107" s="13">
         <v>0</v>
@@ -14609,8 +14644,8 @@
       <c r="AM107" s="13">
         <v>0</v>
       </c>
-      <c r="AN107" s="13">
-        <v>0</v>
+      <c r="AN107" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AO107" s="13" t="s">
         <v>57</v>
@@ -14621,11 +14656,11 @@
       <c r="AQ107" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR107" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS107" s="13">
-        <v>0</v>
+      <c r="AR107" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS107" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT107" s="13" t="s">
         <v>57</v>
@@ -14633,29 +14668,29 @@
       <c r="AU107" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AV107" s="13" t="s">
-        <v>57</v>
+      <c r="AV107" s="13">
+        <v>98969058</v>
       </c>
       <c r="AW107" s="13">
-        <v>98969058</v>
+        <v>0</v>
       </c>
       <c r="AX107" s="13">
-        <v>0</v>
+        <v>33533789</v>
       </c>
       <c r="AY107" s="13">
-        <v>33533789</v>
+        <v>10434169</v>
       </c>
       <c r="AZ107" s="13">
-        <v>10434169</v>
+        <v>0</v>
       </c>
       <c r="BA107" s="13">
         <v>0</v>
       </c>
-      <c r="BB107" s="13">
-        <v>0</v>
+      <c r="BB107" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>63</v>
       </c>
@@ -14712,10 +14747,10 @@
         <v>0</v>
       </c>
       <c r="U108" s="11">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="V108" s="11">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="W108" s="11">
         <v>0</v>
@@ -14771,11 +14806,11 @@
       <c r="AN108" s="11">
         <v>0</v>
       </c>
-      <c r="AO108" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP108" s="11" t="s">
-        <v>57</v>
+      <c r="AO108" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP108" s="11">
+        <v>0</v>
       </c>
       <c r="AQ108" s="11">
         <v>0</v>
@@ -14784,28 +14819,28 @@
         <v>0</v>
       </c>
       <c r="AS108" s="11">
-        <v>0</v>
+        <v>41364896</v>
       </c>
       <c r="AT108" s="11">
-        <v>41364896</v>
+        <v>0</v>
       </c>
       <c r="AU108" s="11">
         <v>0</v>
       </c>
       <c r="AV108" s="11">
-        <v>0</v>
+        <v>514873119</v>
       </c>
       <c r="AW108" s="11">
-        <v>514873119</v>
+        <v>0</v>
       </c>
       <c r="AX108" s="11">
-        <v>0</v>
+        <v>82488108</v>
       </c>
       <c r="AY108" s="11">
-        <v>82488108</v>
+        <v>193252499</v>
       </c>
       <c r="AZ108" s="11">
-        <v>193252499</v>
+        <v>0</v>
       </c>
       <c r="BA108" s="11">
         <v>0</v>
@@ -14814,7 +14849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B109" s="12" t="s">
         <v>65</v>
       </c>
@@ -14900,17 +14935,17 @@
       <c r="AD109" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AE109" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF109" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG109" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH109" s="13">
-        <v>0</v>
+      <c r="AE109" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF109" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG109" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH109" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI109" s="13" t="s">
         <v>57</v>
@@ -14942,29 +14977,29 @@
       <c r="AR109" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AS109" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT109" s="13">
+      <c r="AS109" s="13">
         <v>101130450</v>
       </c>
-      <c r="AU109" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV109" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW109" s="13" t="s">
-        <v>57</v>
+      <c r="AT109" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU109" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV109" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW109" s="13">
+        <v>0</v>
       </c>
       <c r="AX109" s="13">
-        <v>0</v>
+        <v>72770941</v>
       </c>
       <c r="AY109" s="13">
-        <v>72770941</v>
+        <v>-2892443</v>
       </c>
       <c r="AZ109" s="13">
-        <v>-2892443</v>
+        <v>0</v>
       </c>
       <c r="BA109" s="13">
         <v>0</v>
@@ -14973,7 +15008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>66</v>
       </c>
@@ -15089,26 +15124,26 @@
       <c r="AN110" s="11">
         <v>0</v>
       </c>
-      <c r="AO110" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP110" s="11" t="s">
-        <v>57</v>
+      <c r="AO110" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP110" s="11">
+        <v>0</v>
       </c>
       <c r="AQ110" s="11">
         <v>0</v>
       </c>
-      <c r="AR110" s="11">
-        <v>0</v>
+      <c r="AR110" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS110" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT110" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU110" s="11">
-        <v>0</v>
+      <c r="AT110" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU110" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV110" s="11" t="s">
         <v>57</v>
@@ -15132,7 +15167,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="111" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>67</v>
       </c>
@@ -15200,11 +15235,11 @@
       <c r="X111" s="13">
         <v>0</v>
       </c>
-      <c r="Y111" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z111" s="13" t="s">
-        <v>57</v>
+      <c r="Y111" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z111" s="13">
+        <v>0</v>
       </c>
       <c r="AA111" s="13">
         <v>0</v>
@@ -15248,11 +15283,11 @@
       <c r="AN111" s="13">
         <v>0</v>
       </c>
-      <c r="AO111" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP111" s="13" t="s">
-        <v>57</v>
+      <c r="AO111" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP111" s="13">
+        <v>0</v>
       </c>
       <c r="AQ111" s="13">
         <v>0</v>
@@ -15261,13 +15296,13 @@
         <v>0</v>
       </c>
       <c r="AS111" s="13">
-        <v>0</v>
+        <v>123890549</v>
       </c>
       <c r="AT111" s="13">
-        <v>123890549</v>
-      </c>
-      <c r="AU111" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AU111" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV111" s="13" t="s">
         <v>57</v>
@@ -15291,7 +15326,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>68</v>
       </c>
@@ -15350,8 +15385,8 @@
       <c r="U112" s="11">
         <v>0</v>
       </c>
-      <c r="V112" s="11">
-        <v>0</v>
+      <c r="V112" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W112" s="11" t="s">
         <v>57</v>
@@ -15450,7 +15485,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="113" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B113" s="12" t="s">
         <v>69</v>
       </c>
@@ -15509,8 +15544,8 @@
       <c r="U113" s="13">
         <v>0</v>
       </c>
-      <c r="V113" s="13">
-        <v>0</v>
+      <c r="V113" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="W113" s="13" t="s">
         <v>57</v>
@@ -15609,7 +15644,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="114" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>70</v>
       </c>
@@ -15623,8 +15658,8 @@
       <c r="F114" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G114" s="11" t="s">
-        <v>57</v>
+      <c r="G114" s="11">
+        <v>0</v>
       </c>
       <c r="H114" s="11">
         <v>0</v>
@@ -15632,8 +15667,8 @@
       <c r="I114" s="11">
         <v>0</v>
       </c>
-      <c r="J114" s="11">
-        <v>0</v>
+      <c r="J114" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="K114" s="11" t="s">
         <v>57</v>
@@ -15768,7 +15803,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="115" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B115" s="12" t="s">
         <v>71</v>
       </c>
@@ -15809,8 +15844,8 @@
       <c r="O115" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P115" s="13" t="s">
-        <v>57</v>
+      <c r="P115" s="13">
+        <v>0</v>
       </c>
       <c r="Q115" s="13">
         <v>0</v>
@@ -15830,14 +15865,14 @@
       <c r="V115" s="13">
         <v>0</v>
       </c>
-      <c r="W115" s="13">
-        <v>0</v>
-      </c>
-      <c r="X115" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y115" s="13">
-        <v>0</v>
+      <c r="W115" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X115" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y115" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Z115" s="13" t="s">
         <v>57</v>
@@ -15927,7 +15962,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="116" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>72</v>
       </c>
@@ -15995,11 +16030,11 @@
       <c r="X116" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y116" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z116" s="11">
-        <v>0</v>
+      <c r="Y116" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z116" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AA116" s="11" t="s">
         <v>57</v>
@@ -16010,11 +16045,11 @@
       <c r="AC116" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD116" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE116" s="11">
-        <v>0</v>
+      <c r="AD116" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE116" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AF116" s="11" t="s">
         <v>57</v>
@@ -16040,53 +16075,53 @@
       <c r="AM116" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN116" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO116" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP116" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ116" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR116" s="11" t="s">
-        <v>57</v>
+      <c r="AN116" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO116" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP116" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ116" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR116" s="11">
+        <v>0</v>
       </c>
       <c r="AS116" s="11">
-        <v>0</v>
+        <v>66335171</v>
       </c>
       <c r="AT116" s="11">
-        <v>66335171</v>
-      </c>
-      <c r="AU116" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV116" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW116" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU116" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV116" s="11">
         <v>447922801</v>
       </c>
-      <c r="AX116" s="11" t="s">
-        <v>57</v>
+      <c r="AW116" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX116" s="11">
+        <v>-10884772</v>
       </c>
       <c r="AY116" s="11">
-        <v>-10884772</v>
-      </c>
-      <c r="AZ116" s="11">
         <v>2344463</v>
       </c>
+      <c r="AZ116" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="BA116" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BB116" s="11" t="s">
-        <v>57</v>
+      <c r="BB116" s="11">
+        <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B117" s="12" t="s">
         <v>74</v>
       </c>
@@ -16151,14 +16186,14 @@
       <c r="W117" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="X117" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y117" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z117" s="13" t="s">
-        <v>57</v>
+      <c r="X117" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y117" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z117" s="13">
+        <v>0</v>
       </c>
       <c r="AA117" s="13">
         <v>0</v>
@@ -16169,8 +16204,8 @@
       <c r="AC117" s="13">
         <v>0</v>
       </c>
-      <c r="AD117" s="13">
-        <v>0</v>
+      <c r="AD117" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE117" s="13" t="s">
         <v>57</v>
@@ -16245,7 +16280,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="118" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>75</v>
       </c>
@@ -16370,15 +16405,15 @@
       <c r="AQ118" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR118" s="11" t="s">
-        <v>57</v>
+      <c r="AR118" s="11">
+        <v>0</v>
       </c>
       <c r="AS118" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT118" s="11">
         <v>124492387</v>
       </c>
+      <c r="AT118" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AU118" s="11" t="s">
         <v>57</v>
       </c>
@@ -16404,7 +16439,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="119" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B119" s="12" t="s">
         <v>76</v>
       </c>
@@ -16499,8 +16534,8 @@
       <c r="AG119" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH119" s="13" t="s">
-        <v>57</v>
+      <c r="AH119" s="13">
+        <v>0</v>
       </c>
       <c r="AI119" s="13">
         <v>0</v>
@@ -16508,11 +16543,11 @@
       <c r="AJ119" s="13">
         <v>0</v>
       </c>
-      <c r="AK119" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL119" s="13" t="s">
-        <v>57</v>
+      <c r="AK119" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL119" s="13">
+        <v>0</v>
       </c>
       <c r="AM119" s="13">
         <v>0</v>
@@ -16520,11 +16555,11 @@
       <c r="AN119" s="13">
         <v>0</v>
       </c>
-      <c r="AO119" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP119" s="13" t="s">
-        <v>57</v>
+      <c r="AO119" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP119" s="13">
+        <v>0</v>
       </c>
       <c r="AQ119" s="13">
         <v>0</v>
@@ -16532,8 +16567,8 @@
       <c r="AR119" s="13">
         <v>0</v>
       </c>
-      <c r="AS119" s="13">
-        <v>0</v>
+      <c r="AS119" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT119" s="13" t="s">
         <v>57</v>

--- a/database/industries/palayesh/shavan/product/monthly.xlsx
+++ b/database/industries/palayesh/shavan/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\palayesh\shavan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shavan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D91F71-CE74-4381-BEFB-1FD091E04DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C372E673-C673-45B5-A98F-34E90D3A11DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2637" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="94">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شاوان-پالایش نفت لاوان</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>سایر</t>
@@ -784,12 +784,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -844,7 +844,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -901,7 +901,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -958,7 +958,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1013,7 +1013,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1070,7 +1070,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1127,7 +1127,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1182,7 +1182,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1394,7 +1394,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1451,7 +1451,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1573,14 +1573,14 @@
       <c r="AP11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="11">
-        <v>0</v>
+      <c r="AQ11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT11" s="11" t="s">
         <v>57</v>
@@ -1610,7 +1610,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1619,157 +1619,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>54504</v>
+        <v>38034</v>
       </c>
       <c r="F12" s="13">
-        <v>53820</v>
+        <v>51867</v>
       </c>
       <c r="G12" s="13">
-        <v>38034</v>
+        <v>59619</v>
       </c>
       <c r="H12" s="13">
-        <v>51867</v>
+        <v>44904</v>
       </c>
       <c r="I12" s="13">
-        <v>59619</v>
+        <v>48020</v>
       </c>
       <c r="J12" s="13">
-        <v>44904</v>
+        <v>45077</v>
       </c>
       <c r="K12" s="13">
-        <v>48020</v>
+        <v>55597</v>
       </c>
       <c r="L12" s="13">
-        <v>45077</v>
+        <v>58625</v>
       </c>
       <c r="M12" s="13">
-        <v>55597</v>
+        <v>58842</v>
       </c>
       <c r="N12" s="13">
-        <v>58625</v>
+        <v>55889</v>
       </c>
       <c r="O12" s="13">
-        <v>58842</v>
+        <v>44560</v>
       </c>
       <c r="P12" s="13">
-        <v>55889</v>
+        <v>50236</v>
       </c>
       <c r="Q12" s="13">
-        <v>44560</v>
+        <v>46103</v>
       </c>
       <c r="R12" s="13">
-        <v>50236</v>
+        <v>45869</v>
       </c>
       <c r="S12" s="13">
-        <v>46103</v>
+        <v>34892</v>
       </c>
       <c r="T12" s="13">
-        <v>45869</v>
+        <v>41221</v>
       </c>
       <c r="U12" s="13">
-        <v>34892</v>
+        <v>42257</v>
       </c>
       <c r="V12" s="13">
-        <v>41221</v>
+        <v>31854</v>
       </c>
       <c r="W12" s="13">
-        <v>42257</v>
+        <v>32752</v>
       </c>
       <c r="X12" s="13">
-        <v>31854</v>
+        <v>52296</v>
       </c>
       <c r="Y12" s="13">
-        <v>32752</v>
+        <v>48601</v>
       </c>
       <c r="Z12" s="13">
-        <v>52296</v>
+        <v>59027</v>
       </c>
       <c r="AA12" s="13">
-        <v>48601</v>
+        <v>50567</v>
       </c>
       <c r="AB12" s="13">
-        <v>59027</v>
+        <v>49806</v>
       </c>
       <c r="AC12" s="13">
-        <v>50567</v>
+        <v>57476</v>
       </c>
       <c r="AD12" s="13">
-        <v>49806</v>
+        <v>49006</v>
       </c>
       <c r="AE12" s="13">
-        <v>57476</v>
+        <v>43675</v>
       </c>
       <c r="AF12" s="13">
-        <v>49006</v>
+        <v>53485</v>
       </c>
       <c r="AG12" s="13">
-        <v>43675</v>
+        <v>53969</v>
       </c>
       <c r="AH12" s="13">
-        <v>53485</v>
+        <v>54781</v>
       </c>
       <c r="AI12" s="13">
-        <v>53969</v>
+        <v>53778</v>
       </c>
       <c r="AJ12" s="13">
-        <v>54781</v>
+        <v>55363</v>
       </c>
       <c r="AK12" s="13">
-        <v>53778</v>
+        <v>55308</v>
       </c>
       <c r="AL12" s="13">
-        <v>55363</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>55308</v>
+        <v>53104</v>
+      </c>
+      <c r="AM12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN12" s="13">
-        <v>53104</v>
-      </c>
-      <c r="AO12" s="13" t="s">
-        <v>57</v>
+        <v>55978</v>
+      </c>
+      <c r="AO12" s="13">
+        <v>53607</v>
       </c>
       <c r="AP12" s="13">
-        <v>55978</v>
+        <v>55509</v>
       </c>
       <c r="AQ12" s="13">
-        <v>53607</v>
+        <v>635036</v>
       </c>
       <c r="AR12" s="13">
-        <v>89225</v>
+        <v>54994</v>
       </c>
       <c r="AS12" s="13">
-        <v>635036</v>
+        <v>54853</v>
       </c>
       <c r="AT12" s="13">
-        <v>54994</v>
+        <v>52604</v>
       </c>
       <c r="AU12" s="13">
-        <v>54853</v>
+        <v>54998</v>
       </c>
       <c r="AV12" s="13">
-        <v>52604</v>
+        <v>49663</v>
       </c>
       <c r="AW12" s="13">
-        <v>54998</v>
+        <v>50198</v>
       </c>
       <c r="AX12" s="13">
-        <v>49663</v>
+        <v>45580</v>
       </c>
       <c r="AY12" s="13">
-        <v>50198</v>
+        <v>46369</v>
       </c>
       <c r="AZ12" s="13">
-        <v>45580</v>
+        <v>47642</v>
       </c>
       <c r="BA12" s="13">
-        <v>46369</v>
+        <v>46320</v>
       </c>
       <c r="BB12" s="13">
-        <v>47642</v>
+        <v>15454</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1778,56 +1778,56 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>555</v>
+        <v>269</v>
       </c>
       <c r="F13" s="11">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="G13" s="11">
-        <v>269</v>
+        <v>176</v>
       </c>
       <c r="H13" s="11">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="I13" s="11">
+        <v>398</v>
+      </c>
+      <c r="J13" s="11">
+        <v>291</v>
+      </c>
+      <c r="K13" s="11">
+        <v>337</v>
+      </c>
+      <c r="L13" s="11">
         <v>176</v>
       </c>
-      <c r="J13" s="11">
-        <v>241</v>
-      </c>
-      <c r="K13" s="11">
-        <v>398</v>
-      </c>
-      <c r="L13" s="11">
-        <v>291</v>
-      </c>
       <c r="M13" s="11">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="N13" s="11">
-        <v>176</v>
+        <v>480</v>
       </c>
       <c r="O13" s="11">
-        <v>155</v>
+        <v>266</v>
       </c>
       <c r="P13" s="11">
-        <v>480</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="11">
-        <v>266</v>
+        <v>160</v>
       </c>
       <c r="R13" s="11">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="S13" s="11">
-        <v>160</v>
-      </c>
-      <c r="T13" s="11">
-        <v>192</v>
-      </c>
-      <c r="U13" s="11">
         <v>310</v>
       </c>
+      <c r="T13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U13" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V13" s="11" t="s">
         <v>57</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -2050,44 +2050,44 @@
       <c r="AP14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>0</v>
+      <c r="AQ14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="13" t="s">
-        <v>57</v>
+        <v>74010</v>
+      </c>
+      <c r="AT14" s="13">
+        <v>71095</v>
       </c>
       <c r="AU14" s="13">
-        <v>74010</v>
+        <v>74376</v>
       </c>
       <c r="AV14" s="13">
-        <v>71095</v>
+        <v>72082</v>
       </c>
       <c r="AW14" s="13">
-        <v>74376</v>
+        <v>74047</v>
       </c>
       <c r="AX14" s="13">
-        <v>72082</v>
+        <v>68761</v>
       </c>
       <c r="AY14" s="13">
-        <v>74047</v>
+        <v>68716</v>
       </c>
       <c r="AZ14" s="13">
-        <v>68761</v>
+        <v>72341</v>
       </c>
       <c r="BA14" s="13">
-        <v>68716</v>
+        <v>72912</v>
       </c>
       <c r="BB14" s="13">
-        <v>72341</v>
+        <v>16717</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2096,157 +2096,157 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>8682</v>
+        <v>5952</v>
       </c>
       <c r="F15" s="11">
-        <v>5453</v>
+        <v>5274</v>
       </c>
       <c r="G15" s="11">
-        <v>5952</v>
+        <v>4828</v>
       </c>
       <c r="H15" s="11">
-        <v>5274</v>
+        <v>10820</v>
       </c>
       <c r="I15" s="11">
-        <v>4828</v>
+        <v>7509</v>
       </c>
       <c r="J15" s="11">
-        <v>10820</v>
+        <v>8907</v>
       </c>
       <c r="K15" s="11">
-        <v>7509</v>
+        <v>5557</v>
       </c>
       <c r="L15" s="11">
-        <v>8907</v>
+        <v>8083</v>
       </c>
       <c r="M15" s="11">
-        <v>5557</v>
+        <v>6468</v>
       </c>
       <c r="N15" s="11">
-        <v>8083</v>
+        <v>7376</v>
       </c>
       <c r="O15" s="11">
-        <v>6468</v>
+        <v>6733</v>
       </c>
       <c r="P15" s="11">
-        <v>7376</v>
+        <v>5433</v>
       </c>
       <c r="Q15" s="11">
-        <v>6733</v>
+        <v>7149</v>
       </c>
       <c r="R15" s="11">
-        <v>5433</v>
+        <v>6579</v>
       </c>
       <c r="S15" s="11">
-        <v>7149</v>
+        <v>6146</v>
       </c>
       <c r="T15" s="11">
-        <v>6579</v>
+        <v>4080</v>
       </c>
       <c r="U15" s="11">
-        <v>6146</v>
+        <v>2096</v>
       </c>
       <c r="V15" s="11">
-        <v>4080</v>
+        <v>5713</v>
       </c>
       <c r="W15" s="11">
-        <v>2096</v>
+        <v>6066</v>
       </c>
       <c r="X15" s="11">
-        <v>5713</v>
+        <v>4089</v>
       </c>
       <c r="Y15" s="11">
-        <v>6066</v>
+        <v>5220</v>
       </c>
       <c r="Z15" s="11">
-        <v>4089</v>
+        <v>3392</v>
       </c>
       <c r="AA15" s="11">
-        <v>5220</v>
+        <v>8438</v>
       </c>
       <c r="AB15" s="11">
-        <v>3392</v>
+        <v>9147</v>
       </c>
       <c r="AC15" s="11">
-        <v>8438</v>
+        <v>9973</v>
       </c>
       <c r="AD15" s="11">
-        <v>9147</v>
+        <v>12516</v>
       </c>
       <c r="AE15" s="11">
-        <v>9973</v>
+        <v>11209</v>
       </c>
       <c r="AF15" s="11">
-        <v>12516</v>
+        <v>6802</v>
       </c>
       <c r="AG15" s="11">
-        <v>11209</v>
+        <v>8608</v>
       </c>
       <c r="AH15" s="11">
-        <v>6802</v>
+        <v>4495</v>
       </c>
       <c r="AI15" s="11">
-        <v>8608</v>
+        <v>8078</v>
       </c>
       <c r="AJ15" s="11">
-        <v>4495</v>
+        <v>3843</v>
       </c>
       <c r="AK15" s="11">
-        <v>8078</v>
+        <v>5232</v>
       </c>
       <c r="AL15" s="11">
-        <v>3843</v>
-      </c>
-      <c r="AM15" s="11">
-        <v>5232</v>
+        <v>5593</v>
+      </c>
+      <c r="AM15" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN15" s="11">
-        <v>5593</v>
-      </c>
-      <c r="AO15" s="11" t="s">
-        <v>57</v>
+        <v>3906</v>
+      </c>
+      <c r="AO15" s="11">
+        <v>5717</v>
       </c>
       <c r="AP15" s="11">
-        <v>3906</v>
+        <v>4706</v>
       </c>
       <c r="AQ15" s="11">
-        <v>5717</v>
+        <v>49261</v>
       </c>
       <c r="AR15" s="11">
-        <v>4706</v>
+        <v>4610</v>
       </c>
       <c r="AS15" s="11">
-        <v>49261</v>
+        <v>4468</v>
       </c>
       <c r="AT15" s="11">
-        <v>4610</v>
+        <v>3130</v>
       </c>
       <c r="AU15" s="11">
-        <v>4468</v>
+        <v>4260</v>
       </c>
       <c r="AV15" s="11">
-        <v>3130</v>
+        <v>3356</v>
       </c>
       <c r="AW15" s="11">
-        <v>4260</v>
+        <v>4391</v>
       </c>
       <c r="AX15" s="11">
-        <v>3356</v>
+        <v>2544</v>
       </c>
       <c r="AY15" s="11">
-        <v>4391</v>
+        <v>3728</v>
       </c>
       <c r="AZ15" s="11">
-        <v>2544</v>
+        <v>3028</v>
       </c>
       <c r="BA15" s="11">
-        <v>3728</v>
+        <v>3613</v>
       </c>
       <c r="BB15" s="11">
-        <v>3028</v>
+        <v>296</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2255,157 +2255,157 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>63957</v>
+        <v>66815</v>
       </c>
       <c r="F16" s="13">
-        <v>65380</v>
+        <v>62992</v>
       </c>
       <c r="G16" s="13">
-        <v>66815</v>
+        <v>66127</v>
       </c>
       <c r="H16" s="13">
-        <v>62992</v>
+        <v>67124</v>
       </c>
       <c r="I16" s="13">
-        <v>66127</v>
+        <v>62934</v>
       </c>
       <c r="J16" s="13">
-        <v>67124</v>
+        <v>64998</v>
       </c>
       <c r="K16" s="13">
-        <v>62934</v>
+        <v>63293</v>
       </c>
       <c r="L16" s="13">
-        <v>64998</v>
+        <v>60680</v>
       </c>
       <c r="M16" s="13">
-        <v>63293</v>
+        <v>66743</v>
       </c>
       <c r="N16" s="13">
-        <v>60680</v>
+        <v>63491</v>
       </c>
       <c r="O16" s="13">
-        <v>66743</v>
+        <v>49851</v>
       </c>
       <c r="P16" s="13">
-        <v>63491</v>
+        <v>57133</v>
       </c>
       <c r="Q16" s="13">
-        <v>49851</v>
+        <v>19547</v>
       </c>
       <c r="R16" s="13">
-        <v>57133</v>
+        <v>20321</v>
       </c>
       <c r="S16" s="13">
-        <v>19547</v>
+        <v>56764</v>
       </c>
       <c r="T16" s="13">
-        <v>20321</v>
+        <v>37470</v>
       </c>
       <c r="U16" s="13">
-        <v>56764</v>
+        <v>33354</v>
       </c>
       <c r="V16" s="13">
-        <v>37470</v>
+        <v>34670</v>
       </c>
       <c r="W16" s="13">
-        <v>33354</v>
+        <v>57361</v>
       </c>
       <c r="X16" s="13">
-        <v>34670</v>
+        <v>57655</v>
       </c>
       <c r="Y16" s="13">
-        <v>57361</v>
+        <v>59775</v>
       </c>
       <c r="Z16" s="13">
-        <v>57655</v>
+        <v>53548</v>
       </c>
       <c r="AA16" s="13">
-        <v>59775</v>
+        <v>58688</v>
       </c>
       <c r="AB16" s="13">
-        <v>53548</v>
+        <v>66342</v>
       </c>
       <c r="AC16" s="13">
-        <v>58688</v>
+        <v>62120</v>
       </c>
       <c r="AD16" s="13">
-        <v>66342</v>
+        <v>62873</v>
       </c>
       <c r="AE16" s="13">
-        <v>62120</v>
+        <v>61529</v>
       </c>
       <c r="AF16" s="13">
-        <v>62873</v>
+        <v>62915</v>
       </c>
       <c r="AG16" s="13">
-        <v>61529</v>
+        <v>61972</v>
       </c>
       <c r="AH16" s="13">
-        <v>62915</v>
+        <v>62703</v>
       </c>
       <c r="AI16" s="13">
-        <v>61972</v>
+        <v>61304</v>
       </c>
       <c r="AJ16" s="13">
-        <v>62703</v>
+        <v>60440</v>
       </c>
       <c r="AK16" s="13">
-        <v>61304</v>
+        <v>56685</v>
       </c>
       <c r="AL16" s="13">
-        <v>60440</v>
-      </c>
-      <c r="AM16" s="13">
-        <v>56685</v>
+        <v>60025</v>
+      </c>
+      <c r="AM16" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN16" s="13">
-        <v>60025</v>
-      </c>
-      <c r="AO16" s="13" t="s">
-        <v>57</v>
+        <v>34418</v>
+      </c>
+      <c r="AO16" s="13">
+        <v>72209</v>
       </c>
       <c r="AP16" s="13">
-        <v>34418</v>
+        <v>85144</v>
       </c>
       <c r="AQ16" s="13">
-        <v>72209</v>
+        <v>450</v>
       </c>
       <c r="AR16" s="13">
-        <v>-582718</v>
+        <v>92698</v>
       </c>
       <c r="AS16" s="13">
-        <v>450</v>
+        <v>89038</v>
       </c>
       <c r="AT16" s="13">
-        <v>92698</v>
+        <v>88540</v>
       </c>
       <c r="AU16" s="13">
-        <v>89038</v>
+        <v>88050</v>
       </c>
       <c r="AV16" s="13">
-        <v>88540</v>
+        <v>86901</v>
       </c>
       <c r="AW16" s="13">
-        <v>88050</v>
+        <v>90766</v>
       </c>
       <c r="AX16" s="13">
-        <v>86901</v>
+        <v>86891</v>
       </c>
       <c r="AY16" s="13">
-        <v>90766</v>
+        <v>86446</v>
       </c>
       <c r="AZ16" s="13">
-        <v>86891</v>
+        <v>86912</v>
       </c>
       <c r="BA16" s="13">
-        <v>86446</v>
+        <v>86295</v>
       </c>
       <c r="BB16" s="13">
-        <v>86912</v>
+        <v>46368</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2458,14 +2458,14 @@
       <c r="S17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T17" s="11" t="s">
-        <v>57</v>
+      <c r="T17" s="11">
+        <v>108</v>
       </c>
       <c r="U17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V17" s="11">
-        <v>108</v>
+      <c r="V17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W17" s="11" t="s">
         <v>57</v>
@@ -2564,7 +2564,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
@@ -2620,11 +2620,11 @@
       <c r="T18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V18" s="13" t="s">
-        <v>57</v>
+      <c r="U18" s="13">
+        <v>0</v>
+      </c>
+      <c r="V18" s="13">
+        <v>0</v>
       </c>
       <c r="W18" s="13">
         <v>0</v>
@@ -2642,23 +2642,23 @@
         <v>0</v>
       </c>
       <c r="AB18" s="13">
-        <v>0</v>
+        <v>94517</v>
       </c>
       <c r="AC18" s="13">
-        <v>0</v>
+        <v>47465</v>
       </c>
       <c r="AD18" s="13">
-        <v>94517</v>
+        <v>32547</v>
       </c>
       <c r="AE18" s="13">
-        <v>47465</v>
-      </c>
-      <c r="AF18" s="13">
-        <v>32547</v>
-      </c>
-      <c r="AG18" s="13">
         <v>56829</v>
       </c>
+      <c r="AF18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG18" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AH18" s="13" t="s">
         <v>57</v>
       </c>
@@ -2686,44 +2686,44 @@
       <c r="AP18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR18" s="13">
-        <v>0</v>
+      <c r="AQ18" s="13">
+        <v>557134</v>
+      </c>
+      <c r="AR18" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS18" s="13">
-        <v>557134</v>
-      </c>
-      <c r="AT18" s="13" t="s">
-        <v>57</v>
+        <v>27285</v>
+      </c>
+      <c r="AT18" s="13">
+        <v>34654</v>
       </c>
       <c r="AU18" s="13">
-        <v>27285</v>
+        <v>25308</v>
       </c>
       <c r="AV18" s="13">
-        <v>34654</v>
+        <v>33351</v>
       </c>
       <c r="AW18" s="13">
-        <v>25308</v>
+        <v>25614</v>
       </c>
       <c r="AX18" s="13">
-        <v>33351</v>
+        <v>28527</v>
       </c>
       <c r="AY18" s="13">
-        <v>25614</v>
+        <v>31323</v>
       </c>
       <c r="AZ18" s="13">
-        <v>28527</v>
+        <v>34254</v>
       </c>
       <c r="BA18" s="13">
-        <v>31323</v>
+        <v>37517</v>
       </c>
       <c r="BB18" s="13">
-        <v>34254</v>
+        <v>-12252</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>66</v>
       </c>
@@ -2732,130 +2732,130 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>47814</v>
+        <v>48872</v>
       </c>
       <c r="F19" s="11">
-        <v>53251</v>
+        <v>57760</v>
       </c>
       <c r="G19" s="11">
-        <v>48872</v>
+        <v>45747</v>
       </c>
       <c r="H19" s="11">
-        <v>57760</v>
+        <v>55887</v>
       </c>
       <c r="I19" s="11">
-        <v>45747</v>
+        <v>61899</v>
       </c>
       <c r="J19" s="11">
-        <v>55887</v>
+        <v>62627</v>
       </c>
       <c r="K19" s="11">
-        <v>61899</v>
+        <v>64377</v>
       </c>
       <c r="L19" s="11">
-        <v>62627</v>
+        <v>68687</v>
       </c>
       <c r="M19" s="11">
-        <v>64377</v>
+        <v>69912</v>
       </c>
       <c r="N19" s="11">
-        <v>68687</v>
+        <v>66757</v>
       </c>
       <c r="O19" s="11">
-        <v>69912</v>
+        <v>62176</v>
       </c>
       <c r="P19" s="11">
-        <v>66757</v>
+        <v>63482</v>
       </c>
       <c r="Q19" s="11">
-        <v>62176</v>
+        <v>66234</v>
       </c>
       <c r="R19" s="11">
-        <v>63482</v>
+        <v>54934</v>
       </c>
       <c r="S19" s="11">
-        <v>66234</v>
+        <v>61317</v>
       </c>
       <c r="T19" s="11">
-        <v>54934</v>
+        <v>63498</v>
       </c>
       <c r="U19" s="11">
-        <v>61317</v>
+        <v>44747</v>
       </c>
       <c r="V19" s="11">
-        <v>63498</v>
+        <v>33217</v>
       </c>
       <c r="W19" s="11">
-        <v>44747</v>
+        <v>63367</v>
       </c>
       <c r="X19" s="11">
-        <v>33217</v>
+        <v>67636</v>
       </c>
       <c r="Y19" s="11">
-        <v>63367</v>
+        <v>68801</v>
       </c>
       <c r="Z19" s="11">
-        <v>67636</v>
+        <v>53834</v>
       </c>
       <c r="AA19" s="11">
-        <v>68801</v>
+        <v>40763</v>
       </c>
       <c r="AB19" s="11">
-        <v>53834</v>
+        <v>59385</v>
       </c>
       <c r="AC19" s="11">
-        <v>40763</v>
+        <v>69266</v>
       </c>
       <c r="AD19" s="11">
-        <v>59385</v>
+        <v>73005</v>
       </c>
       <c r="AE19" s="11">
-        <v>69266</v>
+        <v>51387</v>
       </c>
       <c r="AF19" s="11">
-        <v>73005</v>
+        <v>75625</v>
       </c>
       <c r="AG19" s="11">
-        <v>51387</v>
+        <v>70638</v>
       </c>
       <c r="AH19" s="11">
-        <v>75625</v>
+        <v>75592</v>
       </c>
       <c r="AI19" s="11">
-        <v>70638</v>
+        <v>76086</v>
       </c>
       <c r="AJ19" s="11">
-        <v>75592</v>
+        <v>73331</v>
       </c>
       <c r="AK19" s="11">
-        <v>76086</v>
+        <v>58637</v>
       </c>
       <c r="AL19" s="11">
-        <v>73331</v>
-      </c>
-      <c r="AM19" s="11">
-        <v>58637</v>
+        <v>65382</v>
+      </c>
+      <c r="AM19" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN19" s="11">
-        <v>65382</v>
-      </c>
-      <c r="AO19" s="11" t="s">
-        <v>57</v>
+        <v>7355</v>
+      </c>
+      <c r="AO19" s="11">
+        <v>39834</v>
       </c>
       <c r="AP19" s="11">
-        <v>7355</v>
-      </c>
-      <c r="AQ19" s="11">
-        <v>39834</v>
-      </c>
-      <c r="AR19" s="11" t="s">
-        <v>57</v>
+        <v>70439</v>
+      </c>
+      <c r="AQ19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR19" s="11">
+        <v>72719</v>
       </c>
       <c r="AS19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT19" s="11">
-        <v>72719</v>
+      <c r="AT19" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU19" s="11" t="s">
         <v>57</v>
@@ -2882,7 +2882,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>67</v>
       </c>
@@ -2891,131 +2891,131 @@
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>33164</v>
+        <v>14100</v>
       </c>
       <c r="F20" s="13">
-        <v>16123</v>
+        <v>19688</v>
       </c>
       <c r="G20" s="13">
-        <v>14100</v>
+        <v>29059</v>
       </c>
       <c r="H20" s="13">
-        <v>19688</v>
+        <v>15327</v>
       </c>
       <c r="I20" s="13">
-        <v>29059</v>
+        <v>12209</v>
       </c>
       <c r="J20" s="13">
-        <v>15327</v>
+        <v>9133</v>
       </c>
       <c r="K20" s="13">
-        <v>12209</v>
+        <v>6178</v>
       </c>
       <c r="L20" s="13">
-        <v>9133</v>
+        <v>7271</v>
       </c>
       <c r="M20" s="13">
-        <v>6178</v>
+        <v>9361</v>
       </c>
       <c r="N20" s="13">
-        <v>7271</v>
+        <v>15877</v>
       </c>
       <c r="O20" s="13">
-        <v>9361</v>
+        <v>10612</v>
       </c>
       <c r="P20" s="13">
-        <v>15877</v>
+        <v>9461</v>
       </c>
       <c r="Q20" s="13">
-        <v>10612</v>
+        <v>5483</v>
       </c>
       <c r="R20" s="13">
-        <v>9461</v>
+        <v>20242</v>
       </c>
       <c r="S20" s="13">
-        <v>5483</v>
+        <v>852</v>
       </c>
       <c r="T20" s="13">
-        <v>20242</v>
+        <v>0</v>
       </c>
       <c r="U20" s="13">
-        <v>852</v>
+        <v>2495</v>
       </c>
       <c r="V20" s="13">
-        <v>0</v>
+        <v>8438</v>
       </c>
       <c r="W20" s="13">
-        <v>2495</v>
+        <v>0</v>
       </c>
       <c r="X20" s="13">
-        <v>8438</v>
+        <v>3025</v>
       </c>
       <c r="Y20" s="13">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="Z20" s="13">
-        <v>3025</v>
+        <v>25827</v>
       </c>
       <c r="AA20" s="13">
-        <v>1001</v>
+        <v>26640</v>
       </c>
       <c r="AB20" s="13">
-        <v>25827</v>
+        <v>19078</v>
       </c>
       <c r="AC20" s="13">
-        <v>26640</v>
+        <v>8428</v>
       </c>
       <c r="AD20" s="13">
-        <v>19078</v>
+        <v>3989</v>
       </c>
       <c r="AE20" s="13">
-        <v>8428</v>
+        <v>22308</v>
       </c>
       <c r="AF20" s="13">
-        <v>3989</v>
+        <v>1410</v>
       </c>
       <c r="AG20" s="13">
-        <v>22308</v>
+        <v>5049</v>
       </c>
       <c r="AH20" s="13">
-        <v>1410</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="13">
-        <v>5049</v>
+        <v>913</v>
       </c>
       <c r="AJ20" s="13">
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="AK20" s="13">
-        <v>913</v>
+        <v>16719</v>
       </c>
       <c r="AL20" s="13">
-        <v>438</v>
-      </c>
-      <c r="AM20" s="13">
-        <v>16719</v>
+        <v>8581</v>
+      </c>
+      <c r="AM20" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN20" s="13">
-        <v>8581</v>
-      </c>
-      <c r="AO20" s="13" t="s">
-        <v>57</v>
+        <v>72231</v>
+      </c>
+      <c r="AO20" s="13">
+        <v>34279</v>
       </c>
       <c r="AP20" s="13">
-        <v>72231</v>
+        <v>3432</v>
       </c>
       <c r="AQ20" s="13">
-        <v>34279</v>
+        <v>887769</v>
       </c>
       <c r="AR20" s="13">
-        <v>514970</v>
-      </c>
-      <c r="AS20" s="13">
-        <v>887769</v>
-      </c>
-      <c r="AT20" s="13">
         <v>3118</v>
       </c>
+      <c r="AS20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT20" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AU20" s="13" t="s">
         <v>57</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>68</v>
       </c>
@@ -3050,59 +3050,59 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
-        <v>34380</v>
+        <v>40891</v>
       </c>
       <c r="F21" s="11">
-        <v>36817</v>
+        <v>38622</v>
       </c>
       <c r="G21" s="11">
-        <v>40891</v>
+        <v>29620</v>
       </c>
       <c r="H21" s="11">
-        <v>38622</v>
+        <v>42593</v>
       </c>
       <c r="I21" s="11">
-        <v>29620</v>
+        <v>48956</v>
       </c>
       <c r="J21" s="11">
-        <v>42593</v>
+        <v>22114</v>
       </c>
       <c r="K21" s="11">
-        <v>48956</v>
+        <v>20557</v>
       </c>
       <c r="L21" s="11">
-        <v>22114</v>
+        <v>35079</v>
       </c>
       <c r="M21" s="11">
-        <v>20557</v>
+        <v>36390</v>
       </c>
       <c r="N21" s="11">
-        <v>35079</v>
+        <v>28173</v>
       </c>
       <c r="O21" s="11">
-        <v>36390</v>
+        <v>56608</v>
       </c>
       <c r="P21" s="11">
-        <v>28173</v>
+        <v>19397</v>
       </c>
       <c r="Q21" s="11">
-        <v>56608</v>
+        <v>51838</v>
       </c>
       <c r="R21" s="11">
-        <v>19397</v>
+        <v>58048</v>
       </c>
       <c r="S21" s="11">
-        <v>51838</v>
+        <v>28429</v>
       </c>
       <c r="T21" s="11">
-        <v>58048</v>
-      </c>
-      <c r="U21" s="11">
-        <v>28429</v>
-      </c>
-      <c r="V21" s="11">
         <v>8985</v>
       </c>
+      <c r="U21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V21" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="W21" s="11" t="s">
         <v>57</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>69</v>
       </c>
@@ -3209,22 +3209,22 @@
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13">
-        <v>0</v>
+        <v>12058</v>
       </c>
       <c r="F22" s="13">
-        <v>3011</v>
+        <v>2822</v>
       </c>
       <c r="G22" s="13">
-        <v>12058</v>
+        <v>1612</v>
       </c>
       <c r="H22" s="13">
-        <v>2822</v>
+        <v>6008</v>
       </c>
       <c r="I22" s="13">
-        <v>1612</v>
+        <v>0</v>
       </c>
       <c r="J22" s="13">
-        <v>6008</v>
+        <v>0</v>
       </c>
       <c r="K22" s="13">
         <v>0</v>
@@ -3289,11 +3289,11 @@
       <c r="AE22" s="13">
         <v>0</v>
       </c>
-      <c r="AF22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="13">
-        <v>0</v>
+      <c r="AF22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG22" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH22" s="13" t="s">
         <v>57</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>70</v>
       </c>
@@ -3367,20 +3367,20 @@
         <v>56</v>
       </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>57</v>
+      <c r="E23" s="11">
+        <v>7717</v>
+      </c>
+      <c r="F23" s="11">
+        <v>143</v>
       </c>
       <c r="G23" s="11">
-        <v>7717</v>
-      </c>
-      <c r="H23" s="11">
-        <v>143</v>
-      </c>
-      <c r="I23" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="J23" s="11" t="s">
         <v>57</v>
@@ -3518,7 +3518,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>71</v>
       </c>
@@ -3553,32 +3553,32 @@
       <c r="M24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O24" s="13" t="s">
-        <v>57</v>
+      <c r="N24" s="13">
+        <v>9589</v>
+      </c>
+      <c r="O24" s="13">
+        <v>0</v>
       </c>
       <c r="P24" s="13">
-        <v>9589</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="13">
-        <v>0</v>
+        <v>36755</v>
       </c>
       <c r="R24" s="13">
-        <v>0</v>
+        <v>28361</v>
       </c>
       <c r="S24" s="13">
-        <v>36755</v>
+        <v>14302</v>
       </c>
       <c r="T24" s="13">
-        <v>28361</v>
+        <v>16828</v>
       </c>
       <c r="U24" s="13">
-        <v>14302</v>
+        <v>0</v>
       </c>
       <c r="V24" s="13">
-        <v>16828</v>
+        <v>0</v>
       </c>
       <c r="W24" s="13">
         <v>0</v>
@@ -3628,14 +3628,14 @@
       <c r="AL24" s="13">
         <v>0</v>
       </c>
-      <c r="AM24" s="13">
-        <v>0</v>
+      <c r="AM24" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN24" s="13">
         <v>0</v>
       </c>
-      <c r="AO24" s="13" t="s">
-        <v>57</v>
+      <c r="AO24" s="13">
+        <v>0</v>
       </c>
       <c r="AP24" s="13">
         <v>0</v>
@@ -3643,11 +3643,11 @@
       <c r="AQ24" s="13">
         <v>0</v>
       </c>
-      <c r="AR24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS24" s="13">
-        <v>0</v>
+      <c r="AR24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS24" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT24" s="13" t="s">
         <v>57</v>
@@ -3677,7 +3677,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>72</v>
       </c>
@@ -3730,113 +3730,113 @@
       <c r="S25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U25" s="11" t="s">
-        <v>57</v>
+      <c r="T25" s="11">
+        <v>290</v>
+      </c>
+      <c r="U25" s="11">
+        <v>199</v>
       </c>
       <c r="V25" s="11">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="W25" s="11">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="X25" s="11">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="Y25" s="11">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="Z25" s="11">
+        <v>228</v>
+      </c>
+      <c r="AA25" s="11">
+        <v>5</v>
+      </c>
+      <c r="AB25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="11">
+        <v>107</v>
+      </c>
+      <c r="AF25" s="11">
+        <v>313</v>
+      </c>
+      <c r="AG25" s="11">
+        <v>299</v>
+      </c>
+      <c r="AH25" s="11">
+        <v>392</v>
+      </c>
+      <c r="AI25" s="11">
+        <v>317</v>
+      </c>
+      <c r="AJ25" s="11">
+        <v>301</v>
+      </c>
+      <c r="AK25" s="11">
+        <v>302</v>
+      </c>
+      <c r="AL25" s="11">
+        <v>278</v>
+      </c>
+      <c r="AM25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN25" s="11">
+        <v>71</v>
+      </c>
+      <c r="AO25" s="11">
+        <v>127</v>
+      </c>
+      <c r="AP25" s="11">
+        <v>326</v>
+      </c>
+      <c r="AQ25" s="11">
+        <v>3216</v>
+      </c>
+      <c r="AR25" s="11">
+        <v>355</v>
+      </c>
+      <c r="AS25" s="11">
+        <v>337</v>
+      </c>
+      <c r="AT25" s="11">
+        <v>282</v>
+      </c>
+      <c r="AU25" s="11">
+        <v>311</v>
+      </c>
+      <c r="AV25" s="11">
+        <v>305</v>
+      </c>
+      <c r="AW25" s="11">
+        <v>298</v>
+      </c>
+      <c r="AX25" s="11">
         <v>285</v>
       </c>
-      <c r="AA25" s="11">
-        <v>260</v>
-      </c>
-      <c r="AB25" s="11">
-        <v>228</v>
-      </c>
-      <c r="AC25" s="11">
-        <v>5</v>
-      </c>
-      <c r="AD25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="11">
-        <v>107</v>
-      </c>
-      <c r="AH25" s="11">
-        <v>313</v>
-      </c>
-      <c r="AI25" s="11">
-        <v>299</v>
-      </c>
-      <c r="AJ25" s="11">
-        <v>392</v>
-      </c>
-      <c r="AK25" s="11">
-        <v>317</v>
-      </c>
-      <c r="AL25" s="11">
-        <v>301</v>
-      </c>
-      <c r="AM25" s="11">
-        <v>302</v>
-      </c>
-      <c r="AN25" s="11">
-        <v>278</v>
-      </c>
-      <c r="AO25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP25" s="11">
-        <v>71</v>
-      </c>
-      <c r="AQ25" s="11">
-        <v>127</v>
-      </c>
-      <c r="AR25" s="11">
-        <v>-2672</v>
-      </c>
-      <c r="AS25" s="11">
-        <v>3216</v>
-      </c>
-      <c r="AT25" s="11">
-        <v>355</v>
-      </c>
-      <c r="AU25" s="11">
-        <v>337</v>
-      </c>
-      <c r="AV25" s="11">
-        <v>282</v>
-      </c>
-      <c r="AW25" s="11">
-        <v>311</v>
-      </c>
-      <c r="AX25" s="11">
-        <v>305</v>
-      </c>
       <c r="AY25" s="11">
-        <v>298</v>
+        <v>222</v>
       </c>
       <c r="AZ25" s="11">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="BA25" s="11">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="BB25" s="11">
-        <v>293</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>73</v>
       </c>
@@ -3892,47 +3892,47 @@
       <c r="T26" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U26" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V26" s="13" t="s">
-        <v>57</v>
+      <c r="U26" s="13">
+        <v>3987</v>
+      </c>
+      <c r="V26" s="13">
+        <v>0</v>
       </c>
       <c r="W26" s="13">
-        <v>3987</v>
+        <v>12383</v>
       </c>
       <c r="X26" s="13">
-        <v>0</v>
+        <v>3430</v>
       </c>
       <c r="Y26" s="13">
-        <v>12383</v>
+        <v>155</v>
       </c>
       <c r="Z26" s="13">
-        <v>3430</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="13">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="13">
-        <v>0</v>
+        <v>1828</v>
       </c>
       <c r="AC26" s="13">
         <v>0</v>
       </c>
       <c r="AD26" s="13">
-        <v>1828</v>
+        <v>9199</v>
       </c>
       <c r="AE26" s="13">
         <v>0</v>
       </c>
       <c r="AF26" s="13">
-        <v>9199</v>
+        <v>6597</v>
       </c>
       <c r="AG26" s="13">
         <v>0</v>
       </c>
       <c r="AH26" s="13">
-        <v>6597</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="13">
         <v>0</v>
@@ -3946,14 +3946,14 @@
       <c r="AL26" s="13">
         <v>0</v>
       </c>
-      <c r="AM26" s="13">
-        <v>0</v>
+      <c r="AM26" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN26" s="13">
         <v>0</v>
       </c>
-      <c r="AO26" s="13" t="s">
-        <v>57</v>
+      <c r="AO26" s="13">
+        <v>0</v>
       </c>
       <c r="AP26" s="13">
         <v>0</v>
@@ -3962,13 +3962,13 @@
         <v>0</v>
       </c>
       <c r="AR26" s="13">
-        <v>-6597</v>
-      </c>
-      <c r="AS26" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT26" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AS26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT26" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU26" s="13" t="s">
         <v>57</v>
@@ -3995,7 +3995,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>74</v>
       </c>
@@ -4051,80 +4051,80 @@
       <c r="T27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U27" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V27" s="11" t="s">
-        <v>57</v>
+      <c r="U27" s="11">
+        <v>0</v>
+      </c>
+      <c r="V27" s="11">
+        <v>24680</v>
       </c>
       <c r="W27" s="11">
-        <v>0</v>
+        <v>16631</v>
       </c>
       <c r="X27" s="11">
-        <v>24680</v>
+        <v>4316</v>
       </c>
       <c r="Y27" s="11">
-        <v>16631</v>
+        <v>31489</v>
       </c>
       <c r="Z27" s="11">
-        <v>4316</v>
+        <v>31015</v>
       </c>
       <c r="AA27" s="11">
-        <v>31489</v>
+        <v>24883</v>
       </c>
       <c r="AB27" s="11">
-        <v>31015</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="11">
-        <v>24883</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="11">
         <v>0</v>
       </c>
       <c r="AE27" s="11">
-        <v>0</v>
+        <v>3770</v>
       </c>
       <c r="AF27" s="11">
         <v>0</v>
       </c>
       <c r="AG27" s="11">
-        <v>3770</v>
+        <v>0</v>
       </c>
       <c r="AH27" s="11">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="AI27" s="11">
         <v>0</v>
       </c>
       <c r="AJ27" s="11">
-        <v>409</v>
+        <v>144</v>
       </c>
       <c r="AK27" s="11">
-        <v>0</v>
+        <v>5758</v>
       </c>
       <c r="AL27" s="11">
-        <v>144</v>
-      </c>
-      <c r="AM27" s="11">
-        <v>5758</v>
+        <v>0</v>
+      </c>
+      <c r="AM27" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO27" s="11" t="s">
-        <v>57</v>
+        <v>15800</v>
+      </c>
+      <c r="AO27" s="11">
+        <v>1209</v>
       </c>
       <c r="AP27" s="11">
-        <v>15800</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="11">
-        <v>1209</v>
-      </c>
-      <c r="AR27" s="11">
-        <v>-28845</v>
-      </c>
-      <c r="AS27" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AR27" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS27" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT27" s="11" t="s">
         <v>57</v>
@@ -4154,7 +4154,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>75</v>
       </c>
@@ -4276,15 +4276,15 @@
       <c r="AP28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ28" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR28" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS28" s="13">
+      <c r="AQ28" s="13">
         <v>738961</v>
       </c>
+      <c r="AR28" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS28" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AT28" s="13" t="s">
         <v>57</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>76</v>
       </c>
@@ -4402,51 +4402,51 @@
       <c r="AE29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG29" s="11" t="s">
-        <v>57</v>
+      <c r="AF29" s="11">
+        <v>36874</v>
+      </c>
+      <c r="AG29" s="11">
+        <v>47398</v>
       </c>
       <c r="AH29" s="11">
-        <v>36874</v>
+        <v>76509</v>
       </c>
       <c r="AI29" s="11">
-        <v>47398</v>
+        <v>49588</v>
       </c>
       <c r="AJ29" s="11">
-        <v>76509</v>
+        <v>50789</v>
       </c>
       <c r="AK29" s="11">
-        <v>49588</v>
+        <v>45972</v>
       </c>
       <c r="AL29" s="11">
-        <v>50789</v>
-      </c>
-      <c r="AM29" s="11">
-        <v>45972</v>
+        <v>49300</v>
+      </c>
+      <c r="AM29" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN29" s="11">
-        <v>49300</v>
-      </c>
-      <c r="AO29" s="11" t="s">
-        <v>57</v>
+        <v>54501</v>
+      </c>
+      <c r="AO29" s="11">
+        <v>38757</v>
       </c>
       <c r="AP29" s="11">
-        <v>54501</v>
+        <v>30767</v>
       </c>
       <c r="AQ29" s="11">
-        <v>38757</v>
+        <v>0</v>
       </c>
       <c r="AR29" s="11">
-        <v>-489887</v>
-      </c>
-      <c r="AS29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT29" s="11">
         <v>25175</v>
       </c>
+      <c r="AS29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT29" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AU29" s="11" t="s">
         <v>57</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>77</v>
       </c>
@@ -4561,20 +4561,20 @@
       <c r="AE30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF30" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG30" s="13" t="s">
-        <v>57</v>
+      <c r="AF30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="13">
+        <v>0</v>
       </c>
       <c r="AH30" s="13">
         <v>0</v>
       </c>
-      <c r="AI30" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="13">
-        <v>0</v>
+      <c r="AI30" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ30" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AK30" s="13" t="s">
         <v>57</v>
@@ -4631,7 +4631,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>78</v>
       </c>
@@ -4688,7 +4688,7 @@
       <c r="BA31" s="15"/>
       <c r="BB31" s="15"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
         <v>79</v>
       </c>
@@ -4748,11 +4748,11 @@
       <c r="V32" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W32" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X32" s="17" t="s">
-        <v>57</v>
+      <c r="W32" s="17">
+        <v>0</v>
+      </c>
+      <c r="X32" s="17">
+        <v>0</v>
       </c>
       <c r="Y32" s="17">
         <v>0</v>
@@ -4796,14 +4796,14 @@
       <c r="AL32" s="17">
         <v>0</v>
       </c>
-      <c r="AM32" s="17">
-        <v>0</v>
+      <c r="AM32" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="AN32" s="17">
         <v>0</v>
       </c>
-      <c r="AO32" s="17" t="s">
-        <v>57</v>
+      <c r="AO32" s="17">
+        <v>0</v>
       </c>
       <c r="AP32" s="17">
         <v>0</v>
@@ -4845,164 +4845,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
         <v>80</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19">
-        <v>243056</v>
+        <v>234708</v>
       </c>
       <c r="F33" s="19">
-        <v>234141</v>
+        <v>239466</v>
       </c>
       <c r="G33" s="19">
-        <v>234708</v>
+        <v>236788</v>
       </c>
       <c r="H33" s="19">
-        <v>239466</v>
+        <v>242904</v>
       </c>
       <c r="I33" s="19">
-        <v>236788</v>
+        <v>241925</v>
       </c>
       <c r="J33" s="19">
-        <v>242904</v>
+        <v>213147</v>
       </c>
       <c r="K33" s="19">
-        <v>241925</v>
+        <v>215896</v>
       </c>
       <c r="L33" s="19">
-        <v>213147</v>
+        <v>238601</v>
       </c>
       <c r="M33" s="19">
-        <v>215896</v>
+        <v>247871</v>
       </c>
       <c r="N33" s="19">
-        <v>238601</v>
+        <v>247632</v>
       </c>
       <c r="O33" s="19">
-        <v>247871</v>
+        <v>230806</v>
       </c>
       <c r="P33" s="19">
-        <v>247632</v>
+        <v>205398</v>
       </c>
       <c r="Q33" s="19">
-        <v>230806</v>
+        <v>233269</v>
       </c>
       <c r="R33" s="19">
-        <v>205398</v>
+        <v>234546</v>
       </c>
       <c r="S33" s="19">
-        <v>233269</v>
+        <v>203012</v>
       </c>
       <c r="T33" s="19">
-        <v>234546</v>
+        <v>172480</v>
       </c>
       <c r="U33" s="19">
-        <v>203012</v>
+        <v>129135</v>
       </c>
       <c r="V33" s="19">
-        <v>172480</v>
+        <v>138777</v>
       </c>
       <c r="W33" s="19">
-        <v>129135</v>
+        <v>188764</v>
       </c>
       <c r="X33" s="19">
-        <v>138777</v>
+        <v>192732</v>
       </c>
       <c r="Y33" s="19">
-        <v>188764</v>
+        <v>215302</v>
       </c>
       <c r="Z33" s="19">
-        <v>192732</v>
+        <v>226871</v>
       </c>
       <c r="AA33" s="19">
-        <v>215302</v>
+        <v>209984</v>
       </c>
       <c r="AB33" s="19">
-        <v>226871</v>
+        <v>300103</v>
       </c>
       <c r="AC33" s="19">
-        <v>209984</v>
+        <v>254728</v>
       </c>
       <c r="AD33" s="19">
-        <v>300103</v>
+        <v>243135</v>
       </c>
       <c r="AE33" s="19">
-        <v>254728</v>
+        <v>250814</v>
       </c>
       <c r="AF33" s="19">
-        <v>243135</v>
+        <v>244021</v>
       </c>
       <c r="AG33" s="19">
-        <v>250814</v>
+        <v>247933</v>
       </c>
       <c r="AH33" s="19">
-        <v>244021</v>
+        <v>274881</v>
       </c>
       <c r="AI33" s="19">
-        <v>247933</v>
+        <v>250064</v>
       </c>
       <c r="AJ33" s="19">
-        <v>274881</v>
+        <v>244649</v>
       </c>
       <c r="AK33" s="19">
-        <v>250064</v>
+        <v>244613</v>
       </c>
       <c r="AL33" s="19">
-        <v>244649</v>
+        <v>242263</v>
       </c>
       <c r="AM33" s="19">
-        <v>244613</v>
+        <v>0</v>
       </c>
       <c r="AN33" s="19">
-        <v>242263</v>
+        <v>244260</v>
       </c>
       <c r="AO33" s="19">
-        <v>0</v>
+        <v>245739</v>
       </c>
       <c r="AP33" s="19">
-        <v>244260</v>
+        <v>250323</v>
       </c>
       <c r="AQ33" s="19">
-        <v>245739</v>
+        <v>2871827</v>
       </c>
       <c r="AR33" s="19">
-        <v>-501818</v>
+        <v>253669</v>
       </c>
       <c r="AS33" s="19">
-        <v>2871827</v>
+        <v>249991</v>
       </c>
       <c r="AT33" s="19">
-        <v>253669</v>
+        <v>250305</v>
       </c>
       <c r="AU33" s="19">
-        <v>249991</v>
+        <v>247303</v>
       </c>
       <c r="AV33" s="19">
-        <v>250305</v>
+        <v>245658</v>
       </c>
       <c r="AW33" s="19">
-        <v>247303</v>
+        <v>245314</v>
       </c>
       <c r="AX33" s="19">
-        <v>245658</v>
+        <v>232588</v>
       </c>
       <c r="AY33" s="19">
-        <v>245314</v>
+        <v>236804</v>
       </c>
       <c r="AZ33" s="19">
-        <v>232588</v>
+        <v>244470</v>
       </c>
       <c r="BA33" s="19">
-        <v>236804</v>
+        <v>246925</v>
       </c>
       <c r="BB33" s="19">
-        <v>244470</v>
+        <v>66701</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -5057,7 +5057,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -5112,7 +5112,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -5167,7 +5167,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>81</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -5379,7 +5379,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
         <v>81</v>
       </c>
@@ -5436,7 +5436,7 @@
       <c r="BA39" s="9"/>
       <c r="BB39" s="9"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>55</v>
       </c>
@@ -5558,14 +5558,14 @@
       <c r="AP40" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS40" s="11">
-        <v>0</v>
+      <c r="AQ40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS40" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT40" s="11" t="s">
         <v>57</v>
@@ -5595,7 +5595,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>58</v>
       </c>
@@ -5604,157 +5604,157 @@
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>46127</v>
+        <v>42436</v>
       </c>
       <c r="F41" s="13">
-        <v>42076</v>
+        <v>41656</v>
       </c>
       <c r="G41" s="13">
-        <v>42436</v>
+        <v>68964</v>
       </c>
       <c r="H41" s="13">
-        <v>41656</v>
+        <v>68394</v>
       </c>
       <c r="I41" s="13">
-        <v>68964</v>
+        <v>196</v>
       </c>
       <c r="J41" s="13">
-        <v>68394</v>
+        <v>66018</v>
       </c>
       <c r="K41" s="13">
-        <v>196</v>
+        <v>77830</v>
       </c>
       <c r="L41" s="13">
-        <v>66018</v>
+        <v>44001</v>
       </c>
       <c r="M41" s="13">
-        <v>77830</v>
+        <v>52816</v>
       </c>
       <c r="N41" s="13">
-        <v>44001</v>
+        <v>46644</v>
       </c>
       <c r="O41" s="13">
-        <v>52816</v>
+        <v>59220</v>
       </c>
       <c r="P41" s="13">
-        <v>46644</v>
+        <v>41930</v>
       </c>
       <c r="Q41" s="13">
-        <v>59220</v>
+        <v>42364</v>
       </c>
       <c r="R41" s="13">
-        <v>41930</v>
+        <v>41006</v>
       </c>
       <c r="S41" s="13">
-        <v>42364</v>
+        <v>397</v>
       </c>
       <c r="T41" s="13">
-        <v>41006</v>
+        <v>82497</v>
       </c>
       <c r="U41" s="13">
-        <v>397</v>
+        <v>57484</v>
       </c>
       <c r="V41" s="13">
-        <v>82497</v>
+        <v>139672</v>
       </c>
       <c r="W41" s="13">
-        <v>57484</v>
+        <v>64615</v>
       </c>
       <c r="X41" s="13">
-        <v>139672</v>
+        <v>40119</v>
       </c>
       <c r="Y41" s="13">
-        <v>64615</v>
+        <v>52927</v>
       </c>
       <c r="Z41" s="13">
-        <v>40119</v>
+        <v>46005</v>
       </c>
       <c r="AA41" s="13">
-        <v>52927</v>
+        <v>45630</v>
       </c>
       <c r="AB41" s="13">
-        <v>46005</v>
+        <v>46808</v>
       </c>
       <c r="AC41" s="13">
-        <v>45630</v>
+        <v>44600</v>
       </c>
       <c r="AD41" s="13">
-        <v>46808</v>
+        <v>71695</v>
       </c>
       <c r="AE41" s="13">
-        <v>44600</v>
+        <v>6400</v>
       </c>
       <c r="AF41" s="13">
-        <v>71695</v>
+        <v>94416</v>
       </c>
       <c r="AG41" s="13">
-        <v>6400</v>
+        <v>47144</v>
       </c>
       <c r="AH41" s="13">
-        <v>94416</v>
+        <v>47204</v>
       </c>
       <c r="AI41" s="13">
-        <v>47144</v>
+        <v>39848</v>
       </c>
       <c r="AJ41" s="13">
-        <v>47204</v>
+        <v>45695</v>
       </c>
       <c r="AK41" s="13">
-        <v>39848</v>
+        <v>87252</v>
       </c>
       <c r="AL41" s="13">
-        <v>45695</v>
-      </c>
-      <c r="AM41" s="13">
-        <v>87252</v>
+        <v>36409</v>
+      </c>
+      <c r="AM41" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN41" s="13">
-        <v>36409</v>
-      </c>
-      <c r="AO41" s="13" t="s">
-        <v>57</v>
+        <v>36789</v>
+      </c>
+      <c r="AO41" s="13">
+        <v>73040</v>
       </c>
       <c r="AP41" s="13">
-        <v>36789</v>
+        <v>36521</v>
       </c>
       <c r="AQ41" s="13">
-        <v>73040</v>
+        <v>36126</v>
       </c>
       <c r="AR41" s="13">
-        <v>688810</v>
+        <v>74364</v>
       </c>
       <c r="AS41" s="13">
-        <v>36126</v>
+        <v>40190</v>
       </c>
       <c r="AT41" s="13">
-        <v>74364</v>
+        <v>72363</v>
       </c>
       <c r="AU41" s="13">
-        <v>40190</v>
+        <v>38863</v>
       </c>
       <c r="AV41" s="13">
-        <v>72363</v>
+        <v>64699</v>
       </c>
       <c r="AW41" s="13">
-        <v>38863</v>
+        <v>53156</v>
       </c>
       <c r="AX41" s="13">
-        <v>64700</v>
+        <v>40773</v>
       </c>
       <c r="AY41" s="13">
-        <v>53155</v>
+        <v>37819</v>
       </c>
       <c r="AZ41" s="13">
-        <v>40773</v>
+        <v>40040</v>
       </c>
       <c r="BA41" s="13">
-        <v>37819</v>
+        <v>37489</v>
       </c>
       <c r="BB41" s="13">
-        <v>40040</v>
+        <v>33832</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>59</v>
       </c>
@@ -5763,7 +5763,7 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
-        <v>758</v>
+        <v>0</v>
       </c>
       <c r="F42" s="11">
         <v>0</v>
@@ -5772,19 +5772,19 @@
         <v>0</v>
       </c>
       <c r="H42" s="11">
-        <v>0</v>
+        <v>875</v>
       </c>
       <c r="I42" s="11">
         <v>0</v>
       </c>
       <c r="J42" s="11">
-        <v>875</v>
+        <v>993</v>
       </c>
       <c r="K42" s="11">
         <v>0</v>
       </c>
       <c r="L42" s="11">
-        <v>993</v>
+        <v>0</v>
       </c>
       <c r="M42" s="11">
         <v>0</v>
@@ -5796,22 +5796,22 @@
         <v>0</v>
       </c>
       <c r="P42" s="11">
-        <v>0</v>
+        <v>962</v>
       </c>
       <c r="Q42" s="11">
-        <v>0</v>
+        <v>961</v>
       </c>
       <c r="R42" s="11">
-        <v>962</v>
+        <v>0</v>
       </c>
       <c r="S42" s="11">
-        <v>961</v>
-      </c>
-      <c r="T42" s="11">
-        <v>0</v>
-      </c>
-      <c r="U42" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T42" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U42" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="V42" s="11" t="s">
         <v>57</v>
@@ -5913,7 +5913,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>61</v>
       </c>
@@ -6035,44 +6035,44 @@
       <c r="AP43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ43" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR43" s="13">
-        <v>0</v>
+      <c r="AQ43" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR43" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS43" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT43" s="13" t="s">
-        <v>57</v>
+        <v>103259</v>
+      </c>
+      <c r="AT43" s="13">
+        <v>49117</v>
       </c>
       <c r="AU43" s="13">
-        <v>103259</v>
+        <v>82911</v>
       </c>
       <c r="AV43" s="13">
-        <v>49117</v>
+        <v>48573</v>
       </c>
       <c r="AW43" s="13">
-        <v>82911</v>
+        <v>83675</v>
       </c>
       <c r="AX43" s="13">
-        <v>48573</v>
+        <v>71681</v>
       </c>
       <c r="AY43" s="13">
-        <v>87916</v>
+        <v>61603</v>
       </c>
       <c r="AZ43" s="13">
-        <v>71681</v>
+        <v>60567</v>
       </c>
       <c r="BA43" s="13">
-        <v>61603</v>
+        <v>69567</v>
       </c>
       <c r="BB43" s="13">
-        <v>60567</v>
+        <v>60175</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>62</v>
       </c>
@@ -6081,19 +6081,19 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
-        <v>0</v>
+        <v>6013</v>
       </c>
       <c r="F44" s="11">
-        <v>12145</v>
+        <v>0</v>
       </c>
       <c r="G44" s="11">
-        <v>6013</v>
+        <v>2971</v>
       </c>
       <c r="H44" s="11">
         <v>0</v>
       </c>
       <c r="I44" s="11">
-        <v>2971</v>
+        <v>0</v>
       </c>
       <c r="J44" s="11">
         <v>0</v>
@@ -6102,136 +6102,136 @@
         <v>0</v>
       </c>
       <c r="L44" s="11">
-        <v>0</v>
+        <v>11752</v>
       </c>
       <c r="M44" s="11">
-        <v>0</v>
+        <v>13070</v>
       </c>
       <c r="N44" s="11">
-        <v>11752</v>
+        <v>0</v>
       </c>
       <c r="O44" s="11">
-        <v>13070</v>
+        <v>5666</v>
       </c>
       <c r="P44" s="11">
         <v>0</v>
       </c>
       <c r="Q44" s="11">
-        <v>5666</v>
+        <v>0</v>
       </c>
       <c r="R44" s="11">
-        <v>0</v>
+        <v>6063</v>
       </c>
       <c r="S44" s="11">
-        <v>0</v>
+        <v>6472</v>
       </c>
       <c r="T44" s="11">
-        <v>6063</v>
+        <v>0</v>
       </c>
       <c r="U44" s="11">
-        <v>6472</v>
+        <v>4536</v>
       </c>
       <c r="V44" s="11">
         <v>0</v>
       </c>
       <c r="W44" s="11">
-        <v>4536</v>
+        <v>0</v>
       </c>
       <c r="X44" s="11">
-        <v>0</v>
+        <v>6420</v>
       </c>
       <c r="Y44" s="11">
-        <v>0</v>
+        <v>6450</v>
       </c>
       <c r="Z44" s="11">
-        <v>6420</v>
+        <v>0</v>
       </c>
       <c r="AA44" s="11">
-        <v>6450</v>
+        <v>5385</v>
       </c>
       <c r="AB44" s="11">
         <v>0</v>
       </c>
       <c r="AC44" s="11">
-        <v>5385</v>
+        <v>5942</v>
       </c>
       <c r="AD44" s="11">
-        <v>0</v>
+        <v>3604</v>
       </c>
       <c r="AE44" s="11">
-        <v>5942</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="11">
-        <v>3604</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="11">
-        <v>0</v>
+        <v>10157</v>
       </c>
       <c r="AH44" s="11">
         <v>0</v>
       </c>
       <c r="AI44" s="11">
-        <v>10157</v>
+        <v>6469</v>
       </c>
       <c r="AJ44" s="11">
-        <v>0</v>
+        <v>5345</v>
       </c>
       <c r="AK44" s="11">
-        <v>6469</v>
+        <v>11828</v>
       </c>
       <c r="AL44" s="11">
-        <v>5345</v>
-      </c>
-      <c r="AM44" s="11">
-        <v>11828</v>
+        <v>0</v>
+      </c>
+      <c r="AM44" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN44" s="11">
         <v>0</v>
       </c>
-      <c r="AO44" s="11" t="s">
-        <v>57</v>
+      <c r="AO44" s="11">
+        <v>0</v>
       </c>
       <c r="AP44" s="11">
-        <v>0</v>
+        <v>3625</v>
       </c>
       <c r="AQ44" s="11">
         <v>0</v>
       </c>
       <c r="AR44" s="11">
-        <v>3625</v>
+        <v>0</v>
       </c>
       <c r="AS44" s="11">
         <v>0</v>
       </c>
       <c r="AT44" s="11">
-        <v>0</v>
+        <v>6399</v>
       </c>
       <c r="AU44" s="11">
-        <v>0</v>
+        <v>6490</v>
       </c>
       <c r="AV44" s="11">
-        <v>6399</v>
+        <v>0</v>
       </c>
       <c r="AW44" s="11">
-        <v>6490</v>
+        <v>0</v>
       </c>
       <c r="AX44" s="11">
-        <v>0</v>
+        <v>6449</v>
       </c>
       <c r="AY44" s="11">
-        <v>0</v>
+        <v>3544</v>
       </c>
       <c r="AZ44" s="11">
-        <v>6449</v>
+        <v>0</v>
       </c>
       <c r="BA44" s="11">
-        <v>3544</v>
+        <v>0</v>
       </c>
       <c r="BB44" s="11">
-        <v>0</v>
+        <v>3602</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
         <v>63</v>
       </c>
@@ -6240,157 +6240,157 @@
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
-        <v>50732</v>
+        <v>65763</v>
       </c>
       <c r="F45" s="13">
-        <v>64436</v>
+        <v>86560</v>
       </c>
       <c r="G45" s="13">
-        <v>65763</v>
+        <v>71164</v>
       </c>
       <c r="H45" s="13">
-        <v>86560</v>
+        <v>42169</v>
       </c>
       <c r="I45" s="13">
-        <v>71164</v>
+        <v>63965</v>
       </c>
       <c r="J45" s="13">
-        <v>42169</v>
+        <v>51445</v>
       </c>
       <c r="K45" s="13">
-        <v>63965</v>
+        <v>92222</v>
       </c>
       <c r="L45" s="13">
-        <v>51445</v>
+        <v>53434</v>
       </c>
       <c r="M45" s="13">
-        <v>92222</v>
+        <v>79811</v>
       </c>
       <c r="N45" s="13">
-        <v>53434</v>
+        <v>65625</v>
       </c>
       <c r="O45" s="13">
-        <v>79811</v>
+        <v>42855</v>
       </c>
       <c r="P45" s="13">
-        <v>65625</v>
+        <v>44851</v>
       </c>
       <c r="Q45" s="13">
-        <v>42855</v>
+        <v>26334</v>
       </c>
       <c r="R45" s="13">
-        <v>44851</v>
+        <v>31741</v>
       </c>
       <c r="S45" s="13">
-        <v>26334</v>
+        <v>38399</v>
       </c>
       <c r="T45" s="13">
-        <v>31741</v>
+        <v>46064</v>
       </c>
       <c r="U45" s="13">
-        <v>38399</v>
+        <v>22253</v>
       </c>
       <c r="V45" s="13">
-        <v>46064</v>
+        <v>26166</v>
       </c>
       <c r="W45" s="13">
-        <v>22253</v>
+        <v>35137</v>
       </c>
       <c r="X45" s="13">
-        <v>26166</v>
+        <v>72851</v>
       </c>
       <c r="Y45" s="13">
-        <v>35137</v>
+        <v>62737</v>
       </c>
       <c r="Z45" s="13">
-        <v>72851</v>
+        <v>37226</v>
       </c>
       <c r="AA45" s="13">
-        <v>62737</v>
+        <v>72323</v>
       </c>
       <c r="AB45" s="13">
-        <v>37226</v>
+        <v>75983</v>
       </c>
       <c r="AC45" s="13">
-        <v>72323</v>
+        <v>92568</v>
       </c>
       <c r="AD45" s="13">
-        <v>75983</v>
+        <v>51452</v>
       </c>
       <c r="AE45" s="13">
-        <v>92568</v>
+        <v>41342</v>
       </c>
       <c r="AF45" s="13">
-        <v>51452</v>
+        <v>84391</v>
       </c>
       <c r="AG45" s="13">
-        <v>41342</v>
+        <v>80022</v>
       </c>
       <c r="AH45" s="13">
-        <v>84391</v>
+        <v>42283</v>
       </c>
       <c r="AI45" s="13">
-        <v>80022</v>
+        <v>58186</v>
       </c>
       <c r="AJ45" s="13">
-        <v>42283</v>
+        <v>67883</v>
       </c>
       <c r="AK45" s="13">
-        <v>58186</v>
+        <v>60449</v>
       </c>
       <c r="AL45" s="13">
-        <v>67883</v>
-      </c>
-      <c r="AM45" s="13">
-        <v>60449</v>
+        <v>55654</v>
+      </c>
+      <c r="AM45" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN45" s="13">
-        <v>55654</v>
-      </c>
-      <c r="AO45" s="13" t="s">
-        <v>57</v>
+        <v>15993</v>
+      </c>
+      <c r="AO45" s="13">
+        <v>49395</v>
       </c>
       <c r="AP45" s="13">
-        <v>15993</v>
+        <v>68286</v>
       </c>
       <c r="AQ45" s="13">
-        <v>49395</v>
+        <v>433</v>
       </c>
       <c r="AR45" s="13">
-        <v>-570870</v>
+        <v>81820</v>
       </c>
       <c r="AS45" s="13">
-        <v>433</v>
+        <v>79070</v>
       </c>
       <c r="AT45" s="13">
-        <v>81820</v>
+        <v>102269</v>
       </c>
       <c r="AU45" s="13">
-        <v>79070</v>
+        <v>105227</v>
       </c>
       <c r="AV45" s="13">
-        <v>102269</v>
+        <v>104110</v>
       </c>
       <c r="AW45" s="13">
-        <v>105227</v>
+        <v>84814</v>
       </c>
       <c r="AX45" s="13">
-        <v>104110</v>
+        <v>93352</v>
       </c>
       <c r="AY45" s="13">
-        <v>72721</v>
+        <v>78501</v>
       </c>
       <c r="AZ45" s="13">
-        <v>93352</v>
+        <v>74013</v>
       </c>
       <c r="BA45" s="13">
-        <v>78501</v>
+        <v>109982</v>
       </c>
       <c r="BB45" s="13">
-        <v>74013</v>
+        <v>53370</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>64</v>
       </c>
@@ -6443,14 +6443,14 @@
       <c r="S46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T46" s="11" t="s">
-        <v>57</v>
+      <c r="T46" s="11">
+        <v>0</v>
       </c>
       <c r="U46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V46" s="11">
-        <v>0</v>
+      <c r="V46" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W46" s="11" t="s">
         <v>57</v>
@@ -6549,7 +6549,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>65</v>
       </c>
@@ -6605,11 +6605,11 @@
       <c r="T47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U47" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V47" s="13" t="s">
-        <v>57</v>
+      <c r="U47" s="13">
+        <v>0</v>
+      </c>
+      <c r="V47" s="13">
+        <v>0</v>
       </c>
       <c r="W47" s="13">
         <v>0</v>
@@ -6630,20 +6630,20 @@
         <v>0</v>
       </c>
       <c r="AC47" s="13">
-        <v>0</v>
+        <v>88144</v>
       </c>
       <c r="AD47" s="13">
         <v>0</v>
       </c>
       <c r="AE47" s="13">
-        <v>88144</v>
-      </c>
-      <c r="AF47" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="13">
         <v>45023</v>
       </c>
+      <c r="AF47" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG47" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AH47" s="13" t="s">
         <v>57</v>
       </c>
@@ -6671,44 +6671,44 @@
       <c r="AP47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ47" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR47" s="13">
-        <v>0</v>
+      <c r="AQ47" s="13">
+        <v>607115</v>
+      </c>
+      <c r="AR47" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS47" s="13">
-        <v>607115</v>
-      </c>
-      <c r="AT47" s="13" t="s">
-        <v>57</v>
+        <v>44399</v>
+      </c>
+      <c r="AT47" s="13">
+        <v>0</v>
       </c>
       <c r="AU47" s="13">
-        <v>44399</v>
+        <v>86891</v>
       </c>
       <c r="AV47" s="13">
         <v>0</v>
       </c>
       <c r="AW47" s="13">
-        <v>86891</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="13">
-        <v>1</v>
+        <v>46773</v>
       </c>
       <c r="AY47" s="13">
-        <v>-1</v>
+        <v>46262</v>
       </c>
       <c r="AZ47" s="13">
-        <v>46773</v>
+        <v>45194</v>
       </c>
       <c r="BA47" s="13">
-        <v>46262</v>
+        <v>0</v>
       </c>
       <c r="BB47" s="13">
-        <v>45194</v>
+        <v>13952</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>66</v>
       </c>
@@ -6717,130 +6717,130 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>48879</v>
+        <v>33987</v>
       </c>
       <c r="F48" s="11">
-        <v>68104</v>
+        <v>82249</v>
       </c>
       <c r="G48" s="11">
-        <v>33987</v>
+        <v>34417</v>
       </c>
       <c r="H48" s="11">
-        <v>82249</v>
+        <v>53449</v>
       </c>
       <c r="I48" s="11">
-        <v>34417</v>
+        <v>57505</v>
       </c>
       <c r="J48" s="11">
-        <v>53449</v>
+        <v>54364</v>
       </c>
       <c r="K48" s="11">
-        <v>57505</v>
+        <v>69885</v>
       </c>
       <c r="L48" s="11">
-        <v>54364</v>
+        <v>63142</v>
       </c>
       <c r="M48" s="11">
-        <v>69885</v>
+        <v>80564</v>
       </c>
       <c r="N48" s="11">
-        <v>63142</v>
+        <v>77604</v>
       </c>
       <c r="O48" s="11">
-        <v>80564</v>
+        <v>41681</v>
       </c>
       <c r="P48" s="11">
-        <v>77604</v>
+        <v>85624</v>
       </c>
       <c r="Q48" s="11">
-        <v>41681</v>
+        <v>72234</v>
       </c>
       <c r="R48" s="11">
-        <v>85624</v>
+        <v>61623</v>
       </c>
       <c r="S48" s="11">
-        <v>72234</v>
+        <v>67090</v>
       </c>
       <c r="T48" s="11">
-        <v>61623</v>
+        <v>48750</v>
       </c>
       <c r="U48" s="11">
-        <v>67090</v>
+        <v>33271</v>
       </c>
       <c r="V48" s="11">
-        <v>48750</v>
+        <v>16450</v>
       </c>
       <c r="W48" s="11">
-        <v>33271</v>
+        <v>86484</v>
       </c>
       <c r="X48" s="11">
-        <v>16450</v>
+        <v>68741</v>
       </c>
       <c r="Y48" s="11">
-        <v>86484</v>
+        <v>65497</v>
       </c>
       <c r="Z48" s="11">
-        <v>68741</v>
+        <v>40549</v>
       </c>
       <c r="AA48" s="11">
-        <v>65497</v>
+        <v>68812</v>
       </c>
       <c r="AB48" s="11">
-        <v>40549</v>
+        <v>47858</v>
       </c>
       <c r="AC48" s="11">
-        <v>68812</v>
+        <v>83550</v>
       </c>
       <c r="AD48" s="11">
-        <v>47858</v>
+        <v>65973</v>
       </c>
       <c r="AE48" s="11">
-        <v>83550</v>
+        <v>31062</v>
       </c>
       <c r="AF48" s="11">
-        <v>65973</v>
+        <v>70644</v>
       </c>
       <c r="AG48" s="11">
-        <v>31062</v>
+        <v>88995</v>
       </c>
       <c r="AH48" s="11">
-        <v>70644</v>
+        <v>60777</v>
       </c>
       <c r="AI48" s="11">
-        <v>88995</v>
+        <v>73138</v>
       </c>
       <c r="AJ48" s="11">
-        <v>60777</v>
+        <v>84167</v>
       </c>
       <c r="AK48" s="11">
-        <v>73138</v>
+        <v>80850</v>
       </c>
       <c r="AL48" s="11">
-        <v>84167</v>
-      </c>
-      <c r="AM48" s="11">
-        <v>80850</v>
+        <v>53259</v>
+      </c>
+      <c r="AM48" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN48" s="11">
-        <v>53259</v>
-      </c>
-      <c r="AO48" s="11" t="s">
-        <v>57</v>
+        <v>16533</v>
+      </c>
+      <c r="AO48" s="11">
+        <v>19201</v>
       </c>
       <c r="AP48" s="11">
-        <v>16533</v>
-      </c>
-      <c r="AQ48" s="11">
-        <v>19201</v>
-      </c>
-      <c r="AR48" s="11" t="s">
-        <v>57</v>
+        <v>41501</v>
+      </c>
+      <c r="AQ48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR48" s="11">
+        <v>55611</v>
       </c>
       <c r="AS48" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT48" s="11">
-        <v>55611</v>
+      <c r="AT48" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU48" s="11" t="s">
         <v>57</v>
@@ -6867,7 +6867,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
         <v>67</v>
       </c>
@@ -6876,131 +6876,131 @@
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
-        <v>41744</v>
+        <v>39039</v>
       </c>
       <c r="F49" s="13">
-        <v>6906</v>
+        <v>9126</v>
       </c>
       <c r="G49" s="13">
-        <v>39039</v>
+        <v>14784</v>
       </c>
       <c r="H49" s="13">
-        <v>9126</v>
+        <v>23226</v>
       </c>
       <c r="I49" s="13">
-        <v>14784</v>
+        <v>7581</v>
       </c>
       <c r="J49" s="13">
-        <v>23226</v>
+        <v>7208</v>
       </c>
       <c r="K49" s="13">
-        <v>7581</v>
+        <v>28020</v>
       </c>
       <c r="L49" s="13">
-        <v>7208</v>
+        <v>23</v>
       </c>
       <c r="M49" s="13">
-        <v>28020</v>
+        <v>23</v>
       </c>
       <c r="N49" s="13">
-        <v>23</v>
+        <v>19556</v>
       </c>
       <c r="O49" s="13">
-        <v>23</v>
+        <v>9481</v>
       </c>
       <c r="P49" s="13">
-        <v>19556</v>
+        <v>30103</v>
       </c>
       <c r="Q49" s="13">
-        <v>9481</v>
+        <v>1386</v>
       </c>
       <c r="R49" s="13">
-        <v>30103</v>
+        <v>19725</v>
       </c>
       <c r="S49" s="13">
-        <v>1386</v>
+        <v>3185</v>
       </c>
       <c r="T49" s="13">
-        <v>19725</v>
+        <v>370</v>
       </c>
       <c r="U49" s="13">
-        <v>3185</v>
+        <v>35</v>
       </c>
       <c r="V49" s="13">
-        <v>370</v>
+        <v>6</v>
       </c>
       <c r="W49" s="13">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="X49" s="13">
+        <v>53</v>
+      </c>
+      <c r="Y49" s="13">
         <v>6</v>
       </c>
-      <c r="Y49" s="13">
-        <v>0</v>
-      </c>
       <c r="Z49" s="13">
+        <v>9673</v>
+      </c>
+      <c r="AA49" s="13">
+        <v>34911</v>
+      </c>
+      <c r="AB49" s="13">
+        <v>34062</v>
+      </c>
+      <c r="AC49" s="13">
+        <v>238</v>
+      </c>
+      <c r="AD49" s="13">
+        <v>11690</v>
+      </c>
+      <c r="AE49" s="13">
+        <v>16315</v>
+      </c>
+      <c r="AF49" s="13">
+        <v>5811</v>
+      </c>
+      <c r="AG49" s="13">
         <v>53</v>
       </c>
-      <c r="AA49" s="13">
-        <v>6</v>
-      </c>
-      <c r="AB49" s="13">
-        <v>9673</v>
-      </c>
-      <c r="AC49" s="13">
-        <v>34911</v>
-      </c>
-      <c r="AD49" s="13">
-        <v>34062</v>
-      </c>
-      <c r="AE49" s="13">
-        <v>238</v>
-      </c>
-      <c r="AF49" s="13">
-        <v>11690</v>
-      </c>
-      <c r="AG49" s="13">
-        <v>16315</v>
-      </c>
       <c r="AH49" s="13">
-        <v>5811</v>
+        <v>47</v>
       </c>
       <c r="AI49" s="13">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="AJ49" s="13">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="AK49" s="13">
-        <v>112</v>
+        <v>3941</v>
       </c>
       <c r="AL49" s="13">
-        <v>70</v>
-      </c>
-      <c r="AM49" s="13">
-        <v>3941</v>
+        <v>23852</v>
+      </c>
+      <c r="AM49" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN49" s="13">
-        <v>23852</v>
-      </c>
-      <c r="AO49" s="13" t="s">
-        <v>57</v>
+        <v>52282</v>
+      </c>
+      <c r="AO49" s="13">
+        <v>18238</v>
       </c>
       <c r="AP49" s="13">
-        <v>52282</v>
+        <v>12936</v>
       </c>
       <c r="AQ49" s="13">
-        <v>18238</v>
+        <v>870648</v>
       </c>
       <c r="AR49" s="13">
-        <v>536046</v>
-      </c>
-      <c r="AS49" s="13">
-        <v>870648</v>
-      </c>
-      <c r="AT49" s="13">
         <v>10550</v>
       </c>
+      <c r="AS49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT49" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AU49" s="13" t="s">
         <v>57</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>68</v>
       </c>
@@ -7035,58 +7035,58 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
-        <v>54923</v>
+        <v>39650</v>
       </c>
       <c r="F50" s="11">
-        <v>69398</v>
+        <v>40201</v>
       </c>
       <c r="G50" s="11">
-        <v>39650</v>
+        <v>46331</v>
       </c>
       <c r="H50" s="11">
-        <v>40201</v>
+        <v>41366</v>
       </c>
       <c r="I50" s="11">
-        <v>46331</v>
+        <v>39632</v>
       </c>
       <c r="J50" s="11">
-        <v>41366</v>
+        <v>8311</v>
       </c>
       <c r="K50" s="11">
-        <v>39632</v>
+        <v>16385</v>
       </c>
       <c r="L50" s="11">
-        <v>8311</v>
+        <v>101179</v>
       </c>
       <c r="M50" s="11">
-        <v>16385</v>
+        <v>0</v>
       </c>
       <c r="N50" s="11">
-        <v>101179</v>
+        <v>45147</v>
       </c>
       <c r="O50" s="11">
         <v>0</v>
       </c>
       <c r="P50" s="11">
-        <v>45147</v>
+        <v>45335</v>
       </c>
       <c r="Q50" s="11">
-        <v>0</v>
+        <v>94833</v>
       </c>
       <c r="R50" s="11">
-        <v>45335</v>
+        <v>0</v>
       </c>
       <c r="S50" s="11">
-        <v>94833</v>
+        <v>44895</v>
       </c>
       <c r="T50" s="11">
         <v>0</v>
       </c>
-      <c r="U50" s="11">
-        <v>44895</v>
-      </c>
-      <c r="V50" s="11">
-        <v>0</v>
+      <c r="U50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V50" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W50" s="11" t="s">
         <v>57</v>
@@ -7185,7 +7185,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>69</v>
       </c>
@@ -7194,28 +7194,28 @@
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
-        <v>0</v>
+        <v>8040</v>
       </c>
       <c r="F51" s="13">
         <v>0</v>
       </c>
       <c r="G51" s="13">
-        <v>8040</v>
+        <v>7401</v>
       </c>
       <c r="H51" s="13">
         <v>0</v>
       </c>
       <c r="I51" s="13">
-        <v>7401</v>
+        <v>0</v>
       </c>
       <c r="J51" s="13">
-        <v>0</v>
+        <v>7387</v>
       </c>
       <c r="K51" s="13">
         <v>0</v>
       </c>
       <c r="L51" s="13">
-        <v>7387</v>
+        <v>0</v>
       </c>
       <c r="M51" s="13">
         <v>0</v>
@@ -7274,11 +7274,11 @@
       <c r="AE51" s="13">
         <v>0</v>
       </c>
-      <c r="AF51" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG51" s="13">
-        <v>0</v>
+      <c r="AF51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG51" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH51" s="13" t="s">
         <v>57</v>
@@ -7344,7 +7344,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>70</v>
       </c>
@@ -7352,20 +7352,20 @@
         <v>56</v>
       </c>
       <c r="D52" s="11"/>
-      <c r="E52" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>57</v>
+      <c r="E52" s="11">
+        <v>0</v>
+      </c>
+      <c r="F52" s="11">
+        <v>0</v>
       </c>
       <c r="G52" s="11">
         <v>0</v>
       </c>
-      <c r="H52" s="11">
-        <v>0</v>
-      </c>
-      <c r="I52" s="11">
-        <v>0</v>
+      <c r="H52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="J52" s="11" t="s">
         <v>57</v>
@@ -7503,7 +7503,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
         <v>71</v>
       </c>
@@ -7538,38 +7538,38 @@
       <c r="M53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N53" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O53" s="13" t="s">
-        <v>57</v>
+      <c r="N53" s="13">
+        <v>8039</v>
+      </c>
+      <c r="O53" s="13">
+        <v>0</v>
       </c>
       <c r="P53" s="13">
-        <v>8039</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="13">
-        <v>0</v>
+        <v>36755</v>
       </c>
       <c r="R53" s="13">
-        <v>0</v>
+        <v>13613</v>
       </c>
       <c r="S53" s="13">
-        <v>36755</v>
+        <v>29050</v>
       </c>
       <c r="T53" s="13">
-        <v>13613</v>
+        <v>10266</v>
       </c>
       <c r="U53" s="13">
-        <v>29050</v>
+        <v>0</v>
       </c>
       <c r="V53" s="13">
-        <v>10266</v>
+        <v>4674</v>
       </c>
       <c r="W53" s="13">
         <v>0</v>
       </c>
       <c r="X53" s="13">
-        <v>4674</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="13">
         <v>0</v>
@@ -7613,14 +7613,14 @@
       <c r="AL53" s="13">
         <v>0</v>
       </c>
-      <c r="AM53" s="13">
-        <v>0</v>
+      <c r="AM53" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN53" s="13">
         <v>0</v>
       </c>
-      <c r="AO53" s="13" t="s">
-        <v>57</v>
+      <c r="AO53" s="13">
+        <v>0</v>
       </c>
       <c r="AP53" s="13">
         <v>0</v>
@@ -7628,11 +7628,11 @@
       <c r="AQ53" s="13">
         <v>0</v>
       </c>
-      <c r="AR53" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS53" s="13">
-        <v>0</v>
+      <c r="AR53" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS53" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT53" s="13" t="s">
         <v>57</v>
@@ -7662,7 +7662,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>72</v>
       </c>
@@ -7715,23 +7715,23 @@
       <c r="S54" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T54" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U54" s="11" t="s">
-        <v>57</v>
+      <c r="T54" s="11">
+        <v>0</v>
+      </c>
+      <c r="U54" s="11">
+        <v>0</v>
       </c>
       <c r="V54" s="11">
         <v>0</v>
       </c>
       <c r="W54" s="11">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="X54" s="11">
         <v>0</v>
       </c>
       <c r="Y54" s="11">
-        <v>994</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="11">
         <v>0</v>
@@ -7740,13 +7740,13 @@
         <v>0</v>
       </c>
       <c r="AB54" s="11">
-        <v>0</v>
+        <v>929</v>
       </c>
       <c r="AC54" s="11">
         <v>0</v>
       </c>
       <c r="AD54" s="11">
-        <v>929</v>
+        <v>0</v>
       </c>
       <c r="AE54" s="11">
         <v>0</v>
@@ -7770,37 +7770,37 @@
         <v>0</v>
       </c>
       <c r="AL54" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM54" s="11">
-        <v>0</v>
+        <v>949</v>
+      </c>
+      <c r="AM54" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN54" s="11">
-        <v>949</v>
-      </c>
-      <c r="AO54" s="11" t="s">
-        <v>57</v>
+        <v>865</v>
+      </c>
+      <c r="AO54" s="11">
+        <v>0</v>
       </c>
       <c r="AP54" s="11">
-        <v>865</v>
+        <v>0</v>
       </c>
       <c r="AQ54" s="11">
-        <v>0</v>
+        <v>1814</v>
       </c>
       <c r="AR54" s="11">
-        <v>0</v>
+        <v>1899</v>
       </c>
       <c r="AS54" s="11">
-        <v>1814</v>
+        <v>0</v>
       </c>
       <c r="AT54" s="11">
-        <v>1899</v>
+        <v>557</v>
       </c>
       <c r="AU54" s="11">
         <v>0</v>
       </c>
       <c r="AV54" s="11">
-        <v>557</v>
+        <v>0</v>
       </c>
       <c r="AW54" s="11">
         <v>0</v>
@@ -7812,16 +7812,16 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="11">
-        <v>0</v>
+        <v>951</v>
       </c>
       <c r="BA54" s="11">
         <v>0</v>
       </c>
       <c r="BB54" s="11">
-        <v>951</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
         <v>73</v>
       </c>
@@ -7877,11 +7877,11 @@
       <c r="T55" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U55" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V55" s="13" t="s">
-        <v>57</v>
+      <c r="U55" s="13">
+        <v>0</v>
+      </c>
+      <c r="V55" s="13">
+        <v>0</v>
       </c>
       <c r="W55" s="13">
         <v>0</v>
@@ -7931,14 +7931,14 @@
       <c r="AL55" s="13">
         <v>0</v>
       </c>
-      <c r="AM55" s="13">
-        <v>0</v>
+      <c r="AM55" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN55" s="13">
         <v>0</v>
       </c>
-      <c r="AO55" s="13" t="s">
-        <v>57</v>
+      <c r="AO55" s="13">
+        <v>0</v>
       </c>
       <c r="AP55" s="13">
         <v>0</v>
@@ -7949,11 +7949,11 @@
       <c r="AR55" s="13">
         <v>0</v>
       </c>
-      <c r="AS55" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT55" s="13">
-        <v>0</v>
+      <c r="AS55" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT55" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU55" s="13" t="s">
         <v>57</v>
@@ -7980,7 +7980,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>74</v>
       </c>
@@ -8036,32 +8036,32 @@
       <c r="T56" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V56" s="11" t="s">
-        <v>57</v>
+      <c r="U56" s="11">
+        <v>0</v>
+      </c>
+      <c r="V56" s="11">
+        <v>42116</v>
       </c>
       <c r="W56" s="11">
         <v>0</v>
       </c>
       <c r="X56" s="11">
-        <v>42116</v>
+        <v>40213</v>
       </c>
       <c r="Y56" s="11">
-        <v>0</v>
+        <v>82379</v>
       </c>
       <c r="Z56" s="11">
-        <v>40213</v>
+        <v>46008</v>
       </c>
       <c r="AA56" s="11">
-        <v>82379</v>
+        <v>46001</v>
       </c>
       <c r="AB56" s="11">
-        <v>46008</v>
+        <v>0</v>
       </c>
       <c r="AC56" s="11">
-        <v>46001</v>
+        <v>0</v>
       </c>
       <c r="AD56" s="11">
         <v>0</v>
@@ -8090,14 +8090,14 @@
       <c r="AL56" s="11">
         <v>0</v>
       </c>
-      <c r="AM56" s="11">
-        <v>0</v>
+      <c r="AM56" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN56" s="11">
         <v>0</v>
       </c>
-      <c r="AO56" s="11" t="s">
-        <v>57</v>
+      <c r="AO56" s="11">
+        <v>0</v>
       </c>
       <c r="AP56" s="11">
         <v>0</v>
@@ -8105,11 +8105,11 @@
       <c r="AQ56" s="11">
         <v>0</v>
       </c>
-      <c r="AR56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS56" s="11">
-        <v>0</v>
+      <c r="AR56" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS56" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT56" s="11" t="s">
         <v>57</v>
@@ -8139,7 +8139,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>75</v>
       </c>
@@ -8261,15 +8261,15 @@
       <c r="AP57" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS57" s="13">
+      <c r="AQ57" s="13">
         <v>710735</v>
       </c>
+      <c r="AR57" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS57" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AT57" s="13" t="s">
         <v>57</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>76</v>
       </c>
@@ -8387,50 +8387,50 @@
       <c r="AE58" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG58" s="11" t="s">
-        <v>57</v>
+      <c r="AF58" s="11">
+        <v>45617</v>
+      </c>
+      <c r="AG58" s="11">
+        <v>21164</v>
       </c>
       <c r="AH58" s="11">
-        <v>45617</v>
+        <v>123607</v>
       </c>
       <c r="AI58" s="11">
-        <v>21164</v>
+        <v>0</v>
       </c>
       <c r="AJ58" s="11">
-        <v>123607</v>
+        <v>92092</v>
       </c>
       <c r="AK58" s="11">
-        <v>0</v>
+        <v>45385</v>
       </c>
       <c r="AL58" s="11">
-        <v>92092</v>
-      </c>
-      <c r="AM58" s="11">
-        <v>45385</v>
+        <v>45296</v>
+      </c>
+      <c r="AM58" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN58" s="11">
-        <v>45296</v>
-      </c>
-      <c r="AO58" s="11" t="s">
-        <v>57</v>
+        <v>93056</v>
+      </c>
+      <c r="AO58" s="11">
+        <v>47431</v>
       </c>
       <c r="AP58" s="11">
-        <v>93056</v>
+        <v>0</v>
       </c>
       <c r="AQ58" s="11">
-        <v>47431</v>
+        <v>0</v>
       </c>
       <c r="AR58" s="11">
-        <v>-560674</v>
-      </c>
-      <c r="AS58" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT58" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AS58" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT58" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU58" s="11" t="s">
         <v>57</v>
@@ -8457,7 +8457,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>77</v>
       </c>
@@ -8546,20 +8546,20 @@
       <c r="AE59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG59" s="13" t="s">
-        <v>57</v>
+      <c r="AF59" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="13">
+        <v>0</v>
       </c>
       <c r="AH59" s="13">
         <v>0</v>
       </c>
-      <c r="AI59" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ59" s="13">
-        <v>0</v>
+      <c r="AI59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ59" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AK59" s="13" t="s">
         <v>57</v>
@@ -8616,7 +8616,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
         <v>78</v>
       </c>
@@ -8673,7 +8673,7 @@
       <c r="BA60" s="15"/>
       <c r="BB60" s="15"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
         <v>79</v>
       </c>
@@ -8733,11 +8733,11 @@
       <c r="V61" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W61" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X61" s="17" t="s">
-        <v>57</v>
+      <c r="W61" s="17">
+        <v>0</v>
+      </c>
+      <c r="X61" s="17">
+        <v>0</v>
       </c>
       <c r="Y61" s="17">
         <v>0</v>
@@ -8781,14 +8781,14 @@
       <c r="AL61" s="17">
         <v>0</v>
       </c>
-      <c r="AM61" s="17">
-        <v>0</v>
+      <c r="AM61" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="AN61" s="17">
         <v>0</v>
       </c>
-      <c r="AO61" s="17" t="s">
-        <v>57</v>
+      <c r="AO61" s="17">
+        <v>0</v>
       </c>
       <c r="AP61" s="17">
         <v>0</v>
@@ -8830,7 +8830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
         <v>82</v>
       </c>
@@ -8887,7 +8887,7 @@
       <c r="BA62" s="15"/>
       <c r="BB62" s="15"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="16" t="s">
         <v>83</v>
       </c>
@@ -8947,11 +8947,11 @@
       <c r="V63" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W63" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X63" s="17" t="s">
-        <v>57</v>
+      <c r="W63" s="17">
+        <v>0</v>
+      </c>
+      <c r="X63" s="17">
+        <v>0</v>
       </c>
       <c r="Y63" s="17">
         <v>0</v>
@@ -8995,14 +8995,14 @@
       <c r="AL63" s="17">
         <v>0</v>
       </c>
-      <c r="AM63" s="17">
-        <v>0</v>
+      <c r="AM63" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="AN63" s="17">
         <v>0</v>
       </c>
-      <c r="AO63" s="17" t="s">
-        <v>57</v>
+      <c r="AO63" s="17">
+        <v>0</v>
       </c>
       <c r="AP63" s="17">
         <v>0</v>
@@ -9044,164 +9044,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="18" t="s">
         <v>80</v>
       </c>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19">
-        <v>243163</v>
+        <v>234928</v>
       </c>
       <c r="F64" s="19">
-        <v>263065</v>
+        <v>259792</v>
       </c>
       <c r="G64" s="19">
-        <v>234928</v>
+        <v>246032</v>
       </c>
       <c r="H64" s="19">
-        <v>259792</v>
+        <v>229479</v>
       </c>
       <c r="I64" s="19">
-        <v>246032</v>
+        <v>168879</v>
       </c>
       <c r="J64" s="19">
-        <v>229479</v>
+        <v>195726</v>
       </c>
       <c r="K64" s="19">
-        <v>168879</v>
+        <v>284342</v>
       </c>
       <c r="L64" s="19">
-        <v>195726</v>
+        <v>273531</v>
       </c>
       <c r="M64" s="19">
-        <v>284342</v>
+        <v>226284</v>
       </c>
       <c r="N64" s="19">
-        <v>273531</v>
+        <v>262615</v>
       </c>
       <c r="O64" s="19">
-        <v>226284</v>
+        <v>158903</v>
       </c>
       <c r="P64" s="19">
-        <v>262615</v>
+        <v>248805</v>
       </c>
       <c r="Q64" s="19">
-        <v>158903</v>
+        <v>274867</v>
       </c>
       <c r="R64" s="19">
-        <v>248805</v>
+        <v>173771</v>
       </c>
       <c r="S64" s="19">
-        <v>274867</v>
+        <v>189488</v>
       </c>
       <c r="T64" s="19">
-        <v>173771</v>
+        <v>187947</v>
       </c>
       <c r="U64" s="19">
-        <v>189488</v>
+        <v>117579</v>
       </c>
       <c r="V64" s="19">
-        <v>187947</v>
+        <v>229084</v>
       </c>
       <c r="W64" s="19">
-        <v>117579</v>
+        <v>187230</v>
       </c>
       <c r="X64" s="19">
-        <v>229084</v>
+        <v>228397</v>
       </c>
       <c r="Y64" s="19">
-        <v>187230</v>
+        <v>269996</v>
       </c>
       <c r="Z64" s="19">
-        <v>228397</v>
+        <v>179461</v>
       </c>
       <c r="AA64" s="19">
-        <v>269996</v>
+        <v>273062</v>
       </c>
       <c r="AB64" s="19">
-        <v>179461</v>
+        <v>205640</v>
       </c>
       <c r="AC64" s="19">
-        <v>273062</v>
+        <v>315042</v>
       </c>
       <c r="AD64" s="19">
-        <v>205640</v>
+        <v>204414</v>
       </c>
       <c r="AE64" s="19">
-        <v>315042</v>
+        <v>140142</v>
       </c>
       <c r="AF64" s="19">
-        <v>204414</v>
+        <v>300879</v>
       </c>
       <c r="AG64" s="19">
-        <v>140142</v>
+        <v>247535</v>
       </c>
       <c r="AH64" s="19">
-        <v>300879</v>
+        <v>273918</v>
       </c>
       <c r="AI64" s="19">
-        <v>247535</v>
+        <v>177753</v>
       </c>
       <c r="AJ64" s="19">
-        <v>273918</v>
+        <v>295252</v>
       </c>
       <c r="AK64" s="19">
-        <v>177753</v>
+        <v>289705</v>
       </c>
       <c r="AL64" s="19">
-        <v>295252</v>
+        <v>215419</v>
       </c>
       <c r="AM64" s="19">
-        <v>289705</v>
+        <v>0</v>
       </c>
       <c r="AN64" s="19">
-        <v>215419</v>
+        <v>215518</v>
       </c>
       <c r="AO64" s="19">
-        <v>0</v>
+        <v>207305</v>
       </c>
       <c r="AP64" s="19">
-        <v>215518</v>
+        <v>162869</v>
       </c>
       <c r="AQ64" s="19">
-        <v>207305</v>
+        <v>2226871</v>
       </c>
       <c r="AR64" s="19">
-        <v>96937</v>
+        <v>224244</v>
       </c>
       <c r="AS64" s="19">
-        <v>2226871</v>
+        <v>266918</v>
       </c>
       <c r="AT64" s="19">
-        <v>224244</v>
+        <v>230705</v>
       </c>
       <c r="AU64" s="19">
-        <v>266918</v>
+        <v>320382</v>
       </c>
       <c r="AV64" s="19">
-        <v>230705</v>
+        <v>217382</v>
       </c>
       <c r="AW64" s="19">
-        <v>320382</v>
+        <v>221645</v>
       </c>
       <c r="AX64" s="19">
-        <v>217384</v>
+        <v>259028</v>
       </c>
       <c r="AY64" s="19">
-        <v>213791</v>
+        <v>227729</v>
       </c>
       <c r="AZ64" s="19">
-        <v>259028</v>
+        <v>220765</v>
       </c>
       <c r="BA64" s="19">
-        <v>227729</v>
+        <v>217038</v>
       </c>
       <c r="BB64" s="19">
-        <v>220765</v>
+        <v>164931</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -9256,7 +9256,7 @@
       <c r="BA65" s="1"/>
       <c r="BB65" s="1"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -9311,7 +9311,7 @@
       <c r="BA66" s="1"/>
       <c r="BB66" s="1"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -9366,7 +9366,7 @@
       <c r="BA67" s="1"/>
       <c r="BB67" s="1"/>
     </row>
-    <row r="68" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
         <v>84</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -9578,7 +9578,7 @@
       <c r="BA69" s="1"/>
       <c r="BB69" s="1"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
         <v>84</v>
       </c>
@@ -9635,7 +9635,7 @@
       <c r="BA70" s="9"/>
       <c r="BB70" s="9"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>55</v>
       </c>
@@ -9757,14 +9757,14 @@
       <c r="AP71" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ71" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR71" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS71" s="11">
-        <v>0</v>
+      <c r="AQ71" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR71" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS71" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT71" s="11" t="s">
         <v>57</v>
@@ -9794,7 +9794,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>58</v>
       </c>
@@ -9904,44 +9904,44 @@
       <c r="AL72" s="13">
         <v>0</v>
       </c>
-      <c r="AM72" s="13">
-        <v>0</v>
+      <c r="AM72" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN72" s="13">
         <v>0</v>
       </c>
-      <c r="AO72" s="13" t="s">
-        <v>57</v>
+      <c r="AO72" s="13">
+        <v>0</v>
       </c>
       <c r="AP72" s="13">
         <v>0</v>
       </c>
       <c r="AQ72" s="13">
-        <v>0</v>
+        <v>66381707</v>
       </c>
       <c r="AR72" s="13">
         <v>0</v>
       </c>
       <c r="AS72" s="13">
-        <v>66381707</v>
+        <v>0</v>
       </c>
       <c r="AT72" s="13">
-        <v>0</v>
+        <v>26157894</v>
       </c>
       <c r="AU72" s="13">
         <v>0</v>
       </c>
       <c r="AV72" s="13">
-        <v>26157894</v>
+        <v>0</v>
       </c>
       <c r="AW72" s="13">
-        <v>0</v>
+        <v>6978572</v>
       </c>
       <c r="AX72" s="13">
-        <v>12044143</v>
+        <v>0</v>
       </c>
       <c r="AY72" s="13">
-        <v>6920238</v>
+        <v>0</v>
       </c>
       <c r="AZ72" s="13">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>59</v>
       </c>
@@ -10006,11 +10006,11 @@
       <c r="S73" s="11">
         <v>0</v>
       </c>
-      <c r="T73" s="11">
-        <v>0</v>
-      </c>
-      <c r="U73" s="11">
-        <v>0</v>
+      <c r="T73" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U73" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="V73" s="11" t="s">
         <v>57</v>
@@ -10112,7 +10112,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>61</v>
       </c>
@@ -10234,32 +10234,32 @@
       <c r="AP74" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ74" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR74" s="13">
-        <v>0</v>
+      <c r="AQ74" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR74" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS74" s="13">
         <v>0</v>
       </c>
-      <c r="AT74" s="13" t="s">
-        <v>57</v>
+      <c r="AT74" s="13">
+        <v>47100437</v>
       </c>
       <c r="AU74" s="13">
         <v>0</v>
       </c>
       <c r="AV74" s="13">
-        <v>47100437</v>
+        <v>0</v>
       </c>
       <c r="AW74" s="13">
-        <v>0</v>
+        <v>19233282</v>
       </c>
       <c r="AX74" s="13">
-        <v>33354332</v>
+        <v>0</v>
       </c>
       <c r="AY74" s="13">
-        <v>20132378</v>
+        <v>0</v>
       </c>
       <c r="AZ74" s="13">
         <v>0</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>62</v>
       </c>
@@ -10381,44 +10381,44 @@
       <c r="AL75" s="11">
         <v>0</v>
       </c>
-      <c r="AM75" s="11">
-        <v>0</v>
+      <c r="AM75" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN75" s="11">
         <v>0</v>
       </c>
-      <c r="AO75" s="11" t="s">
-        <v>57</v>
+      <c r="AO75" s="11">
+        <v>0</v>
       </c>
       <c r="AP75" s="11">
         <v>0</v>
       </c>
       <c r="AQ75" s="11">
-        <v>0</v>
+        <v>2453395</v>
       </c>
       <c r="AR75" s="11">
         <v>0</v>
       </c>
       <c r="AS75" s="11">
-        <v>2453395</v>
+        <v>0</v>
       </c>
       <c r="AT75" s="11">
-        <v>0</v>
+        <v>633303</v>
       </c>
       <c r="AU75" s="11">
         <v>0</v>
       </c>
       <c r="AV75" s="11">
-        <v>633303</v>
+        <v>0</v>
       </c>
       <c r="AW75" s="11">
         <v>0</v>
       </c>
       <c r="AX75" s="11">
-        <v>432217</v>
+        <v>0</v>
       </c>
       <c r="AY75" s="11">
-        <v>134486</v>
+        <v>0</v>
       </c>
       <c r="AZ75" s="11">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>63</v>
       </c>
@@ -10481,13 +10481,13 @@
         <v>0</v>
       </c>
       <c r="S76" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T76" s="13">
         <v>0</v>
       </c>
       <c r="U76" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V76" s="13">
         <v>0</v>
@@ -10540,44 +10540,44 @@
       <c r="AL76" s="13">
         <v>0</v>
       </c>
-      <c r="AM76" s="13">
-        <v>0</v>
+      <c r="AM76" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN76" s="13">
         <v>0</v>
       </c>
-      <c r="AO76" s="13" t="s">
-        <v>57</v>
+      <c r="AO76" s="13">
+        <v>0</v>
       </c>
       <c r="AP76" s="13">
         <v>0</v>
       </c>
       <c r="AQ76" s="13">
-        <v>0</v>
+        <v>17911</v>
       </c>
       <c r="AR76" s="13">
         <v>0</v>
       </c>
       <c r="AS76" s="13">
-        <v>17911</v>
+        <v>0</v>
       </c>
       <c r="AT76" s="13">
-        <v>0</v>
+        <v>52655559</v>
       </c>
       <c r="AU76" s="13">
         <v>0</v>
       </c>
       <c r="AV76" s="13">
-        <v>52655559</v>
+        <v>0</v>
       </c>
       <c r="AW76" s="13">
-        <v>0</v>
+        <v>16447927</v>
       </c>
       <c r="AX76" s="13">
-        <v>38975301</v>
+        <v>0</v>
       </c>
       <c r="AY76" s="13">
-        <v>13733688</v>
+        <v>0</v>
       </c>
       <c r="AZ76" s="13">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>64</v>
       </c>
@@ -10642,14 +10642,14 @@
       <c r="S77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T77" s="11" t="s">
-        <v>57</v>
+      <c r="T77" s="11">
+        <v>0</v>
       </c>
       <c r="U77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V77" s="11">
-        <v>0</v>
+      <c r="V77" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W77" s="11" t="s">
         <v>57</v>
@@ -10748,7 +10748,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>65</v>
       </c>
@@ -10804,11 +10804,11 @@
       <c r="T78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U78" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V78" s="13" t="s">
-        <v>57</v>
+      <c r="U78" s="13">
+        <v>0</v>
+      </c>
+      <c r="V78" s="13">
+        <v>0</v>
       </c>
       <c r="W78" s="13">
         <v>0</v>
@@ -10837,11 +10837,11 @@
       <c r="AE78" s="13">
         <v>0</v>
       </c>
-      <c r="AF78" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG78" s="13">
-        <v>0</v>
+      <c r="AF78" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG78" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH78" s="13" t="s">
         <v>57</v>
@@ -10870,32 +10870,32 @@
       <c r="AP78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ78" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR78" s="13">
-        <v>0</v>
+      <c r="AQ78" s="13">
+        <v>61397813</v>
+      </c>
+      <c r="AR78" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS78" s="13">
-        <v>61397813</v>
-      </c>
-      <c r="AT78" s="13" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="AT78" s="13">
+        <v>5433585</v>
       </c>
       <c r="AU78" s="13">
         <v>0</v>
       </c>
       <c r="AV78" s="13">
-        <v>5433585</v>
+        <v>0</v>
       </c>
       <c r="AW78" s="13">
         <v>0</v>
       </c>
       <c r="AX78" s="13">
-        <v>9554211</v>
+        <v>0</v>
       </c>
       <c r="AY78" s="13">
-        <v>-379863</v>
+        <v>0</v>
       </c>
       <c r="AZ78" s="13">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>66</v>
       </c>
@@ -11017,29 +11017,29 @@
       <c r="AL79" s="11">
         <v>0</v>
       </c>
-      <c r="AM79" s="11">
-        <v>0</v>
+      <c r="AM79" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN79" s="11">
         <v>0</v>
       </c>
-      <c r="AO79" s="11" t="s">
-        <v>57</v>
+      <c r="AO79" s="11">
+        <v>0</v>
       </c>
       <c r="AP79" s="11">
         <v>0</v>
       </c>
-      <c r="AQ79" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR79" s="11" t="s">
-        <v>57</v>
+      <c r="AQ79" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR79" s="11">
+        <v>0</v>
       </c>
       <c r="AS79" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT79" s="11">
-        <v>0</v>
+      <c r="AT79" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU79" s="11" t="s">
         <v>57</v>
@@ -11066,7 +11066,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>67</v>
       </c>
@@ -11176,29 +11176,29 @@
       <c r="AL80" s="13">
         <v>0</v>
       </c>
-      <c r="AM80" s="13">
-        <v>0</v>
+      <c r="AM80" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN80" s="13">
         <v>0</v>
       </c>
-      <c r="AO80" s="13" t="s">
-        <v>57</v>
+      <c r="AO80" s="13">
+        <v>0</v>
       </c>
       <c r="AP80" s="13">
         <v>0</v>
       </c>
       <c r="AQ80" s="13">
-        <v>0</v>
+        <v>107865059</v>
       </c>
       <c r="AR80" s="13">
         <v>0</v>
       </c>
-      <c r="AS80" s="13">
-        <v>107865059</v>
-      </c>
-      <c r="AT80" s="13">
-        <v>0</v>
+      <c r="AS80" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT80" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU80" s="13" t="s">
         <v>57</v>
@@ -11225,7 +11225,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>68</v>
       </c>
@@ -11281,11 +11281,11 @@
       <c r="T81" s="11">
         <v>0</v>
       </c>
-      <c r="U81" s="11">
-        <v>0</v>
-      </c>
-      <c r="V81" s="11">
-        <v>0</v>
+      <c r="U81" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V81" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W81" s="11" t="s">
         <v>57</v>
@@ -11384,7 +11384,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>69</v>
       </c>
@@ -11473,11 +11473,11 @@
       <c r="AE82" s="13">
         <v>0</v>
       </c>
-      <c r="AF82" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG82" s="13">
-        <v>0</v>
+      <c r="AF82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG82" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH82" s="13" t="s">
         <v>57</v>
@@ -11543,7 +11543,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>70</v>
       </c>
@@ -11551,20 +11551,20 @@
         <v>85</v>
       </c>
       <c r="D83" s="11"/>
-      <c r="E83" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>57</v>
+      <c r="E83" s="11">
+        <v>0</v>
+      </c>
+      <c r="F83" s="11">
+        <v>0</v>
       </c>
       <c r="G83" s="11">
         <v>0</v>
       </c>
-      <c r="H83" s="11">
-        <v>0</v>
-      </c>
-      <c r="I83" s="11">
-        <v>0</v>
+      <c r="H83" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="J83" s="11" t="s">
         <v>57</v>
@@ -11702,7 +11702,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>71</v>
       </c>
@@ -11737,11 +11737,11 @@
       <c r="M84" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N84" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O84" s="13" t="s">
-        <v>57</v>
+      <c r="N84" s="13">
+        <v>0</v>
+      </c>
+      <c r="O84" s="13">
+        <v>0</v>
       </c>
       <c r="P84" s="13">
         <v>0</v>
@@ -11812,14 +11812,14 @@
       <c r="AL84" s="13">
         <v>0</v>
       </c>
-      <c r="AM84" s="13">
-        <v>0</v>
+      <c r="AM84" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN84" s="13">
         <v>0</v>
       </c>
-      <c r="AO84" s="13" t="s">
-        <v>57</v>
+      <c r="AO84" s="13">
+        <v>0</v>
       </c>
       <c r="AP84" s="13">
         <v>0</v>
@@ -11827,11 +11827,11 @@
       <c r="AQ84" s="13">
         <v>0</v>
       </c>
-      <c r="AR84" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS84" s="13">
-        <v>0</v>
+      <c r="AR84" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS84" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT84" s="13" t="s">
         <v>57</v>
@@ -11861,7 +11861,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>72</v>
       </c>
@@ -11914,11 +11914,11 @@
       <c r="S85" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T85" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U85" s="11" t="s">
-        <v>57</v>
+      <c r="T85" s="11">
+        <v>0</v>
+      </c>
+      <c r="U85" s="11">
+        <v>0</v>
       </c>
       <c r="V85" s="11">
         <v>0</v>
@@ -11971,44 +11971,44 @@
       <c r="AL85" s="11">
         <v>0</v>
       </c>
-      <c r="AM85" s="11">
-        <v>0</v>
+      <c r="AM85" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN85" s="11">
         <v>0</v>
       </c>
-      <c r="AO85" s="11" t="s">
-        <v>57</v>
+      <c r="AO85" s="11">
+        <v>0</v>
       </c>
       <c r="AP85" s="11">
         <v>0</v>
       </c>
       <c r="AQ85" s="11">
-        <v>0</v>
+        <v>120332</v>
       </c>
       <c r="AR85" s="11">
         <v>0</v>
       </c>
       <c r="AS85" s="11">
-        <v>120332</v>
+        <v>0</v>
       </c>
       <c r="AT85" s="11">
-        <v>0</v>
+        <v>249493</v>
       </c>
       <c r="AU85" s="11">
         <v>0</v>
       </c>
       <c r="AV85" s="11">
-        <v>249493</v>
+        <v>0</v>
       </c>
       <c r="AW85" s="11">
         <v>0</v>
       </c>
       <c r="AX85" s="11">
-        <v>-26733</v>
+        <v>0</v>
       </c>
       <c r="AY85" s="11">
-        <v>5758</v>
+        <v>0</v>
       </c>
       <c r="AZ85" s="11">
         <v>0</v>
@@ -12020,7 +12020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>73</v>
       </c>
@@ -12076,11 +12076,11 @@
       <c r="T86" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U86" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V86" s="13" t="s">
-        <v>57</v>
+      <c r="U86" s="13">
+        <v>0</v>
+      </c>
+      <c r="V86" s="13">
+        <v>0</v>
       </c>
       <c r="W86" s="13">
         <v>0</v>
@@ -12130,14 +12130,14 @@
       <c r="AL86" s="13">
         <v>0</v>
       </c>
-      <c r="AM86" s="13">
-        <v>0</v>
+      <c r="AM86" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN86" s="13">
         <v>0</v>
       </c>
-      <c r="AO86" s="13" t="s">
-        <v>57</v>
+      <c r="AO86" s="13">
+        <v>0</v>
       </c>
       <c r="AP86" s="13">
         <v>0</v>
@@ -12148,11 +12148,11 @@
       <c r="AR86" s="13">
         <v>0</v>
       </c>
-      <c r="AS86" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT86" s="13">
-        <v>0</v>
+      <c r="AS86" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT86" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU86" s="13" t="s">
         <v>57</v>
@@ -12179,7 +12179,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>74</v>
       </c>
@@ -12235,11 +12235,11 @@
       <c r="T87" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U87" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V87" s="11" t="s">
-        <v>57</v>
+      <c r="U87" s="11">
+        <v>0</v>
+      </c>
+      <c r="V87" s="11">
+        <v>0</v>
       </c>
       <c r="W87" s="11">
         <v>0</v>
@@ -12289,14 +12289,14 @@
       <c r="AL87" s="11">
         <v>0</v>
       </c>
-      <c r="AM87" s="11">
-        <v>0</v>
+      <c r="AM87" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN87" s="11">
         <v>0</v>
       </c>
-      <c r="AO87" s="11" t="s">
-        <v>57</v>
+      <c r="AO87" s="11">
+        <v>0</v>
       </c>
       <c r="AP87" s="11">
         <v>0</v>
@@ -12304,11 +12304,11 @@
       <c r="AQ87" s="11">
         <v>0</v>
       </c>
-      <c r="AR87" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS87" s="11">
-        <v>0</v>
+      <c r="AR87" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS87" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT87" s="11" t="s">
         <v>57</v>
@@ -12338,7 +12338,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
         <v>75</v>
       </c>
@@ -12460,15 +12460,15 @@
       <c r="AP88" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ88" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR88" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS88" s="13">
+      <c r="AQ88" s="13">
         <v>88481097</v>
       </c>
+      <c r="AR88" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS88" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AT88" s="13" t="s">
         <v>57</v>
       </c>
@@ -12497,7 +12497,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
         <v>76</v>
       </c>
@@ -12586,11 +12586,11 @@
       <c r="AE89" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF89" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG89" s="11" t="s">
-        <v>57</v>
+      <c r="AF89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG89" s="11">
+        <v>0</v>
       </c>
       <c r="AH89" s="11">
         <v>0</v>
@@ -12607,14 +12607,14 @@
       <c r="AL89" s="11">
         <v>0</v>
       </c>
-      <c r="AM89" s="11">
-        <v>0</v>
+      <c r="AM89" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN89" s="11">
         <v>0</v>
       </c>
-      <c r="AO89" s="11" t="s">
-        <v>57</v>
+      <c r="AO89" s="11">
+        <v>0</v>
       </c>
       <c r="AP89" s="11">
         <v>0</v>
@@ -12625,11 +12625,11 @@
       <c r="AR89" s="11">
         <v>0</v>
       </c>
-      <c r="AS89" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT89" s="11">
-        <v>0</v>
+      <c r="AS89" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT89" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU89" s="11" t="s">
         <v>57</v>
@@ -12656,7 +12656,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
         <v>77</v>
       </c>
@@ -12745,20 +12745,20 @@
       <c r="AE90" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF90" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG90" s="13" t="s">
-        <v>57</v>
+      <c r="AF90" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG90" s="13">
+        <v>0</v>
       </c>
       <c r="AH90" s="13">
         <v>0</v>
       </c>
-      <c r="AI90" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ90" s="13">
-        <v>0</v>
+      <c r="AI90" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ90" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AK90" s="13" t="s">
         <v>57</v>
@@ -12815,7 +12815,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="14" t="s">
         <v>86</v>
       </c>
@@ -12872,7 +12872,7 @@
       <c r="BA91" s="15"/>
       <c r="BB91" s="15"/>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="16" t="s">
         <v>79</v>
       </c>
@@ -12934,11 +12934,11 @@
       <c r="V92" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W92" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X92" s="17" t="s">
-        <v>57</v>
+      <c r="W92" s="17">
+        <v>0</v>
+      </c>
+      <c r="X92" s="17">
+        <v>0</v>
       </c>
       <c r="Y92" s="17">
         <v>0</v>
@@ -12982,14 +12982,14 @@
       <c r="AL92" s="17">
         <v>0</v>
       </c>
-      <c r="AM92" s="17">
-        <v>0</v>
+      <c r="AM92" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="AN92" s="17">
         <v>0</v>
       </c>
-      <c r="AO92" s="17" t="s">
-        <v>57</v>
+      <c r="AO92" s="17">
+        <v>0</v>
       </c>
       <c r="AP92" s="17">
         <v>0</v>
@@ -13031,7 +13031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="14" t="s">
         <v>87</v>
       </c>
@@ -13088,7 +13088,7 @@
       <c r="BA93" s="15"/>
       <c r="BB93" s="15"/>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="16" t="s">
         <v>83</v>
       </c>
@@ -13150,11 +13150,11 @@
       <c r="V94" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W94" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X94" s="17" t="s">
-        <v>57</v>
+      <c r="W94" s="17">
+        <v>0</v>
+      </c>
+      <c r="X94" s="17">
+        <v>0</v>
       </c>
       <c r="Y94" s="17">
         <v>0</v>
@@ -13198,14 +13198,14 @@
       <c r="AL94" s="17">
         <v>0</v>
       </c>
-      <c r="AM94" s="17">
-        <v>0</v>
+      <c r="AM94" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="AN94" s="17">
         <v>0</v>
       </c>
-      <c r="AO94" s="17" t="s">
-        <v>57</v>
+      <c r="AO94" s="17">
+        <v>0</v>
       </c>
       <c r="AP94" s="17">
         <v>0</v>
@@ -13247,7 +13247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
         <v>88</v>
       </c>
@@ -13304,7 +13304,7 @@
       <c r="BA95" s="9"/>
       <c r="BB95" s="9"/>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
         <v>89</v>
       </c>
@@ -13366,11 +13366,11 @@
       <c r="V96" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W96" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X96" s="11" t="s">
-        <v>57</v>
+      <c r="W96" s="11">
+        <v>0</v>
+      </c>
+      <c r="X96" s="11">
+        <v>0</v>
       </c>
       <c r="Y96" s="11">
         <v>0</v>
@@ -13414,14 +13414,14 @@
       <c r="AL96" s="11">
         <v>0</v>
       </c>
-      <c r="AM96" s="11">
-        <v>0</v>
+      <c r="AM96" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN96" s="11">
         <v>0</v>
       </c>
-      <c r="AO96" s="11" t="s">
-        <v>57</v>
+      <c r="AO96" s="11">
+        <v>0</v>
       </c>
       <c r="AP96" s="11">
         <v>0</v>
@@ -13463,7 +13463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="18" t="s">
         <v>80</v>
       </c>
@@ -13512,13 +13512,13 @@
         <v>0</v>
       </c>
       <c r="S97" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T97" s="19">
         <v>0</v>
       </c>
       <c r="U97" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V97" s="19">
         <v>0</v>
@@ -13584,31 +13584,31 @@
         <v>0</v>
       </c>
       <c r="AQ97" s="19">
-        <v>0</v>
+        <v>326717314</v>
       </c>
       <c r="AR97" s="19">
         <v>0</v>
       </c>
       <c r="AS97" s="19">
-        <v>326717314</v>
+        <v>0</v>
       </c>
       <c r="AT97" s="19">
-        <v>0</v>
+        <v>132230271</v>
       </c>
       <c r="AU97" s="19">
         <v>0</v>
       </c>
       <c r="AV97" s="19">
-        <v>132230271</v>
+        <v>0</v>
       </c>
       <c r="AW97" s="19">
-        <v>0</v>
+        <v>42659781</v>
       </c>
       <c r="AX97" s="19">
-        <v>94333471</v>
+        <v>0</v>
       </c>
       <c r="AY97" s="19">
-        <v>40546685</v>
+        <v>0</v>
       </c>
       <c r="AZ97" s="19">
         <v>0</v>
@@ -13620,7 +13620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -13675,7 +13675,7 @@
       <c r="BA98" s="1"/>
       <c r="BB98" s="1"/>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -13730,7 +13730,7 @@
       <c r="BA99" s="1"/>
       <c r="BB99" s="1"/>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -13785,7 +13785,7 @@
       <c r="BA100" s="1"/>
       <c r="BB100" s="1"/>
     </row>
-    <row r="101" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
         <v>90</v>
       </c>
@@ -13942,7 +13942,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -13997,7 +13997,7 @@
       <c r="BA102" s="1"/>
       <c r="BB102" s="1"/>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
         <v>91</v>
       </c>
@@ -14054,7 +14054,7 @@
       <c r="BA103" s="9"/>
       <c r="BB103" s="9"/>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
         <v>58</v>
       </c>
@@ -14164,44 +14164,44 @@
       <c r="AL104" s="11">
         <v>0</v>
       </c>
-      <c r="AM104" s="11">
-        <v>0</v>
+      <c r="AM104" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN104" s="11">
         <v>0</v>
       </c>
-      <c r="AO104" s="11" t="s">
-        <v>57</v>
+      <c r="AO104" s="11">
+        <v>0</v>
       </c>
       <c r="AP104" s="11">
         <v>0</v>
       </c>
       <c r="AQ104" s="11">
-        <v>0</v>
+        <v>1837505038</v>
       </c>
       <c r="AR104" s="11">
         <v>0</v>
       </c>
       <c r="AS104" s="11">
-        <v>1837505038</v>
+        <v>0</v>
       </c>
       <c r="AT104" s="11">
-        <v>0</v>
+        <v>361481614</v>
       </c>
       <c r="AU104" s="11">
         <v>0</v>
       </c>
       <c r="AV104" s="11">
-        <v>361481614</v>
+        <v>0</v>
       </c>
       <c r="AW104" s="11">
-        <v>0</v>
+        <v>131284747</v>
       </c>
       <c r="AX104" s="11">
-        <v>41462589</v>
+        <v>0</v>
       </c>
       <c r="AY104" s="11">
-        <v>131115374</v>
+        <v>0</v>
       </c>
       <c r="AZ104" s="11">
         <v>0</v>
@@ -14213,7 +14213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B105" s="12" t="s">
         <v>59</v>
       </c>
@@ -14266,11 +14266,11 @@
       <c r="S105" s="13">
         <v>0</v>
       </c>
-      <c r="T105" s="13">
-        <v>0</v>
-      </c>
-      <c r="U105" s="13">
-        <v>0</v>
+      <c r="T105" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U105" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V105" s="13" t="s">
         <v>57</v>
@@ -14372,7 +14372,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
         <v>61</v>
       </c>
@@ -14500,26 +14500,26 @@
       <c r="AR106" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS106" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT106" s="11" t="s">
-        <v>57</v>
+      <c r="AS106" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT106" s="11">
+        <v>958943685</v>
       </c>
       <c r="AU106" s="11">
         <v>0</v>
       </c>
       <c r="AV106" s="11">
-        <v>958943685</v>
+        <v>0</v>
       </c>
       <c r="AW106" s="11">
-        <v>0</v>
+        <v>229856970</v>
       </c>
       <c r="AX106" s="11">
-        <v>95292374</v>
+        <v>0</v>
       </c>
       <c r="AY106" s="11">
-        <v>229684052</v>
+        <v>0</v>
       </c>
       <c r="AZ106" s="11">
         <v>0</v>
@@ -14531,7 +14531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B107" s="12" t="s">
         <v>62</v>
       </c>
@@ -14584,8 +14584,8 @@
       <c r="S107" s="13">
         <v>0</v>
       </c>
-      <c r="T107" s="13">
-        <v>0</v>
+      <c r="T107" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="U107" s="13">
         <v>0</v>
@@ -14593,17 +14593,17 @@
       <c r="V107" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W107" s="13">
-        <v>0</v>
-      </c>
-      <c r="X107" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y107" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z107" s="13">
-        <v>0</v>
+      <c r="W107" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X107" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y107" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z107" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AA107" s="13">
         <v>0</v>
@@ -14614,17 +14614,17 @@
       <c r="AC107" s="13">
         <v>0</v>
       </c>
-      <c r="AD107" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE107" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF107" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG107" s="13" t="s">
-        <v>57</v>
+      <c r="AD107" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE107" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF107" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG107" s="13">
+        <v>0</v>
       </c>
       <c r="AH107" s="13" t="s">
         <v>57</v>
@@ -14632,17 +14632,17 @@
       <c r="AI107" s="13">
         <v>0</v>
       </c>
-      <c r="AJ107" s="13" t="s">
-        <v>57</v>
+      <c r="AJ107" s="13">
+        <v>0</v>
       </c>
       <c r="AK107" s="13">
         <v>0</v>
       </c>
-      <c r="AL107" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM107" s="13">
-        <v>0</v>
+      <c r="AL107" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM107" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN107" s="13" t="s">
         <v>57</v>
@@ -14650,47 +14650,47 @@
       <c r="AO107" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP107" s="13" t="s">
-        <v>57</v>
+      <c r="AP107" s="13">
+        <v>0</v>
       </c>
       <c r="AQ107" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR107" s="13">
-        <v>0</v>
+      <c r="AR107" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS107" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT107" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU107" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV107" s="13">
+      <c r="AT107" s="13">
         <v>98969058</v>
       </c>
-      <c r="AW107" s="13">
-        <v>0</v>
+      <c r="AU107" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV107" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW107" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX107" s="13">
-        <v>33533789</v>
+        <v>0</v>
       </c>
       <c r="AY107" s="13">
-        <v>10434169</v>
-      </c>
-      <c r="AZ107" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA107" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB107" s="13" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="AZ107" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA107" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB107" s="13">
+        <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
         <v>63</v>
       </c>
@@ -14741,13 +14741,13 @@
         <v>0</v>
       </c>
       <c r="S108" s="11">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="T108" s="11">
         <v>0</v>
       </c>
       <c r="U108" s="11">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="V108" s="11">
         <v>0</v>
@@ -14800,44 +14800,44 @@
       <c r="AL108" s="11">
         <v>0</v>
       </c>
-      <c r="AM108" s="11">
-        <v>0</v>
+      <c r="AM108" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN108" s="11">
         <v>0</v>
       </c>
-      <c r="AO108" s="11" t="s">
-        <v>57</v>
+      <c r="AO108" s="11">
+        <v>0</v>
       </c>
       <c r="AP108" s="11">
         <v>0</v>
       </c>
       <c r="AQ108" s="11">
-        <v>0</v>
+        <v>41364896</v>
       </c>
       <c r="AR108" s="11">
         <v>0</v>
       </c>
       <c r="AS108" s="11">
-        <v>41364896</v>
+        <v>0</v>
       </c>
       <c r="AT108" s="11">
-        <v>0</v>
+        <v>514873119</v>
       </c>
       <c r="AU108" s="11">
         <v>0</v>
       </c>
       <c r="AV108" s="11">
-        <v>514873119</v>
+        <v>0</v>
       </c>
       <c r="AW108" s="11">
-        <v>0</v>
+        <v>193929387</v>
       </c>
       <c r="AX108" s="11">
-        <v>82488108</v>
+        <v>0</v>
       </c>
       <c r="AY108" s="11">
-        <v>193252499</v>
+        <v>0</v>
       </c>
       <c r="AZ108" s="11">
         <v>0</v>
@@ -14849,7 +14849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B109" s="12" t="s">
         <v>65</v>
       </c>
@@ -14929,8 +14929,8 @@
       <c r="AB109" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AC109" s="13" t="s">
-        <v>57</v>
+      <c r="AC109" s="13">
+        <v>0</v>
       </c>
       <c r="AD109" s="13" t="s">
         <v>57</v>
@@ -14941,8 +14941,8 @@
       <c r="AF109" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AG109" s="13">
-        <v>0</v>
+      <c r="AG109" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH109" s="13" t="s">
         <v>57</v>
@@ -14971,14 +14971,14 @@
       <c r="AP109" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ109" s="13" t="s">
-        <v>57</v>
+      <c r="AQ109" s="13">
+        <v>101130450</v>
       </c>
       <c r="AR109" s="13" t="s">
         <v>57</v>
       </c>
       <c r="AS109" s="13">
-        <v>101130450</v>
+        <v>0</v>
       </c>
       <c r="AT109" s="13" t="s">
         <v>57</v>
@@ -14989,26 +14989,26 @@
       <c r="AV109" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW109" s="13">
-        <v>0</v>
+      <c r="AW109" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX109" s="13">
-        <v>72770941</v>
+        <v>0</v>
       </c>
       <c r="AY109" s="13">
-        <v>-2892443</v>
+        <v>0</v>
       </c>
       <c r="AZ109" s="13">
         <v>0</v>
       </c>
-      <c r="BA109" s="13">
-        <v>0</v>
+      <c r="BA109" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BB109" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
         <v>66</v>
       </c>
@@ -15118,29 +15118,29 @@
       <c r="AL110" s="11">
         <v>0</v>
       </c>
-      <c r="AM110" s="11">
-        <v>0</v>
+      <c r="AM110" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN110" s="11">
         <v>0</v>
       </c>
-      <c r="AO110" s="11" t="s">
-        <v>57</v>
+      <c r="AO110" s="11">
+        <v>0</v>
       </c>
       <c r="AP110" s="11">
         <v>0</v>
       </c>
-      <c r="AQ110" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR110" s="11" t="s">
-        <v>57</v>
+      <c r="AQ110" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR110" s="11">
+        <v>0</v>
       </c>
       <c r="AS110" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT110" s="11">
-        <v>0</v>
+      <c r="AT110" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU110" s="11" t="s">
         <v>57</v>
@@ -15167,7 +15167,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="111" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B111" s="12" t="s">
         <v>67</v>
       </c>
@@ -15229,14 +15229,14 @@
       <c r="V111" s="13">
         <v>0</v>
       </c>
-      <c r="W111" s="13">
-        <v>0</v>
+      <c r="W111" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="X111" s="13">
         <v>0</v>
       </c>
-      <c r="Y111" s="13" t="s">
-        <v>57</v>
+      <c r="Y111" s="13">
+        <v>0</v>
       </c>
       <c r="Z111" s="13">
         <v>0</v>
@@ -15277,29 +15277,29 @@
       <c r="AL111" s="13">
         <v>0</v>
       </c>
-      <c r="AM111" s="13">
-        <v>0</v>
+      <c r="AM111" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN111" s="13">
         <v>0</v>
       </c>
-      <c r="AO111" s="13" t="s">
-        <v>57</v>
+      <c r="AO111" s="13">
+        <v>0</v>
       </c>
       <c r="AP111" s="13">
         <v>0</v>
       </c>
       <c r="AQ111" s="13">
-        <v>0</v>
+        <v>123890549</v>
       </c>
       <c r="AR111" s="13">
         <v>0</v>
       </c>
-      <c r="AS111" s="13">
-        <v>123890549</v>
-      </c>
-      <c r="AT111" s="13">
-        <v>0</v>
+      <c r="AS111" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT111" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU111" s="13" t="s">
         <v>57</v>
@@ -15326,7 +15326,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
         <v>68</v>
       </c>
@@ -15379,11 +15379,11 @@
       <c r="S112" s="11">
         <v>0</v>
       </c>
-      <c r="T112" s="11">
-        <v>0</v>
-      </c>
-      <c r="U112" s="11">
-        <v>0</v>
+      <c r="T112" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U112" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="V112" s="11" t="s">
         <v>57</v>
@@ -15485,7 +15485,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="113" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B113" s="12" t="s">
         <v>69</v>
       </c>
@@ -15538,11 +15538,11 @@
       <c r="S113" s="13">
         <v>0</v>
       </c>
-      <c r="T113" s="13">
-        <v>0</v>
-      </c>
-      <c r="U113" s="13">
-        <v>0</v>
+      <c r="T113" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U113" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V113" s="13" t="s">
         <v>57</v>
@@ -15644,7 +15644,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="114" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
         <v>70</v>
       </c>
@@ -15652,20 +15652,20 @@
         <v>92</v>
       </c>
       <c r="D114" s="11"/>
-      <c r="E114" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F114" s="11" t="s">
-        <v>57</v>
+      <c r="E114" s="11">
+        <v>0</v>
+      </c>
+      <c r="F114" s="11">
+        <v>0</v>
       </c>
       <c r="G114" s="11">
         <v>0</v>
       </c>
-      <c r="H114" s="11">
-        <v>0</v>
-      </c>
-      <c r="I114" s="11">
-        <v>0</v>
+      <c r="H114" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I114" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="J114" s="11" t="s">
         <v>57</v>
@@ -15803,7 +15803,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="115" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B115" s="12" t="s">
         <v>71</v>
       </c>
@@ -15838,11 +15838,11 @@
       <c r="M115" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N115" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O115" s="13" t="s">
-        <v>57</v>
+      <c r="N115" s="13">
+        <v>0</v>
+      </c>
+      <c r="O115" s="13">
+        <v>0</v>
       </c>
       <c r="P115" s="13">
         <v>0</v>
@@ -15859,8 +15859,8 @@
       <c r="T115" s="13">
         <v>0</v>
       </c>
-      <c r="U115" s="13">
-        <v>0</v>
+      <c r="U115" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V115" s="13">
         <v>0</v>
@@ -15868,8 +15868,8 @@
       <c r="W115" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="X115" s="13">
-        <v>0</v>
+      <c r="X115" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Y115" s="13" t="s">
         <v>57</v>
@@ -15962,7 +15962,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="116" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
         <v>72</v>
       </c>
@@ -16024,14 +16024,14 @@
       <c r="V116" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W116" s="11" t="s">
-        <v>57</v>
+      <c r="W116" s="11">
+        <v>0</v>
       </c>
       <c r="X116" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y116" s="11">
-        <v>0</v>
+      <c r="Y116" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="Z116" s="11" t="s">
         <v>57</v>
@@ -16039,14 +16039,14 @@
       <c r="AA116" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB116" s="11" t="s">
-        <v>57</v>
+      <c r="AB116" s="11">
+        <v>0</v>
       </c>
       <c r="AC116" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD116" s="11">
-        <v>0</v>
+      <c r="AD116" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AE116" s="11" t="s">
         <v>57</v>
@@ -16069,8 +16069,8 @@
       <c r="AK116" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AL116" s="11" t="s">
-        <v>57</v>
+      <c r="AL116" s="11">
+        <v>0</v>
       </c>
       <c r="AM116" s="11" t="s">
         <v>57</v>
@@ -16081,47 +16081,47 @@
       <c r="AO116" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP116" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ116" s="11" t="s">
-        <v>57</v>
+      <c r="AP116" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ116" s="11">
+        <v>66335171</v>
       </c>
       <c r="AR116" s="11">
         <v>0</v>
       </c>
-      <c r="AS116" s="11">
-        <v>66335171</v>
+      <c r="AS116" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT116" s="11">
-        <v>0</v>
+        <v>447922801</v>
       </c>
       <c r="AU116" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AV116" s="11">
-        <v>447922801</v>
+      <c r="AV116" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AW116" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AX116" s="11">
-        <v>-10884772</v>
-      </c>
-      <c r="AY116" s="11">
-        <v>2344463</v>
-      </c>
-      <c r="AZ116" s="11" t="s">
-        <v>57</v>
+      <c r="AX116" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY116" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ116" s="11">
+        <v>0</v>
       </c>
       <c r="BA116" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BB116" s="11">
-        <v>0</v>
+      <c r="BB116" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="117" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B117" s="12" t="s">
         <v>74</v>
       </c>
@@ -16180,8 +16180,8 @@
       <c r="U117" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V117" s="13" t="s">
-        <v>57</v>
+      <c r="V117" s="13">
+        <v>0</v>
       </c>
       <c r="W117" s="13" t="s">
         <v>57</v>
@@ -16189,8 +16189,8 @@
       <c r="X117" s="13">
         <v>0</v>
       </c>
-      <c r="Y117" s="13" t="s">
-        <v>57</v>
+      <c r="Y117" s="13">
+        <v>0</v>
       </c>
       <c r="Z117" s="13">
         <v>0</v>
@@ -16198,11 +16198,11 @@
       <c r="AA117" s="13">
         <v>0</v>
       </c>
-      <c r="AB117" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC117" s="13">
-        <v>0</v>
+      <c r="AB117" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC117" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AD117" s="13" t="s">
         <v>57</v>
@@ -16280,7 +16280,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="118" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
         <v>75</v>
       </c>
@@ -16402,15 +16402,15 @@
       <c r="AP118" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ118" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR118" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS118" s="11">
+      <c r="AQ118" s="11">
         <v>124492387</v>
       </c>
+      <c r="AR118" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS118" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AT118" s="11" t="s">
         <v>57</v>
       </c>
@@ -16439,7 +16439,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="119" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B119" s="12" t="s">
         <v>76</v>
       </c>
@@ -16528,44 +16528,44 @@
       <c r="AE119" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF119" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG119" s="13" t="s">
-        <v>57</v>
+      <c r="AF119" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG119" s="13">
+        <v>0</v>
       </c>
       <c r="AH119" s="13">
         <v>0</v>
       </c>
-      <c r="AI119" s="13">
-        <v>0</v>
+      <c r="AI119" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ119" s="13">
         <v>0</v>
       </c>
-      <c r="AK119" s="13" t="s">
-        <v>57</v>
+      <c r="AK119" s="13">
+        <v>0</v>
       </c>
       <c r="AL119" s="13">
         <v>0</v>
       </c>
-      <c r="AM119" s="13">
-        <v>0</v>
+      <c r="AM119" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN119" s="13">
         <v>0</v>
       </c>
-      <c r="AO119" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP119" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ119" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR119" s="13">
-        <v>0</v>
+      <c r="AO119" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP119" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ119" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR119" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS119" s="13" t="s">
         <v>57</v>

--- a/database/industries/palayesh/shavan/product/monthly.xlsx
+++ b/database/industries/palayesh/shavan/product/monthly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shavan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\palayesh\shavan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C372E673-C673-45B5-A98F-34E90D3A11DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="92">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -211,9 +210,6 @@
     <t>گاز مایع</t>
   </si>
   <si>
-    <t>بنزین معمولی</t>
-  </si>
-  <si>
     <t>نفتای سنگین</t>
   </si>
   <si>
@@ -235,9 +231,6 @@
     <t>هیدرو کربن MC160</t>
   </si>
   <si>
-    <t>بنزین یورو 5</t>
-  </si>
-  <si>
     <t>گوگرد .</t>
   </si>
   <si>
@@ -245,9 +238,6 @@
   </si>
   <si>
     <t>نفتای سنگین ترش</t>
-  </si>
-  <si>
-    <t>بنزین معمولی و یورو 5</t>
   </si>
   <si>
     <t>نفتای کامل</t>
@@ -303,11 +293,14 @@
   <si>
     <t>تن / ریال</t>
   </si>
+  <si>
+    <t>بنزین</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -779,10 +772,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2248,7 +2243,7 @@
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>56</v>
@@ -2407,7 +2402,7 @@
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>56</v>
@@ -2566,7 +2561,7 @@
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>56</v>
@@ -2725,7 +2720,7 @@
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>56</v>
@@ -2884,7 +2879,7 @@
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>56</v>
@@ -3043,7 +3038,7 @@
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>56</v>
@@ -3202,7 +3197,7 @@
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>56</v>
@@ -3361,7 +3356,7 @@
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>56</v>
@@ -3520,7 +3515,7 @@
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>56</v>
@@ -3679,7 +3674,7 @@
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>56</v>
@@ -3838,7 +3833,7 @@
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>56</v>
@@ -3997,7 +3992,7 @@
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>56</v>
@@ -4156,7 +4151,7 @@
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>56</v>
@@ -4315,7 +4310,7 @@
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>56</v>
@@ -4474,7 +4469,7 @@
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>56</v>
@@ -4633,7 +4628,7 @@
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
@@ -4690,7 +4685,7 @@
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -4847,7 +4842,7 @@
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -5169,7 +5164,7 @@
     </row>
     <row r="37" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -5381,7 +5376,7 @@
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -6233,7 +6228,7 @@
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>56</v>
@@ -6392,7 +6387,7 @@
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>56</v>
@@ -6551,7 +6546,7 @@
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>56</v>
@@ -6710,7 +6705,7 @@
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>56</v>
@@ -6869,7 +6864,7 @@
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>56</v>
@@ -7028,7 +7023,7 @@
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>56</v>
@@ -7187,7 +7182,7 @@
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>56</v>
@@ -7346,7 +7341,7 @@
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>56</v>
@@ -7505,7 +7500,7 @@
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>56</v>
@@ -7664,7 +7659,7 @@
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>56</v>
@@ -7823,7 +7818,7 @@
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>56</v>
@@ -7982,7 +7977,7 @@
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>56</v>
@@ -8141,7 +8136,7 @@
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>56</v>
@@ -8300,7 +8295,7 @@
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>56</v>
@@ -8459,7 +8454,7 @@
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>56</v>
@@ -8618,7 +8613,7 @@
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
@@ -8675,7 +8670,7 @@
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
@@ -8832,7 +8827,7 @@
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
@@ -8889,7 +8884,7 @@
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
@@ -9046,7 +9041,7 @@
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
@@ -9368,7 +9363,7 @@
     </row>
     <row r="68" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -9580,7 +9575,7 @@
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -9640,7 +9635,7 @@
         <v>55</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
@@ -9799,7 +9794,7 @@
         <v>58</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
@@ -9958,7 +9953,7 @@
         <v>59</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
@@ -10117,7 +10112,7 @@
         <v>61</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13" t="s">
@@ -10276,7 +10271,7 @@
         <v>62</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
@@ -10432,10 +10427,10 @@
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13">
@@ -10591,10 +10586,10 @@
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11" t="s">
@@ -10750,10 +10745,10 @@
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13" t="s">
@@ -10909,10 +10904,10 @@
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
@@ -11068,10 +11063,10 @@
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13">
@@ -11227,10 +11222,10 @@
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
@@ -11386,10 +11381,10 @@
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="13">
@@ -11545,10 +11540,10 @@
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
@@ -11704,10 +11699,10 @@
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13" t="s">
@@ -11863,10 +11858,10 @@
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11" t="s">
@@ -12022,10 +12017,10 @@
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13" t="s">
@@ -12181,10 +12176,10 @@
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11" t="s">
@@ -12340,10 +12335,10 @@
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13" t="s">
@@ -12499,10 +12494,10 @@
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11" t="s">
@@ -12658,10 +12653,10 @@
     </row>
     <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13" t="s">
@@ -12817,7 +12812,7 @@
     </row>
     <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
@@ -12874,10 +12869,10 @@
     </row>
     <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D92" s="17"/>
       <c r="E92" s="17" t="s">
@@ -13033,7 +13028,7 @@
     </row>
     <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
@@ -13090,10 +13085,10 @@
     </row>
     <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D94" s="17"/>
       <c r="E94" s="17" t="s">
@@ -13249,7 +13244,7 @@
     </row>
     <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -13306,10 +13301,10 @@
     </row>
     <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11" t="s">
@@ -13465,7 +13460,7 @@
     </row>
     <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C97" s="19"/>
       <c r="D97" s="19"/>
@@ -13787,7 +13782,7 @@
     </row>
     <row r="101" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -13999,7 +13994,7 @@
     </row>
     <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
@@ -14059,7 +14054,7 @@
         <v>58</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
@@ -14218,7 +14213,7 @@
         <v>59</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D105" s="13"/>
       <c r="E105" s="13">
@@ -14377,7 +14372,7 @@
         <v>61</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11" t="s">
@@ -14536,7 +14531,7 @@
         <v>62</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D107" s="13"/>
       <c r="E107" s="13">
@@ -14692,10 +14687,10 @@
     </row>
     <row r="108" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11">
@@ -14851,10 +14846,10 @@
     </row>
     <row r="109" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B109" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D109" s="13"/>
       <c r="E109" s="13" t="s">
@@ -15010,10 +15005,10 @@
     </row>
     <row r="110" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
@@ -15169,10 +15164,10 @@
     </row>
     <row r="111" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B111" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D111" s="13"/>
       <c r="E111" s="13">
@@ -15328,10 +15323,10 @@
     </row>
     <row r="112" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11">
@@ -15487,10 +15482,10 @@
     </row>
     <row r="113" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B113" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D113" s="13"/>
       <c r="E113" s="13">
@@ -15646,10 +15641,10 @@
     </row>
     <row r="114" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
@@ -15805,10 +15800,10 @@
     </row>
     <row r="115" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B115" s="12" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D115" s="13"/>
       <c r="E115" s="13" t="s">
@@ -15964,10 +15959,10 @@
     </row>
     <row r="116" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11" t="s">
@@ -16123,10 +16118,10 @@
     </row>
     <row r="117" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B117" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D117" s="13"/>
       <c r="E117" s="13" t="s">
@@ -16282,10 +16277,10 @@
     </row>
     <row r="118" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11" t="s">
@@ -16441,10 +16436,10 @@
     </row>
     <row r="119" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B119" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D119" s="13"/>
       <c r="E119" s="13" t="s">
